--- a/BackTest/2019-10-26 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-26 BackTest STRAT.xlsx
@@ -451,17 +451,13 @@
         <v>354.6</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>352</v>
-      </c>
-      <c r="K2" t="n">
-        <v>352</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>353.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>356</v>
-      </c>
-      <c r="K3" t="n">
-        <v>352</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>353.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>360</v>
-      </c>
-      <c r="K4" t="n">
-        <v>352</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,17 +556,13 @@
         <v>353.8</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>356</v>
-      </c>
-      <c r="K5" t="n">
-        <v>356</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -621,14 +597,8 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>356</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,22 +626,14 @@
         <v>357.4</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>360</v>
-      </c>
-      <c r="K7" t="n">
-        <v>356</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -702,17 +664,11 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>356</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -746,14 +702,8 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>356</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -787,14 +737,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>356</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -828,14 +772,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>356</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -869,14 +807,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>356</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -910,14 +842,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>356</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -951,14 +877,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>356</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -992,14 +912,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>356</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1033,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>356</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1074,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>356</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1115,14 +1017,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>356</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1156,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>356</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1197,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>356</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1238,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>356</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1279,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>356</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1320,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>356</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1361,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>356</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1402,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>356</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1443,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>356</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1481,19 +1329,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>356</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>1.031516853932584</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1522,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1557,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1592,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1627,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -2954,14 +2796,20 @@
         <v>356.2</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>364</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +2844,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3031,7 +2883,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3066,7 +2922,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3101,7 +2961,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3129,14 +2993,20 @@
         <v>359</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>359</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3171,7 +3041,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3206,7 +3080,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3241,7 +3119,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3276,7 +3158,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3311,7 +3197,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3346,7 +3236,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3381,7 +3275,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3416,7 +3314,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3451,7 +3353,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3486,7 +3392,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3514,14 +3424,20 @@
         <v>359.4</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>356</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3556,7 +3472,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3591,7 +3511,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3626,7 +3550,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3661,7 +3589,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3696,7 +3628,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3731,7 +3667,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3766,7 +3706,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3801,7 +3745,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3836,7 +3784,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3871,7 +3823,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3906,7 +3862,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3941,7 +3901,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3976,7 +3940,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4011,7 +3979,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4046,7 +4018,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4081,7 +4057,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4116,7 +4096,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4135,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4186,7 +4174,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4221,7 +4213,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4256,7 +4252,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4291,7 +4291,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4326,7 +4330,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4361,7 +4369,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4396,7 +4408,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4431,7 +4447,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4466,7 +4486,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4501,7 +4525,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4536,7 +4564,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4571,7 +4603,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4606,7 +4642,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4641,7 +4681,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4676,7 +4720,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4711,7 +4759,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4746,7 +4798,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4781,7 +4837,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4816,7 +4876,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4851,7 +4915,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4886,7 +4954,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4921,7 +4993,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4956,7 +5032,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4991,7 +5071,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-26 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-26 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M127"/>
+  <dimension ref="A1:M128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>352</v>
       </c>
       <c r="F2" t="n">
-        <v>2049.5667</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>354.6</v>
+        <v>354.4666666666666</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C3" t="n">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D3" t="n">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E3" t="n">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F3" t="n">
-        <v>203.8193</v>
+        <v>2049.5667</v>
       </c>
       <c r="G3" t="n">
-        <v>353.2</v>
+        <v>354.5166666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C4" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D4" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E4" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F4" t="n">
-        <v>14355.9032</v>
+        <v>203.8193</v>
       </c>
       <c r="G4" t="n">
-        <v>353.2</v>
+        <v>354.5833333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C5" t="n">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D5" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E5" t="n">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F5" t="n">
-        <v>300.4691</v>
+        <v>14355.9032</v>
       </c>
       <c r="G5" t="n">
-        <v>353.8</v>
+        <v>354.5333333333334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C6" t="n">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="D6" t="n">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="E6" t="n">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="F6" t="n">
-        <v>51</v>
+        <v>300.4691</v>
       </c>
       <c r="G6" t="n">
-        <v>356.6</v>
+        <v>354.6333333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C7" t="n">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="D7" t="n">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="E7" t="n">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="F7" t="n">
-        <v>136</v>
+        <v>51</v>
       </c>
       <c r="G7" t="n">
-        <v>357.4</v>
+        <v>354.8666666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C8" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D8" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E8" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F8" t="n">
-        <v>3080.8939</v>
+        <v>136</v>
       </c>
       <c r="G8" t="n">
-        <v>357.6</v>
+        <v>354.8166666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C9" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D9" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E9" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F9" t="n">
-        <v>895.8568</v>
+        <v>3080.8939</v>
       </c>
       <c r="G9" t="n">
-        <v>358.6</v>
+        <v>354.9</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>358</v>
       </c>
       <c r="F10" t="n">
-        <v>418.6886</v>
+        <v>895.8568</v>
       </c>
       <c r="G10" t="n">
-        <v>359</v>
+        <v>354.7833333333334</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C11" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D11" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E11" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F11" t="n">
-        <v>4020.0012</v>
+        <v>418.6886</v>
       </c>
       <c r="G11" t="n">
-        <v>357.8</v>
+        <v>354.9</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C12" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D12" t="n">
         <v>361</v>
@@ -795,10 +795,10 @@
         <v>360</v>
       </c>
       <c r="F12" t="n">
-        <v>223.6902</v>
+        <v>4020.0012</v>
       </c>
       <c r="G12" t="n">
-        <v>358.8</v>
+        <v>355.05</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C13" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D13" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E13" t="n">
         <v>360</v>
       </c>
       <c r="F13" t="n">
-        <v>500</v>
+        <v>223.6902</v>
       </c>
       <c r="G13" t="n">
-        <v>359.4</v>
+        <v>355.1833333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>360</v>
       </c>
       <c r="C14" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D14" t="n">
         <v>360</v>
       </c>
       <c r="E14" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F14" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G14" t="n">
-        <v>359.4</v>
+        <v>355.3166666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C15" t="n">
         <v>358</v>
       </c>
       <c r="D15" t="n">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E15" t="n">
         <v>358</v>
       </c>
       <c r="F15" t="n">
-        <v>426.4484</v>
+        <v>300</v>
       </c>
       <c r="G15" t="n">
-        <v>359.4</v>
+        <v>355.1833333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C16" t="n">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D16" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E16" t="n">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F16" t="n">
-        <v>225.8448</v>
+        <v>426.4484</v>
       </c>
       <c r="G16" t="n">
-        <v>360.4</v>
+        <v>355.3</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C17" t="n">
         <v>365</v>
@@ -967,13 +967,13 @@
         <v>365</v>
       </c>
       <c r="E17" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F17" t="n">
-        <v>1000</v>
+        <v>225.8448</v>
       </c>
       <c r="G17" t="n">
-        <v>361.2</v>
+        <v>355.5166666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C18" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D18" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E18" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="F18" t="n">
-        <v>125</v>
+        <v>1000</v>
       </c>
       <c r="G18" t="n">
-        <v>361</v>
+        <v>355.6333333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C19" t="n">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D19" t="n">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E19" t="n">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="G19" t="n">
-        <v>362.4</v>
+        <v>355.6</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C20" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D20" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E20" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="F20" t="n">
-        <v>363.8559</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>362.6</v>
+        <v>355.8833333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>359</v>
       </c>
       <c r="F21" t="n">
-        <v>300.1876</v>
+        <v>363.8559</v>
       </c>
       <c r="G21" t="n">
-        <v>361.4</v>
+        <v>356.0666666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C22" t="n">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D22" t="n">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E22" t="n">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F22" t="n">
-        <v>27.47252747</v>
+        <v>300.1876</v>
       </c>
       <c r="G22" t="n">
-        <v>361.2</v>
+        <v>356.25</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C23" t="n">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D23" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E23" t="n">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="F23" t="n">
-        <v>4785.1589</v>
+        <v>27.47252747</v>
       </c>
       <c r="G23" t="n">
-        <v>361.2</v>
+        <v>356.3333333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C24" t="n">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D24" t="n">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E24" t="n">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F24" t="n">
-        <v>100</v>
+        <v>4785.1589</v>
       </c>
       <c r="G24" t="n">
-        <v>361.8</v>
+        <v>356.45</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C25" t="n">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D25" t="n">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E25" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F25" t="n">
-        <v>2167.9013</v>
+        <v>100</v>
       </c>
       <c r="G25" t="n">
-        <v>364</v>
+        <v>356.5833333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1276,19 +1276,19 @@
         <v>369</v>
       </c>
       <c r="C26" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D26" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E26" t="n">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F26" t="n">
-        <v>27.027</v>
+        <v>2167.9013</v>
       </c>
       <c r="G26" t="n">
-        <v>366</v>
+        <v>356.8666666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1314,16 +1314,16 @@
         <v>369</v>
       </c>
       <c r="D27" t="n">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E27" t="n">
         <v>369</v>
       </c>
       <c r="F27" t="n">
-        <v>2010.9765</v>
+        <v>27.027</v>
       </c>
       <c r="G27" t="n">
-        <v>367</v>
+        <v>357.1333333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C28" t="n">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D28" t="n">
         <v>370</v>
       </c>
       <c r="E28" t="n">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F28" t="n">
-        <v>7159.8508</v>
+        <v>2010.9765</v>
       </c>
       <c r="G28" t="n">
-        <v>369.2</v>
+        <v>357.3666666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>370</v>
       </c>
       <c r="F29" t="n">
-        <v>3816.8998</v>
+        <v>7159.8508</v>
       </c>
       <c r="G29" t="n">
-        <v>369.6</v>
+        <v>357.6333333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C30" t="n">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D30" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E30" t="n">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F30" t="n">
-        <v>570.3265</v>
+        <v>3816.8998</v>
       </c>
       <c r="G30" t="n">
-        <v>369.2</v>
+        <v>357.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>375</v>
+      </c>
+      <c r="C31" t="n">
         <v>368</v>
-      </c>
-      <c r="C31" t="n">
-        <v>361</v>
       </c>
       <c r="D31" t="n">
         <v>375</v>
       </c>
       <c r="E31" t="n">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="F31" t="n">
-        <v>1550.5971</v>
+        <v>570.3265</v>
       </c>
       <c r="G31" t="n">
-        <v>367.6</v>
+        <v>358.1333333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C32" t="n">
         <v>361</v>
       </c>
       <c r="D32" t="n">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="E32" t="n">
         <v>361</v>
       </c>
       <c r="F32" t="n">
-        <v>1788</v>
+        <v>1550.5971</v>
       </c>
       <c r="G32" t="n">
-        <v>366</v>
+        <v>358.25</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C33" t="n">
         <v>361</v>
       </c>
       <c r="D33" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E33" t="n">
         <v>361</v>
       </c>
       <c r="F33" t="n">
-        <v>1382.0085</v>
+        <v>1788</v>
       </c>
       <c r="G33" t="n">
-        <v>364.2</v>
+        <v>358.3666666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>361</v>
       </c>
       <c r="F34" t="n">
-        <v>2264.8805</v>
+        <v>1382.0085</v>
       </c>
       <c r="G34" t="n">
-        <v>362.4</v>
+        <v>358.4833333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C35" t="n">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D35" t="n">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E35" t="n">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>2264.8805</v>
       </c>
       <c r="G35" t="n">
-        <v>362.4</v>
+        <v>358.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C36" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D36" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E36" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F36" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>364</v>
+        <v>358.8333333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C37" t="n">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D37" t="n">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E37" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F37" t="n">
-        <v>185.1105</v>
+        <v>50</v>
       </c>
       <c r="G37" t="n">
-        <v>365.8</v>
+        <v>359.0833333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C38" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D38" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E38" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F38" t="n">
-        <v>127.3</v>
+        <v>185.1105</v>
       </c>
       <c r="G38" t="n">
-        <v>367.4</v>
+        <v>359.3333333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C39" t="n">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D39" t="n">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E39" t="n">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F39" t="n">
-        <v>248</v>
+        <v>127.3</v>
       </c>
       <c r="G39" t="n">
-        <v>369.8</v>
+        <v>359.5666666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1766,19 +1766,19 @@
         <v>370</v>
       </c>
       <c r="C40" t="n">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D40" t="n">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E40" t="n">
         <v>370</v>
       </c>
       <c r="F40" t="n">
-        <v>1619.7204</v>
+        <v>248</v>
       </c>
       <c r="G40" t="n">
-        <v>370.2</v>
+        <v>359.8666666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1804,16 +1804,16 @@
         <v>370</v>
       </c>
       <c r="D41" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E41" t="n">
         <v>370</v>
       </c>
       <c r="F41" t="n">
-        <v>932</v>
+        <v>1619.7204</v>
       </c>
       <c r="G41" t="n">
-        <v>370.4</v>
+        <v>359.9833333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C42" t="n">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D42" t="n">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E42" t="n">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>932</v>
       </c>
       <c r="G42" t="n">
-        <v>371</v>
+        <v>360.25</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>373</v>
       </c>
       <c r="F43" t="n">
-        <v>9961.609700000001</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>371.8</v>
+        <v>360.5666666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1906,19 +1906,19 @@
         <v>373</v>
       </c>
       <c r="C44" t="n">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="D44" t="n">
         <v>373</v>
       </c>
       <c r="E44" t="n">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="F44" t="n">
-        <v>5538.7723</v>
+        <v>9961.609700000001</v>
       </c>
       <c r="G44" t="n">
-        <v>369.6</v>
+        <v>360.8833333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="C45" t="n">
         <v>362</v>
       </c>
       <c r="D45" t="n">
+        <v>373</v>
+      </c>
+      <c r="E45" t="n">
         <v>362</v>
       </c>
-      <c r="E45" t="n">
-        <v>361</v>
-      </c>
       <c r="F45" t="n">
-        <v>4008.1105</v>
+        <v>5538.7723</v>
       </c>
       <c r="G45" t="n">
-        <v>368</v>
+        <v>361.0166666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C46" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D46" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E46" t="n">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F46" t="n">
-        <v>4683.446</v>
+        <v>4008.1105</v>
       </c>
       <c r="G46" t="n">
-        <v>366.6</v>
+        <v>361.15</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C47" t="n">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D47" t="n">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E47" t="n">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F47" t="n">
-        <v>128.5687</v>
+        <v>4683.446</v>
       </c>
       <c r="G47" t="n">
-        <v>365.8</v>
+        <v>361.2833333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2046,19 +2046,19 @@
         <v>369</v>
       </c>
       <c r="C48" t="n">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D48" t="n">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E48" t="n">
         <v>369</v>
       </c>
       <c r="F48" t="n">
-        <v>321</v>
+        <v>128.5687</v>
       </c>
       <c r="G48" t="n">
-        <v>365.2</v>
+        <v>361.5166666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C49" t="n">
         <v>370</v>
@@ -2087,13 +2087,13 @@
         <v>370</v>
       </c>
       <c r="E49" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F49" t="n">
-        <v>210.6479</v>
+        <v>321</v>
       </c>
       <c r="G49" t="n">
-        <v>366.8</v>
+        <v>361.7833333333334</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,7 +2113,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C50" t="n">
         <v>370</v>
@@ -2122,13 +2122,13 @@
         <v>370</v>
       </c>
       <c r="E50" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F50" t="n">
-        <v>33.3168</v>
+        <v>210.6479</v>
       </c>
       <c r="G50" t="n">
-        <v>368.4</v>
+        <v>362.0166666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C51" t="n">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="D51" t="n">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="E51" t="n">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="F51" t="n">
-        <v>5375.3086</v>
+        <v>33.3168</v>
       </c>
       <c r="G51" t="n">
-        <v>368.2</v>
+        <v>362.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C52" t="n">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D52" t="n">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E52" t="n">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F52" t="n">
-        <v>107.7778</v>
+        <v>5375.3086</v>
       </c>
       <c r="G52" t="n">
-        <v>367.6</v>
+        <v>362.4333333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C53" t="n">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D53" t="n">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E53" t="n">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>107.7778</v>
       </c>
       <c r="G53" t="n">
-        <v>366</v>
+        <v>362.6333333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>362</v>
       </c>
       <c r="F54" t="n">
-        <v>56.0282</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>364.4</v>
+        <v>362.7666666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2291,19 +2291,19 @@
         <v>362</v>
       </c>
       <c r="C55" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D55" t="n">
         <v>362</v>
       </c>
       <c r="E55" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F55" t="n">
-        <v>4115.1039</v>
+        <v>56.0282</v>
       </c>
       <c r="G55" t="n">
-        <v>362.4</v>
+        <v>362.9166666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C56" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D56" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E56" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F56" t="n">
-        <v>8501.349099999999</v>
+        <v>4115.1039</v>
       </c>
       <c r="G56" t="n">
-        <v>361.8</v>
+        <v>363.0333333333334</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C57" t="n">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D57" t="n">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E57" t="n">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F57" t="n">
-        <v>99.7921</v>
+        <v>8501.349099999999</v>
       </c>
       <c r="G57" t="n">
-        <v>361.8</v>
+        <v>363.1333333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C58" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D58" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E58" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F58" t="n">
-        <v>1892.7151</v>
+        <v>99.7921</v>
       </c>
       <c r="G58" t="n">
-        <v>362.2</v>
+        <v>363.1833333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2431,19 +2431,19 @@
         <v>364</v>
       </c>
       <c r="C59" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D59" t="n">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E59" t="n">
         <v>364</v>
       </c>
       <c r="F59" t="n">
-        <v>7732.6528</v>
+        <v>1892.7151</v>
       </c>
       <c r="G59" t="n">
-        <v>362.8</v>
+        <v>363.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C60" t="n">
         <v>365</v>
       </c>
       <c r="D60" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E60" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F60" t="n">
-        <v>446.2022</v>
+        <v>7732.6528</v>
       </c>
       <c r="G60" t="n">
-        <v>363.8</v>
+        <v>363.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>365</v>
       </c>
       <c r="F61" t="n">
-        <v>169.1125</v>
+        <v>446.2022</v>
       </c>
       <c r="G61" t="n">
-        <v>365</v>
+        <v>363.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2536,19 +2536,19 @@
         <v>365</v>
       </c>
       <c r="C62" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D62" t="n">
         <v>365</v>
       </c>
       <c r="E62" t="n">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="F62" t="n">
-        <v>11947.4509</v>
+        <v>169.1125</v>
       </c>
       <c r="G62" t="n">
-        <v>364.2</v>
+        <v>363.8166666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C63" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D63" t="n">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E63" t="n">
         <v>355</v>
       </c>
       <c r="F63" t="n">
-        <v>300</v>
+        <v>11947.4509</v>
       </c>
       <c r="G63" t="n">
-        <v>362.8</v>
+        <v>363.9833333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C64" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D64" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E64" t="n">
         <v>355</v>
       </c>
       <c r="F64" t="n">
-        <v>55.3718</v>
+        <v>300</v>
       </c>
       <c r="G64" t="n">
-        <v>360.8</v>
+        <v>364</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>355</v>
       </c>
       <c r="F65" t="n">
-        <v>16</v>
+        <v>55.3718</v>
       </c>
       <c r="G65" t="n">
-        <v>358.8</v>
+        <v>364.0333333333334</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C66" t="n">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D66" t="n">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E66" t="n">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F66" t="n">
-        <v>1553</v>
+        <v>16</v>
       </c>
       <c r="G66" t="n">
-        <v>356.2</v>
+        <v>364.0166666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C67" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D67" t="n">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="E67" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F67" t="n">
-        <v>31</v>
+        <v>1553</v>
       </c>
       <c r="G67" t="n">
-        <v>354.4</v>
+        <v>363.7833333333334</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,31 +2743,35 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C68" t="n">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="D68" t="n">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E68" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F68" t="n">
-        <v>515.0339</v>
+        <v>31</v>
       </c>
       <c r="G68" t="n">
-        <v>355.8</v>
+        <v>363.7333333333333</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>352</v>
+      </c>
+      <c r="K68" t="n">
+        <v>352</v>
+      </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
@@ -2778,22 +2782,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C69" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="D69" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E69" t="n">
         <v>357</v>
       </c>
       <c r="F69" t="n">
-        <v>157</v>
+        <v>515.0339</v>
       </c>
       <c r="G69" t="n">
-        <v>356.2</v>
+        <v>363.85</v>
       </c>
       <c r="H69" t="n">
         <v>1</v>
@@ -2802,12 +2806,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>364</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="K69" t="n">
+        <v>352</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M69" t="n">
@@ -2819,22 +2825,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C70" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D70" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E70" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F70" t="n">
-        <v>87.0869</v>
+        <v>157</v>
       </c>
       <c r="G70" t="n">
-        <v>356.4</v>
+        <v>363.8333333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2843,10 +2849,12 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>352</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M70" t="n">
@@ -2858,22 +2866,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C71" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D71" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E71" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F71" t="n">
-        <v>476.3323</v>
+        <v>87.0869</v>
       </c>
       <c r="G71" t="n">
-        <v>357</v>
+        <v>363.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,11 +2891,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2897,22 +2901,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C72" t="n">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D72" t="n">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E72" t="n">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F72" t="n">
-        <v>298.6</v>
+        <v>476.3323</v>
       </c>
       <c r="G72" t="n">
-        <v>358.4</v>
+        <v>363.7166666666666</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2922,11 +2926,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2936,22 +2936,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C73" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D73" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E73" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F73" t="n">
-        <v>1389.9586</v>
+        <v>298.6</v>
       </c>
       <c r="G73" t="n">
-        <v>357.4</v>
+        <v>363.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2961,11 +2961,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2975,38 +2971,32 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C74" t="n">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D74" t="n">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E74" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F74" t="n">
-        <v>3007.8671</v>
+        <v>1389.9586</v>
       </c>
       <c r="G74" t="n">
-        <v>359</v>
+        <v>363.6833333333333</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>359</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3016,7 +3006,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C75" t="n">
         <v>365</v>
@@ -3025,13 +3015,13 @@
         <v>365</v>
       </c>
       <c r="E75" t="n">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F75" t="n">
-        <v>500</v>
+        <v>3007.8671</v>
       </c>
       <c r="G75" t="n">
-        <v>360.8</v>
+        <v>363.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3041,11 +3031,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3070,7 +3056,7 @@
         <v>500</v>
       </c>
       <c r="G76" t="n">
-        <v>362.8</v>
+        <v>363.9166666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3080,11 +3066,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3094,22 +3076,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C77" t="n">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="D77" t="n">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E77" t="n">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F77" t="n">
-        <v>1476.2016</v>
+        <v>500</v>
       </c>
       <c r="G77" t="n">
-        <v>362.2</v>
+        <v>363.9166666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3119,11 +3101,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3133,22 +3111,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C78" t="n">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D78" t="n">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E78" t="n">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>1476.2016</v>
       </c>
       <c r="G78" t="n">
-        <v>363.2</v>
+        <v>363.7833333333334</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3158,11 +3136,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3172,22 +3146,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C79" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D79" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E79" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="F79" t="n">
-        <v>162.1</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>361.8</v>
+        <v>363.8666666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3197,11 +3171,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3211,22 +3181,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C80" t="n">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D80" t="n">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E80" t="n">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>162.1</v>
       </c>
       <c r="G80" t="n">
-        <v>361.4</v>
+        <v>363.75</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3236,11 +3206,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3250,22 +3216,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C81" t="n">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D81" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="E81" t="n">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="F81" t="n">
-        <v>485.5994</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>359.8</v>
+        <v>363.8166666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3275,11 +3241,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3289,22 +3251,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C82" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D82" t="n">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E82" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F82" t="n">
-        <v>56.022</v>
+        <v>485.5994</v>
       </c>
       <c r="G82" t="n">
-        <v>361</v>
+        <v>363.7833333333334</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3314,11 +3276,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3328,22 +3286,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C83" t="n">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="D83" t="n">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E83" t="n">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="F83" t="n">
-        <v>969</v>
+        <v>56.022</v>
       </c>
       <c r="G83" t="n">
-        <v>359.4</v>
+        <v>363.7666666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3353,11 +3311,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3367,22 +3321,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C84" t="n">
         <v>356</v>
       </c>
       <c r="D84" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E84" t="n">
         <v>356</v>
       </c>
       <c r="F84" t="n">
-        <v>768.6685</v>
+        <v>969</v>
       </c>
       <c r="G84" t="n">
-        <v>359</v>
+        <v>363.7166666666666</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3392,11 +3346,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3406,38 +3356,32 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C85" t="n">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="D85" t="n">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="E85" t="n">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F85" t="n">
-        <v>8301.214664380001</v>
+        <v>768.6685</v>
       </c>
       <c r="G85" t="n">
-        <v>359.4</v>
+        <v>363.5166666666667</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>356</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3447,22 +3391,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C86" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D86" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E86" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F86" t="n">
-        <v>1191.1689</v>
+        <v>8301.214664380001</v>
       </c>
       <c r="G86" t="n">
-        <v>359.8</v>
+        <v>363.4333333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3472,11 +3416,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3486,7 +3426,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C87" t="n">
         <v>359</v>
@@ -3495,13 +3435,13 @@
         <v>359</v>
       </c>
       <c r="E87" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F87" t="n">
-        <v>1408.0745</v>
+        <v>1191.1689</v>
       </c>
       <c r="G87" t="n">
-        <v>359</v>
+        <v>363.2666666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3511,11 +3451,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3537,10 +3473,10 @@
         <v>359</v>
       </c>
       <c r="F88" t="n">
-        <v>227.4504</v>
+        <v>1408.0745</v>
       </c>
       <c r="G88" t="n">
-        <v>359.6</v>
+        <v>363.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3550,11 +3486,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3564,22 +3496,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C89" t="n">
         <v>359</v>
       </c>
       <c r="D89" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E89" t="n">
         <v>359</v>
       </c>
       <c r="F89" t="n">
-        <v>100</v>
+        <v>227.4504</v>
       </c>
       <c r="G89" t="n">
-        <v>360.2</v>
+        <v>362.9166666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3589,11 +3521,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3603,22 +3531,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C90" t="n">
         <v>359</v>
       </c>
       <c r="D90" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E90" t="n">
         <v>359</v>
       </c>
       <c r="F90" t="n">
-        <v>109.21</v>
+        <v>100</v>
       </c>
       <c r="G90" t="n">
-        <v>359</v>
+        <v>362.7333333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3628,11 +3556,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3645,7 +3569,7 @@
         <v>360</v>
       </c>
       <c r="C91" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D91" t="n">
         <v>360</v>
@@ -3654,10 +3578,10 @@
         <v>359</v>
       </c>
       <c r="F91" t="n">
-        <v>96</v>
+        <v>109.21</v>
       </c>
       <c r="G91" t="n">
-        <v>359.2</v>
+        <v>362.5833333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3667,11 +3591,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3690,13 +3610,13 @@
         <v>360</v>
       </c>
       <c r="E92" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F92" t="n">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="G92" t="n">
-        <v>359.4</v>
+        <v>362.5666666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3706,11 +3626,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3720,22 +3636,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C93" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D93" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E93" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F93" t="n">
-        <v>112.259</v>
+        <v>32</v>
       </c>
       <c r="G93" t="n">
-        <v>359.4</v>
+        <v>362.55</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3745,11 +3661,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3759,22 +3671,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C94" t="n">
         <v>359</v>
       </c>
       <c r="D94" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E94" t="n">
         <v>359</v>
       </c>
       <c r="F94" t="n">
-        <v>1082</v>
+        <v>112.259</v>
       </c>
       <c r="G94" t="n">
-        <v>359.4</v>
+        <v>362.5166666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3784,11 +3696,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3798,22 +3706,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C95" t="n">
         <v>359</v>
       </c>
       <c r="D95" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E95" t="n">
         <v>359</v>
       </c>
       <c r="F95" t="n">
-        <v>126.2009</v>
+        <v>1082</v>
       </c>
       <c r="G95" t="n">
-        <v>359.4</v>
+        <v>362.4833333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3823,11 +3731,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3837,22 +3741,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C96" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D96" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E96" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F96" t="n">
-        <v>317.0422</v>
+        <v>126.2009</v>
       </c>
       <c r="G96" t="n">
-        <v>359</v>
+        <v>362.3333333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3862,11 +3766,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3876,22 +3776,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C97" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D97" t="n">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E97" t="n">
         <v>358</v>
       </c>
       <c r="F97" t="n">
-        <v>1439.0094</v>
+        <v>317.0422</v>
       </c>
       <c r="G97" t="n">
-        <v>359</v>
+        <v>362.15</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3901,11 +3801,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3915,22 +3811,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C98" t="n">
         <v>360</v>
       </c>
       <c r="D98" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E98" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F98" t="n">
-        <v>229.17</v>
+        <v>1439.0094</v>
       </c>
       <c r="G98" t="n">
-        <v>359.2</v>
+        <v>361.9833333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3940,11 +3836,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3966,10 +3858,10 @@
         <v>360</v>
       </c>
       <c r="F99" t="n">
-        <v>110.5453</v>
+        <v>229.17</v>
       </c>
       <c r="G99" t="n">
-        <v>359.4</v>
+        <v>361.8333333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3979,11 +3871,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3993,22 +3881,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C100" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D100" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E100" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F100" t="n">
-        <v>45.502</v>
+        <v>110.5453</v>
       </c>
       <c r="G100" t="n">
-        <v>359.4</v>
+        <v>361.6166666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4018,11 +3906,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4044,10 +3928,10 @@
         <v>359</v>
       </c>
       <c r="F101" t="n">
-        <v>71.28879999999999</v>
+        <v>45.502</v>
       </c>
       <c r="G101" t="n">
-        <v>359.6</v>
+        <v>361.4333333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4057,11 +3941,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4071,22 +3951,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C102" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D102" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E102" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F102" t="n">
-        <v>110.5472</v>
+        <v>71.28879999999999</v>
       </c>
       <c r="G102" t="n">
-        <v>359.6</v>
+        <v>361.25</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4096,11 +3976,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4110,22 +3986,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C103" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D103" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E103" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F103" t="n">
-        <v>317.5337</v>
+        <v>110.5472</v>
       </c>
       <c r="G103" t="n">
-        <v>359.4</v>
+        <v>361.0333333333334</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4135,11 +4011,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4161,10 +4033,10 @@
         <v>359</v>
       </c>
       <c r="F104" t="n">
-        <v>404.0422</v>
+        <v>317.5337</v>
       </c>
       <c r="G104" t="n">
-        <v>359.2</v>
+        <v>360.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4174,11 +4046,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4188,22 +4056,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C105" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D105" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E105" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F105" t="n">
-        <v>99.9999</v>
+        <v>404.0422</v>
       </c>
       <c r="G105" t="n">
-        <v>359.8</v>
+        <v>360.75</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4213,11 +4081,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4236,13 +4100,13 @@
         <v>362</v>
       </c>
       <c r="E106" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F106" t="n">
-        <v>333</v>
+        <v>99.9999</v>
       </c>
       <c r="G106" t="n">
-        <v>360.4</v>
+        <v>360.75</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4252,11 +4116,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4275,13 +4135,13 @@
         <v>362</v>
       </c>
       <c r="E107" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F107" t="n">
-        <v>26.8752</v>
+        <v>333</v>
       </c>
       <c r="G107" t="n">
-        <v>360.8</v>
+        <v>360.7333333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4291,11 +4151,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4317,10 +4173,10 @@
         <v>362</v>
       </c>
       <c r="F108" t="n">
-        <v>7</v>
+        <v>26.8752</v>
       </c>
       <c r="G108" t="n">
-        <v>361.4</v>
+        <v>360.6166666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4330,11 +4186,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4347,19 +4199,19 @@
         <v>362</v>
       </c>
       <c r="C109" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D109" t="n">
         <v>362</v>
       </c>
       <c r="E109" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F109" t="n">
-        <v>699.1442</v>
+        <v>7</v>
       </c>
       <c r="G109" t="n">
-        <v>361.6</v>
+        <v>360.4833333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4369,11 +4221,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4383,22 +4231,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C110" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D110" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E110" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F110" t="n">
-        <v>561.9999</v>
+        <v>699.1442</v>
       </c>
       <c r="G110" t="n">
-        <v>361</v>
+        <v>360.3166666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4408,11 +4256,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4422,22 +4266,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C111" t="n">
         <v>359</v>
       </c>
       <c r="D111" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E111" t="n">
         <v>359</v>
       </c>
       <c r="F111" t="n">
-        <v>148</v>
+        <v>561.9999</v>
       </c>
       <c r="G111" t="n">
-        <v>360.4</v>
+        <v>360.1333333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4447,11 +4291,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4473,10 +4313,10 @@
         <v>359</v>
       </c>
       <c r="F112" t="n">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="G112" t="n">
-        <v>359.8</v>
+        <v>360.0833333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4486,11 +4326,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4503,19 +4339,19 @@
         <v>359</v>
       </c>
       <c r="C113" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D113" t="n">
         <v>359</v>
       </c>
       <c r="E113" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F113" t="n">
-        <v>1300.3009</v>
+        <v>50</v>
       </c>
       <c r="G113" t="n">
-        <v>359</v>
+        <v>359.9666666666666</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4525,11 +4361,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4539,22 +4371,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
+        <v>359</v>
+      </c>
+      <c r="C114" t="n">
         <v>358</v>
       </c>
-      <c r="C114" t="n">
-        <v>357</v>
-      </c>
       <c r="D114" t="n">
+        <v>359</v>
+      </c>
+      <c r="E114" t="n">
         <v>358</v>
       </c>
-      <c r="E114" t="n">
-        <v>357</v>
-      </c>
       <c r="F114" t="n">
-        <v>243.0817</v>
+        <v>1300.3009</v>
       </c>
       <c r="G114" t="n">
-        <v>358.4</v>
+        <v>359.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4564,11 +4396,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4578,22 +4406,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C115" t="n">
         <v>357</v>
       </c>
       <c r="D115" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E115" t="n">
         <v>357</v>
       </c>
       <c r="F115" t="n">
-        <v>559.9032</v>
+        <v>243.0817</v>
       </c>
       <c r="G115" t="n">
-        <v>358</v>
+        <v>359.8166666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4603,11 +4431,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4629,10 +4453,10 @@
         <v>357</v>
       </c>
       <c r="F116" t="n">
-        <v>412.2419</v>
+        <v>559.9032</v>
       </c>
       <c r="G116" t="n">
-        <v>357.6</v>
+        <v>359.7666666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4642,11 +4466,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4668,10 +4488,10 @@
         <v>357</v>
       </c>
       <c r="F117" t="n">
-        <v>460</v>
+        <v>412.2419</v>
       </c>
       <c r="G117" t="n">
-        <v>357.2</v>
+        <v>359.7333333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4681,11 +4501,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4707,10 +4523,10 @@
         <v>357</v>
       </c>
       <c r="F118" t="n">
-        <v>342</v>
+        <v>460</v>
       </c>
       <c r="G118" t="n">
-        <v>357</v>
+        <v>359.5833333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4720,11 +4536,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4734,22 +4546,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C119" t="n">
         <v>357</v>
       </c>
       <c r="D119" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E119" t="n">
         <v>357</v>
       </c>
       <c r="F119" t="n">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="G119" t="n">
-        <v>357</v>
+        <v>359.4666666666666</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4759,11 +4571,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4773,22 +4581,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C120" t="n">
         <v>357</v>
       </c>
       <c r="D120" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E120" t="n">
         <v>357</v>
       </c>
       <c r="F120" t="n">
-        <v>5195.0864</v>
+        <v>298</v>
       </c>
       <c r="G120" t="n">
-        <v>357</v>
+        <v>359.3333333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4798,11 +4606,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4824,10 +4628,10 @@
         <v>357</v>
       </c>
       <c r="F121" t="n">
-        <v>91.5359</v>
+        <v>5195.0864</v>
       </c>
       <c r="G121" t="n">
-        <v>357</v>
+        <v>359.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4837,11 +4641,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4863,10 +4663,10 @@
         <v>357</v>
       </c>
       <c r="F122" t="n">
-        <v>3939.2688</v>
+        <v>91.5359</v>
       </c>
       <c r="G122" t="n">
-        <v>357</v>
+        <v>359.0666666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4876,11 +4676,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4902,10 +4698,10 @@
         <v>357</v>
       </c>
       <c r="F123" t="n">
-        <v>92</v>
+        <v>3939.2688</v>
       </c>
       <c r="G123" t="n">
-        <v>357</v>
+        <v>358.9833333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4915,11 +4711,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4941,10 +4733,10 @@
         <v>357</v>
       </c>
       <c r="F124" t="n">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="G124" t="n">
-        <v>357</v>
+        <v>358.9833333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4954,11 +4746,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4980,10 +4768,10 @@
         <v>357</v>
       </c>
       <c r="F125" t="n">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="G125" t="n">
-        <v>357</v>
+        <v>359.0166666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4993,11 +4781,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5007,22 +4791,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C126" t="n">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D126" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E126" t="n">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F126" t="n">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="G126" t="n">
-        <v>356.4</v>
+        <v>359.05</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5032,11 +4816,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5046,22 +4826,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C127" t="n">
         <v>354</v>
       </c>
       <c r="D127" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E127" t="n">
         <v>354</v>
       </c>
       <c r="F127" t="n">
-        <v>930.5775</v>
+        <v>50</v>
       </c>
       <c r="G127" t="n">
-        <v>355.8</v>
+        <v>359.0833333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5071,12 +4851,43 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>354</v>
+      </c>
+      <c r="C128" t="n">
+        <v>354</v>
+      </c>
+      <c r="D128" t="n">
+        <v>354</v>
+      </c>
+      <c r="E128" t="n">
+        <v>354</v>
+      </c>
+      <c r="F128" t="n">
+        <v>930.5775</v>
+      </c>
+      <c r="G128" t="n">
+        <v>359.1</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-26 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N138"/>
+  <dimension ref="A1:M167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C2" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D2" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E2" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G2" t="n">
-        <v>354.8666666666667</v>
+        <v>-8586.025400000008</v>
       </c>
       <c r="H2" t="n">
-        <v>354.4666666666666</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C3" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D3" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E3" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F3" t="n">
-        <v>2049.5667</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>354.6666666666667</v>
+        <v>-8586.025400000008</v>
       </c>
       <c r="H3" t="n">
-        <v>354.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C4" t="n">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D4" t="n">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E4" t="n">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F4" t="n">
-        <v>203.8193</v>
+        <v>2548.5154</v>
       </c>
       <c r="G4" t="n">
-        <v>354.8</v>
+        <v>-8586.025400000008</v>
       </c>
       <c r="H4" t="n">
-        <v>354.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C5" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D5" t="n">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E5" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F5" t="n">
-        <v>14355.9032</v>
+        <v>125.7075</v>
       </c>
       <c r="G5" t="n">
-        <v>354.6</v>
+        <v>-8586.025400000008</v>
       </c>
       <c r="H5" t="n">
-        <v>354.5333333333334</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C6" t="n">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D6" t="n">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E6" t="n">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F6" t="n">
-        <v>300.4691</v>
+        <v>323</v>
       </c>
       <c r="G6" t="n">
-        <v>354.8</v>
+        <v>-8586.025400000008</v>
       </c>
       <c r="H6" t="n">
-        <v>354.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C7" t="n">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="D7" t="n">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="E7" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="F7" t="n">
-        <v>51</v>
+        <v>3.99</v>
       </c>
       <c r="G7" t="n">
-        <v>355.6</v>
+        <v>-8582.035400000008</v>
       </c>
       <c r="H7" t="n">
-        <v>354.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C8" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D8" t="n">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E8" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F8" t="n">
-        <v>136</v>
+        <v>311</v>
       </c>
       <c r="G8" t="n">
-        <v>355.7333333333333</v>
+        <v>-8582.035400000008</v>
       </c>
       <c r="H8" t="n">
-        <v>354.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C9" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D9" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E9" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F9" t="n">
-        <v>3080.8939</v>
+        <v>1254</v>
       </c>
       <c r="G9" t="n">
-        <v>355.9333333333333</v>
+        <v>-8582.035400000008</v>
       </c>
       <c r="H9" t="n">
-        <v>354.9</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C10" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D10" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="E10" t="n">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F10" t="n">
-        <v>895.8568</v>
+        <v>51</v>
       </c>
       <c r="G10" t="n">
-        <v>356.2666666666667</v>
+        <v>-8531.035400000008</v>
       </c>
       <c r="H10" t="n">
-        <v>354.7833333333334</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C11" t="n">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D11" t="n">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E11" t="n">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F11" t="n">
-        <v>418.6886</v>
+        <v>276.6802</v>
       </c>
       <c r="G11" t="n">
-        <v>356.6</v>
+        <v>-8807.715600000009</v>
       </c>
       <c r="H11" t="n">
-        <v>354.9</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C12" t="n">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D12" t="n">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E12" t="n">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F12" t="n">
-        <v>4020.0012</v>
+        <v>4324.3025</v>
       </c>
       <c r="G12" t="n">
-        <v>357.0666666666667</v>
+        <v>-8807.715600000009</v>
       </c>
       <c r="H12" t="n">
-        <v>355.05</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C13" t="n">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D13" t="n">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E13" t="n">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F13" t="n">
-        <v>223.6902</v>
+        <v>1880.695</v>
       </c>
       <c r="G13" t="n">
-        <v>356.9333333333333</v>
+        <v>-8807.715600000009</v>
       </c>
       <c r="H13" t="n">
-        <v>355.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C14" t="n">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D14" t="n">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E14" t="n">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F14" t="n">
-        <v>500</v>
+        <v>173</v>
       </c>
       <c r="G14" t="n">
-        <v>356.7333333333333</v>
+        <v>-8807.715600000009</v>
       </c>
       <c r="H14" t="n">
-        <v>355.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C15" t="n">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D15" t="n">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E15" t="n">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F15" t="n">
-        <v>300</v>
+        <v>28.169</v>
       </c>
       <c r="G15" t="n">
-        <v>357.0666666666667</v>
+        <v>-8807.715600000009</v>
       </c>
       <c r="H15" t="n">
-        <v>355.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C16" t="n">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D16" t="n">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="E16" t="n">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F16" t="n">
-        <v>426.4484</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>357.4</v>
+        <v>-8806.715600000009</v>
       </c>
       <c r="H16" t="n">
-        <v>355.3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C17" t="n">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="D17" t="n">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E17" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="F17" t="n">
-        <v>225.8448</v>
+        <v>318.3294</v>
       </c>
       <c r="G17" t="n">
-        <v>358.2666666666667</v>
+        <v>-8806.715600000009</v>
       </c>
       <c r="H17" t="n">
-        <v>355.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C18" t="n">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="D18" t="n">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E18" t="n">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="F18" t="n">
-        <v>1000</v>
+        <v>601.0144</v>
       </c>
       <c r="G18" t="n">
-        <v>359.1333333333333</v>
+        <v>-9407.730000000009</v>
       </c>
       <c r="H18" t="n">
-        <v>355.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C19" t="n">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D19" t="n">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E19" t="n">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F19" t="n">
-        <v>125</v>
+        <v>472.6975</v>
       </c>
       <c r="G19" t="n">
-        <v>359.3333333333333</v>
+        <v>-8935.032500000008</v>
       </c>
       <c r="H19" t="n">
-        <v>355.6</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C20" t="n">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D20" t="n">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="E20" t="n">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>229</v>
       </c>
       <c r="G20" t="n">
-        <v>360.1333333333333</v>
+        <v>-9164.032500000008</v>
       </c>
       <c r="H20" t="n">
-        <v>355.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C21" t="n">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D21" t="n">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E21" t="n">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F21" t="n">
-        <v>363.8559</v>
+        <v>134.4825</v>
       </c>
       <c r="G21" t="n">
-        <v>360.3333333333333</v>
+        <v>-9029.550000000008</v>
       </c>
       <c r="H21" t="n">
-        <v>356.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C22" t="n">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D22" t="n">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E22" t="n">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F22" t="n">
-        <v>300.1876</v>
+        <v>76.52800000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>359.8666666666667</v>
+        <v>-9029.550000000008</v>
       </c>
       <c r="H22" t="n">
-        <v>356.25</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C23" t="n">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D23" t="n">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="E23" t="n">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="F23" t="n">
-        <v>27.47252747</v>
+        <v>82.9131</v>
       </c>
       <c r="G23" t="n">
-        <v>360.4</v>
+        <v>-9029.550000000008</v>
       </c>
       <c r="H23" t="n">
-        <v>356.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="C24" t="n">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D24" t="n">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="E24" t="n">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F24" t="n">
-        <v>4785.1589</v>
+        <v>1561.5074</v>
       </c>
       <c r="G24" t="n">
-        <v>360.5333333333334</v>
+        <v>-10591.05740000001</v>
       </c>
       <c r="H24" t="n">
-        <v>356.45</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C25" t="n">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="D25" t="n">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="E25" t="n">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="F25" t="n">
-        <v>100</v>
+        <v>7540.0756</v>
       </c>
       <c r="G25" t="n">
-        <v>361.2</v>
+        <v>-10591.05740000001</v>
       </c>
       <c r="H25" t="n">
-        <v>356.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C26" t="n">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="D26" t="n">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E26" t="n">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="F26" t="n">
-        <v>2167.9013</v>
+        <v>365.3889</v>
       </c>
       <c r="G26" t="n">
-        <v>362</v>
+        <v>-10591.05740000001</v>
       </c>
       <c r="H26" t="n">
-        <v>356.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C27" t="n">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D27" t="n">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E27" t="n">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F27" t="n">
-        <v>27.027</v>
+        <v>29</v>
       </c>
       <c r="G27" t="n">
-        <v>362.6</v>
+        <v>-10562.05740000001</v>
       </c>
       <c r="H27" t="n">
-        <v>357.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C28" t="n">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D28" t="n">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E28" t="n">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F28" t="n">
-        <v>2010.9765</v>
+        <v>43.1446</v>
       </c>
       <c r="G28" t="n">
-        <v>363.1333333333333</v>
+        <v>-10562.05740000001</v>
       </c>
       <c r="H28" t="n">
-        <v>357.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="C29" t="n">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="D29" t="n">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="E29" t="n">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="F29" t="n">
-        <v>7159.8508</v>
+        <v>100</v>
       </c>
       <c r="G29" t="n">
-        <v>363.8</v>
+        <v>-10662.05740000001</v>
       </c>
       <c r="H29" t="n">
-        <v>357.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="C30" t="n">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="D30" t="n">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="E30" t="n">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="F30" t="n">
-        <v>3816.8998</v>
+        <v>520.0091</v>
       </c>
       <c r="G30" t="n">
-        <v>364.6</v>
+        <v>-10662.05740000001</v>
       </c>
       <c r="H30" t="n">
-        <v>357.9</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="C31" t="n">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="D31" t="n">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="E31" t="n">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="F31" t="n">
-        <v>570.3265</v>
+        <v>100</v>
       </c>
       <c r="G31" t="n">
-        <v>365.2666666666667</v>
+        <v>-10762.05740000001</v>
       </c>
       <c r="H31" t="n">
-        <v>358.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="C32" t="n">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="D32" t="n">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="E32" t="n">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="F32" t="n">
-        <v>1550.5971</v>
+        <v>2049.5667</v>
       </c>
       <c r="G32" t="n">
-        <v>365</v>
+        <v>-10762.05740000001</v>
       </c>
       <c r="H32" t="n">
-        <v>358.25</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C33" t="n">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D33" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E33" t="n">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F33" t="n">
-        <v>1788</v>
+        <v>203.8193</v>
       </c>
       <c r="G33" t="n">
-        <v>364.7333333333333</v>
+        <v>-10558.23810000001</v>
       </c>
       <c r="H33" t="n">
-        <v>358.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C34" t="n">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D34" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E34" t="n">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F34" t="n">
-        <v>1382.0085</v>
+        <v>14355.9032</v>
       </c>
       <c r="G34" t="n">
-        <v>364.8666666666667</v>
+        <v>-24914.14130000001</v>
       </c>
       <c r="H34" t="n">
-        <v>358.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C35" t="n">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D35" t="n">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E35" t="n">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F35" t="n">
-        <v>2264.8805</v>
+        <v>300.4691</v>
       </c>
       <c r="G35" t="n">
-        <v>364.6</v>
+        <v>-24613.67220000001</v>
       </c>
       <c r="H35" t="n">
-        <v>358.6</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C36" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D36" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E36" t="n">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="G36" t="n">
-        <v>365.2</v>
+        <v>-24562.67220000001</v>
       </c>
       <c r="H36" t="n">
-        <v>358.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C37" t="n">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="D37" t="n">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="E37" t="n">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="F37" t="n">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="G37" t="n">
-        <v>365.8666666666667</v>
+        <v>-24698.67220000001</v>
       </c>
       <c r="H37" t="n">
-        <v>359.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="C38" t="n">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="D38" t="n">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="E38" t="n">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="F38" t="n">
-        <v>185.1105</v>
+        <v>3080.8939</v>
       </c>
       <c r="G38" t="n">
-        <v>366.2666666666667</v>
+        <v>-21617.77830000001</v>
       </c>
       <c r="H38" t="n">
-        <v>359.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="C39" t="n">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="D39" t="n">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="E39" t="n">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="F39" t="n">
-        <v>127.3</v>
+        <v>895.8568</v>
       </c>
       <c r="G39" t="n">
-        <v>366.9333333333333</v>
+        <v>-20721.92150000001</v>
       </c>
       <c r="H39" t="n">
-        <v>359.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C40" t="n">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="D40" t="n">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="E40" t="n">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="F40" t="n">
-        <v>248</v>
+        <v>418.6886</v>
       </c>
       <c r="G40" t="n">
-        <v>367.2666666666667</v>
+        <v>-20721.92150000001</v>
       </c>
       <c r="H40" t="n">
-        <v>359.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>1</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C41" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="D41" t="n">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="E41" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="F41" t="n">
-        <v>1619.7204</v>
+        <v>4020.0012</v>
       </c>
       <c r="G41" t="n">
-        <v>367.2666666666667</v>
+        <v>-16701.92030000001</v>
       </c>
       <c r="H41" t="n">
-        <v>359.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>1</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C42" t="n">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="D42" t="n">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="E42" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="F42" t="n">
-        <v>932</v>
+        <v>223.6902</v>
       </c>
       <c r="G42" t="n">
-        <v>367.3333333333333</v>
+        <v>-16478.23010000001</v>
       </c>
       <c r="H42" t="n">
-        <v>360.25</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="C43" t="n">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="D43" t="n">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="E43" t="n">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G43" t="n">
-        <v>367.6</v>
+        <v>-16978.23010000001</v>
       </c>
       <c r="H43" t="n">
-        <v>360.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="C44" t="n">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="D44" t="n">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="E44" t="n">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="F44" t="n">
-        <v>9961.609700000001</v>
+        <v>300</v>
       </c>
       <c r="G44" t="n">
-        <v>367.8</v>
+        <v>-17278.23010000001</v>
       </c>
       <c r="H44" t="n">
-        <v>360.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>1</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="C45" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D45" t="n">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E45" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F45" t="n">
-        <v>5538.7723</v>
+        <v>426.4484</v>
       </c>
       <c r="G45" t="n">
-        <v>367.2666666666667</v>
+        <v>-17278.23010000001</v>
       </c>
       <c r="H45" t="n">
-        <v>361.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>1</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C46" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D46" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E46" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F46" t="n">
-        <v>4008.1105</v>
+        <v>225.8448</v>
       </c>
       <c r="G46" t="n">
-        <v>366.8666666666667</v>
+        <v>-17052.38530000001</v>
       </c>
       <c r="H46" t="n">
-        <v>361.15</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>1</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C47" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D47" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E47" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F47" t="n">
-        <v>4683.446</v>
+        <v>1000</v>
       </c>
       <c r="G47" t="n">
-        <v>367</v>
+        <v>-17052.38530000001</v>
       </c>
       <c r="H47" t="n">
-        <v>361.2833333333334</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>1</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C48" t="n">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="D48" t="n">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="E48" t="n">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="F48" t="n">
-        <v>128.5687</v>
+        <v>125</v>
       </c>
       <c r="G48" t="n">
-        <v>367.5333333333334</v>
+        <v>-17177.38530000001</v>
       </c>
       <c r="H48" t="n">
-        <v>361.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>1</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C49" t="n">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D49" t="n">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E49" t="n">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F49" t="n">
-        <v>321</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>368.1333333333333</v>
+        <v>-17176.38530000001</v>
       </c>
       <c r="H49" t="n">
-        <v>361.7833333333334</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>1</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C50" t="n">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="D50" t="n">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="E50" t="n">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="F50" t="n">
-        <v>210.6479</v>
+        <v>363.8559</v>
       </c>
       <c r="G50" t="n">
-        <v>368.7333333333333</v>
+        <v>-17540.24120000001</v>
       </c>
       <c r="H50" t="n">
-        <v>362.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C51" t="n">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="D51" t="n">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="E51" t="n">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F51" t="n">
-        <v>33.3168</v>
+        <v>300.1876</v>
       </c>
       <c r="G51" t="n">
-        <v>368.8666666666667</v>
+        <v>-17540.24120000001</v>
       </c>
       <c r="H51" t="n">
-        <v>362.3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C52" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D52" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E52" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F52" t="n">
-        <v>5375.3086</v>
+        <v>27.47252747</v>
       </c>
       <c r="G52" t="n">
-        <v>368.4</v>
+        <v>-17512.76867253001</v>
       </c>
       <c r="H52" t="n">
-        <v>362.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>1</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C53" t="n">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D53" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E53" t="n">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F53" t="n">
-        <v>107.7778</v>
+        <v>4785.1589</v>
       </c>
       <c r="G53" t="n">
-        <v>368.1333333333333</v>
+        <v>-22297.92757253001</v>
       </c>
       <c r="H53" t="n">
-        <v>362.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>1</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C54" t="n">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D54" t="n">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E54" t="n">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G54" t="n">
-        <v>367.6666666666667</v>
+        <v>-22197.92757253001</v>
       </c>
       <c r="H54" t="n">
-        <v>362.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>1</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C55" t="n">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="D55" t="n">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="E55" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F55" t="n">
-        <v>56.0282</v>
+        <v>2167.9013</v>
       </c>
       <c r="G55" t="n">
-        <v>366.9333333333333</v>
+        <v>-20030.02627253001</v>
       </c>
       <c r="H55" t="n">
-        <v>362.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>1</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C56" t="n">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="D56" t="n">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="E56" t="n">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="F56" t="n">
-        <v>4115.1039</v>
+        <v>27.027</v>
       </c>
       <c r="G56" t="n">
-        <v>366.2666666666667</v>
+        <v>-20057.05327253001</v>
       </c>
       <c r="H56" t="n">
-        <v>363.0333333333334</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>1</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="C57" t="n">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="D57" t="n">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="E57" t="n">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="F57" t="n">
-        <v>8501.349099999999</v>
+        <v>2010.9765</v>
       </c>
       <c r="G57" t="n">
-        <v>365.5333333333334</v>
+        <v>-20057.05327253001</v>
       </c>
       <c r="H57" t="n">
-        <v>363.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C58" t="n">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D58" t="n">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="E58" t="n">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="F58" t="n">
-        <v>99.7921</v>
+        <v>7159.8508</v>
       </c>
       <c r="G58" t="n">
-        <v>365.0666666666667</v>
+        <v>-12897.20247253001</v>
       </c>
       <c r="H58" t="n">
-        <v>363.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C59" t="n">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D59" t="n">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="E59" t="n">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="F59" t="n">
-        <v>1892.7151</v>
+        <v>3816.8998</v>
       </c>
       <c r="G59" t="n">
-        <v>364.4666666666666</v>
+        <v>-12897.20247253001</v>
       </c>
       <c r="H59" t="n">
-        <v>363.2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="C60" t="n">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D60" t="n">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="E60" t="n">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F60" t="n">
-        <v>7732.6528</v>
+        <v>570.3265</v>
       </c>
       <c r="G60" t="n">
-        <v>364.6666666666667</v>
+        <v>-13467.52897253001</v>
       </c>
       <c r="H60" t="n">
-        <v>363.4</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C61" t="n">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D61" t="n">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="E61" t="n">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F61" t="n">
-        <v>446.2022</v>
+        <v>1550.5971</v>
       </c>
       <c r="G61" t="n">
-        <v>364.8666666666667</v>
+        <v>-15018.12607253001</v>
       </c>
       <c r="H61" t="n">
-        <v>363.6</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C62" t="n">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D62" t="n">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E62" t="n">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F62" t="n">
-        <v>169.1125</v>
+        <v>1788</v>
       </c>
       <c r="G62" t="n">
-        <v>365</v>
+        <v>-15018.12607253001</v>
       </c>
       <c r="H62" t="n">
-        <v>363.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C63" t="n">
+        <v>361</v>
+      </c>
+      <c r="D63" t="n">
         <v>362</v>
       </c>
-      <c r="D63" t="n">
-        <v>365</v>
-      </c>
       <c r="E63" t="n">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F63" t="n">
-        <v>11947.4509</v>
+        <v>1382.0085</v>
       </c>
       <c r="G63" t="n">
-        <v>364.5333333333334</v>
+        <v>-15018.12607253001</v>
       </c>
       <c r="H63" t="n">
-        <v>363.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C64" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D64" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="E64" t="n">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F64" t="n">
-        <v>300</v>
+        <v>2264.8805</v>
       </c>
       <c r="G64" t="n">
-        <v>363.6666666666667</v>
+        <v>-15018.12607253001</v>
       </c>
       <c r="H64" t="n">
-        <v>364</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="C65" t="n">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="D65" t="n">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="E65" t="n">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="F65" t="n">
-        <v>55.3718</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>362.6666666666667</v>
+        <v>-15017.12607253001</v>
       </c>
       <c r="H65" t="n">
-        <v>364.0333333333334</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="C66" t="n">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="D66" t="n">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="E66" t="n">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="F66" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G66" t="n">
-        <v>361.6666666666667</v>
+        <v>-14967.12607253001</v>
       </c>
       <c r="H66" t="n">
-        <v>364.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C67" t="n">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="D67" t="n">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="E67" t="n">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="F67" t="n">
-        <v>1553</v>
+        <v>185.1105</v>
       </c>
       <c r="G67" t="n">
-        <v>361</v>
+        <v>-14782.01557253</v>
       </c>
       <c r="H67" t="n">
-        <v>363.7833333333334</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="C68" t="n">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="D68" t="n">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="E68" t="n">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="F68" t="n">
-        <v>31</v>
+        <v>127.3</v>
       </c>
       <c r="G68" t="n">
-        <v>360.1333333333333</v>
+        <v>-14909.31557253</v>
       </c>
       <c r="H68" t="n">
-        <v>363.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="C69" t="n">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D69" t="n">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="E69" t="n">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="F69" t="n">
-        <v>515.0339</v>
+        <v>248</v>
       </c>
       <c r="G69" t="n">
-        <v>360.2666666666667</v>
+        <v>-14661.31557253</v>
       </c>
       <c r="H69" t="n">
-        <v>363.85</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="C70" t="n">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="D70" t="n">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="E70" t="n">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="F70" t="n">
-        <v>157</v>
+        <v>1619.7204</v>
       </c>
       <c r="G70" t="n">
-        <v>359.9333333333333</v>
+        <v>-16281.03597253</v>
       </c>
       <c r="H70" t="n">
-        <v>363.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="C71" t="n">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="D71" t="n">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="E71" t="n">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="F71" t="n">
-        <v>87.0869</v>
+        <v>932</v>
       </c>
       <c r="G71" t="n">
-        <v>359.6666666666667</v>
+        <v>-16281.03597253</v>
       </c>
       <c r="H71" t="n">
-        <v>363.8</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="C72" t="n">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="D72" t="n">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="E72" t="n">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="F72" t="n">
-        <v>476.3323</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>359.4</v>
+        <v>-16280.03597253</v>
       </c>
       <c r="H72" t="n">
-        <v>363.7166666666666</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="C73" t="n">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="D73" t="n">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="E73" t="n">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="F73" t="n">
-        <v>298.6</v>
+        <v>9961.609700000001</v>
       </c>
       <c r="G73" t="n">
-        <v>359</v>
+        <v>-16280.03597253</v>
       </c>
       <c r="H73" t="n">
-        <v>363.7</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="C74" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D74" t="n">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="E74" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F74" t="n">
-        <v>1389.9586</v>
+        <v>5538.7723</v>
       </c>
       <c r="G74" t="n">
-        <v>358.6666666666667</v>
+        <v>-21818.80827253</v>
       </c>
       <c r="H74" t="n">
-        <v>363.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3215,33 +2991,30 @@
         <v>361</v>
       </c>
       <c r="C75" t="n">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D75" t="n">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E75" t="n">
         <v>361</v>
       </c>
       <c r="F75" t="n">
-        <v>3007.8671</v>
+        <v>4008.1105</v>
       </c>
       <c r="G75" t="n">
-        <v>358.6666666666667</v>
+        <v>-21818.80827253</v>
       </c>
       <c r="H75" t="n">
-        <v>363.8</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C76" t="n">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D76" t="n">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E76" t="n">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F76" t="n">
-        <v>500</v>
+        <v>4683.446</v>
       </c>
       <c r="G76" t="n">
-        <v>358.6666666666667</v>
+        <v>-17135.36227253</v>
       </c>
       <c r="H76" t="n">
-        <v>363.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C77" t="n">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D77" t="n">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E77" t="n">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F77" t="n">
-        <v>500</v>
+        <v>128.5687</v>
       </c>
       <c r="G77" t="n">
-        <v>358.6666666666667</v>
+        <v>-17006.79357253</v>
       </c>
       <c r="H77" t="n">
-        <v>363.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="C78" t="n">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="D78" t="n">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="E78" t="n">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="F78" t="n">
-        <v>1476.2016</v>
+        <v>321</v>
       </c>
       <c r="G78" t="n">
-        <v>358.3333333333333</v>
+        <v>-16685.79357253</v>
       </c>
       <c r="H78" t="n">
-        <v>363.7833333333334</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C79" t="n">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D79" t="n">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="E79" t="n">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>210.6479</v>
       </c>
       <c r="G79" t="n">
-        <v>358.8</v>
+        <v>-16685.79357253</v>
       </c>
       <c r="H79" t="n">
-        <v>363.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3163,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C80" t="n">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="D80" t="n">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="E80" t="n">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="F80" t="n">
-        <v>162.1</v>
+        <v>33.3168</v>
       </c>
       <c r="G80" t="n">
-        <v>359</v>
+        <v>-16685.79357253</v>
       </c>
       <c r="H80" t="n">
-        <v>363.75</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3443,33 +3201,30 @@
         <v>363</v>
       </c>
       <c r="C81" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D81" t="n">
         <v>363</v>
       </c>
       <c r="E81" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>5375.3086</v>
       </c>
       <c r="G81" t="n">
-        <v>359.5333333333334</v>
+        <v>-22061.10217253001</v>
       </c>
       <c r="H81" t="n">
-        <v>363.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3233,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C82" t="n">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="D82" t="n">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="E82" t="n">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F82" t="n">
-        <v>485.5994</v>
+        <v>107.7778</v>
       </c>
       <c r="G82" t="n">
-        <v>359.8666666666667</v>
+        <v>-21953.32437253001</v>
       </c>
       <c r="H82" t="n">
-        <v>363.7833333333334</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3268,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C83" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D83" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E83" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F83" t="n">
-        <v>56.022</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>360.5333333333334</v>
+        <v>-21954.32437253001</v>
       </c>
       <c r="H83" t="n">
-        <v>363.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3303,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C84" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D84" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="E84" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="F84" t="n">
-        <v>969</v>
+        <v>56.0282</v>
       </c>
       <c r="G84" t="n">
-        <v>360</v>
+        <v>-21954.32437253001</v>
       </c>
       <c r="H84" t="n">
-        <v>363.7166666666666</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3338,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C85" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D85" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E85" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F85" t="n">
-        <v>768.6685</v>
+        <v>4115.1039</v>
       </c>
       <c r="G85" t="n">
-        <v>359.9333333333333</v>
+        <v>-26069.42827253001</v>
       </c>
       <c r="H85" t="n">
-        <v>363.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3373,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C86" t="n">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D86" t="n">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E86" t="n">
         <v>359</v>
       </c>
       <c r="F86" t="n">
-        <v>8301.214664380001</v>
+        <v>8501.349099999999</v>
       </c>
       <c r="G86" t="n">
-        <v>360.5333333333334</v>
+        <v>-34570.77737253001</v>
       </c>
       <c r="H86" t="n">
-        <v>363.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3408,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C87" t="n">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="D87" t="n">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="E87" t="n">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F87" t="n">
-        <v>1191.1689</v>
+        <v>99.7921</v>
       </c>
       <c r="G87" t="n">
-        <v>360.8</v>
+        <v>-34470.98527253001</v>
       </c>
       <c r="H87" t="n">
-        <v>363.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3443,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C88" t="n">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D88" t="n">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="E88" t="n">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="F88" t="n">
-        <v>1408.0745</v>
+        <v>1892.7151</v>
       </c>
       <c r="G88" t="n">
-        <v>360.7333333333333</v>
+        <v>-36363.70037253001</v>
       </c>
       <c r="H88" t="n">
-        <v>363.1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +3478,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C89" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D89" t="n">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="E89" t="n">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="F89" t="n">
-        <v>227.4504</v>
+        <v>7732.6528</v>
       </c>
       <c r="G89" t="n">
-        <v>360.7333333333333</v>
+        <v>-28631.04757253001</v>
       </c>
       <c r="H89" t="n">
-        <v>362.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,36 +3513,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C90" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D90" t="n">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E90" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="F90" t="n">
-        <v>100</v>
+        <v>446.2022</v>
       </c>
       <c r="G90" t="n">
-        <v>360.3333333333333</v>
+        <v>-28631.04757253001</v>
       </c>
       <c r="H90" t="n">
-        <v>362.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,36 +3548,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C91" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D91" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E91" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="F91" t="n">
-        <v>109.21</v>
+        <v>169.1125</v>
       </c>
       <c r="G91" t="n">
-        <v>359.9333333333333</v>
+        <v>-28631.04757253001</v>
       </c>
       <c r="H91" t="n">
-        <v>362.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,36 +3583,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C92" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D92" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E92" t="n">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F92" t="n">
-        <v>96</v>
+        <v>11947.4509</v>
       </c>
       <c r="G92" t="n">
-        <v>359.6</v>
+        <v>-40578.49847253001</v>
       </c>
       <c r="H92" t="n">
-        <v>362.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,36 +3618,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C93" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D93" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E93" t="n">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F93" t="n">
-        <v>32</v>
+        <v>300</v>
       </c>
       <c r="G93" t="n">
-        <v>359.8</v>
+        <v>-40878.49847253001</v>
       </c>
       <c r="H93" t="n">
-        <v>362.55</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,36 +3653,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C94" t="n">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D94" t="n">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E94" t="n">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F94" t="n">
-        <v>112.259</v>
+        <v>55.3718</v>
       </c>
       <c r="G94" t="n">
-        <v>359.4666666666666</v>
+        <v>-40933.87027253001</v>
       </c>
       <c r="H94" t="n">
-        <v>362.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,36 +3688,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C95" t="n">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D95" t="n">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E95" t="n">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F95" t="n">
-        <v>1082</v>
+        <v>16</v>
       </c>
       <c r="G95" t="n">
-        <v>359.5333333333334</v>
+        <v>-40933.87027253001</v>
       </c>
       <c r="H95" t="n">
-        <v>362.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,36 +3723,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C96" t="n">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D96" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E96" t="n">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F96" t="n">
-        <v>126.2009</v>
+        <v>1553</v>
       </c>
       <c r="G96" t="n">
-        <v>359.2666666666667</v>
+        <v>-42486.87027253001</v>
       </c>
       <c r="H96" t="n">
-        <v>362.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,36 +3758,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C97" t="n">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D97" t="n">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E97" t="n">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F97" t="n">
-        <v>317.0422</v>
+        <v>31</v>
       </c>
       <c r="G97" t="n">
-        <v>359.3333333333333</v>
+        <v>-42455.87027253001</v>
       </c>
       <c r="H97" t="n">
-        <v>362.15</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,36 +3793,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C98" t="n">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D98" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E98" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F98" t="n">
-        <v>1439.0094</v>
+        <v>515.0339</v>
       </c>
       <c r="G98" t="n">
-        <v>359.1333333333333</v>
+        <v>-41940.83637253001</v>
       </c>
       <c r="H98" t="n">
-        <v>361.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,36 +3828,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C99" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D99" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E99" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F99" t="n">
-        <v>229.17</v>
+        <v>157</v>
       </c>
       <c r="G99" t="n">
-        <v>359.4</v>
+        <v>-42097.83637253001</v>
       </c>
       <c r="H99" t="n">
-        <v>361.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,36 +3863,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C100" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D100" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E100" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F100" t="n">
-        <v>110.5453</v>
+        <v>87.0869</v>
       </c>
       <c r="G100" t="n">
-        <v>359.6666666666667</v>
+        <v>-42184.92327253001</v>
       </c>
       <c r="H100" t="n">
-        <v>361.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,36 +3898,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C101" t="n">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D101" t="n">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E101" t="n">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F101" t="n">
-        <v>45.502</v>
+        <v>476.3323</v>
       </c>
       <c r="G101" t="n">
-        <v>359.2666666666667</v>
+        <v>-42661.25557253001</v>
       </c>
       <c r="H101" t="n">
-        <v>361.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,36 +3933,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C102" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D102" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E102" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F102" t="n">
-        <v>71.28879999999999</v>
+        <v>298.6</v>
       </c>
       <c r="G102" t="n">
-        <v>359.2666666666667</v>
+        <v>-42362.65557253001</v>
       </c>
       <c r="H102" t="n">
-        <v>361.25</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4276,36 +3968,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C103" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D103" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E103" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F103" t="n">
-        <v>110.5472</v>
+        <v>1389.9586</v>
       </c>
       <c r="G103" t="n">
-        <v>359.3333333333333</v>
+        <v>-43752.61417253001</v>
       </c>
       <c r="H103" t="n">
-        <v>361.0333333333334</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,36 +4003,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C104" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D104" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E104" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F104" t="n">
-        <v>317.5337</v>
+        <v>3007.8671</v>
       </c>
       <c r="G104" t="n">
-        <v>359.3333333333333</v>
+        <v>-40744.74707253001</v>
       </c>
       <c r="H104" t="n">
-        <v>360.8</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,36 +4038,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C105" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D105" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E105" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="F105" t="n">
-        <v>404.0422</v>
+        <v>500</v>
       </c>
       <c r="G105" t="n">
-        <v>359.3333333333333</v>
+        <v>-40744.74707253001</v>
       </c>
       <c r="H105" t="n">
-        <v>360.75</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4390,36 +4073,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C106" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D106" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E106" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F106" t="n">
-        <v>99.9999</v>
+        <v>500</v>
       </c>
       <c r="G106" t="n">
-        <v>359.5333333333334</v>
+        <v>-40744.74707253001</v>
       </c>
       <c r="H106" t="n">
-        <v>360.75</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4428,36 +4108,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C107" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D107" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E107" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F107" t="n">
-        <v>333</v>
+        <v>1476.2016</v>
       </c>
       <c r="G107" t="n">
-        <v>359.6666666666667</v>
+        <v>-42220.94867253001</v>
       </c>
       <c r="H107" t="n">
-        <v>360.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4466,36 +4143,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C108" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D108" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E108" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F108" t="n">
-        <v>26.8752</v>
+        <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>359.8</v>
+        <v>-42219.94867253001</v>
       </c>
       <c r="H108" t="n">
-        <v>360.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4504,36 +4178,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C109" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D109" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E109" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F109" t="n">
-        <v>7</v>
+        <v>162.1</v>
       </c>
       <c r="G109" t="n">
-        <v>360</v>
+        <v>-42382.04867253001</v>
       </c>
       <c r="H109" t="n">
-        <v>360.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,36 +4213,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C110" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D110" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E110" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F110" t="n">
-        <v>699.1442</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>360.0666666666667</v>
+        <v>-42381.04867253001</v>
       </c>
       <c r="H110" t="n">
-        <v>360.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4580,36 +4248,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C111" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D111" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E111" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F111" t="n">
-        <v>561.9999</v>
+        <v>485.5994</v>
       </c>
       <c r="G111" t="n">
-        <v>360.0666666666667</v>
+        <v>-42866.64807253001</v>
       </c>
       <c r="H111" t="n">
-        <v>360.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4618,36 +4283,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C112" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D112" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E112" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F112" t="n">
-        <v>148</v>
+        <v>56.022</v>
       </c>
       <c r="G112" t="n">
-        <v>360.1333333333333</v>
+        <v>-42810.62607253001</v>
       </c>
       <c r="H112" t="n">
-        <v>360.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4656,36 +4318,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C113" t="n">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D113" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E113" t="n">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F113" t="n">
-        <v>50</v>
+        <v>969</v>
       </c>
       <c r="G113" t="n">
-        <v>360.0666666666667</v>
+        <v>-43779.62607253001</v>
       </c>
       <c r="H113" t="n">
-        <v>359.9666666666666</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4694,36 +4353,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C114" t="n">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D114" t="n">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E114" t="n">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F114" t="n">
-        <v>1300.3009</v>
+        <v>768.6685</v>
       </c>
       <c r="G114" t="n">
-        <v>359.9333333333333</v>
+        <v>-43779.62607253001</v>
       </c>
       <c r="H114" t="n">
-        <v>359.9</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,36 +4388,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C115" t="n">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="D115" t="n">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="E115" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F115" t="n">
-        <v>243.0817</v>
+        <v>8301.214664380001</v>
       </c>
       <c r="G115" t="n">
-        <v>359.7333333333333</v>
+        <v>-35478.41140815001</v>
       </c>
       <c r="H115" t="n">
-        <v>359.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4773,33 +4426,30 @@
         <v>357</v>
       </c>
       <c r="C116" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D116" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E116" t="n">
         <v>357</v>
       </c>
       <c r="F116" t="n">
-        <v>559.9032</v>
+        <v>1191.1689</v>
       </c>
       <c r="G116" t="n">
-        <v>359.6</v>
+        <v>-36669.58030815001</v>
       </c>
       <c r="H116" t="n">
-        <v>359.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4808,36 +4458,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C117" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D117" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E117" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F117" t="n">
-        <v>412.2419</v>
+        <v>1408.0745</v>
       </c>
       <c r="G117" t="n">
-        <v>359.4666666666666</v>
+        <v>-36669.58030815001</v>
       </c>
       <c r="H117" t="n">
-        <v>359.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4846,36 +4493,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C118" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D118" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E118" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F118" t="n">
-        <v>460</v>
+        <v>227.4504</v>
       </c>
       <c r="G118" t="n">
-        <v>359.2666666666667</v>
+        <v>-36669.58030815001</v>
       </c>
       <c r="H118" t="n">
-        <v>359.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4884,36 +4528,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C119" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D119" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E119" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F119" t="n">
-        <v>342</v>
+        <v>100</v>
       </c>
       <c r="G119" t="n">
-        <v>359.1333333333333</v>
+        <v>-36669.58030815001</v>
       </c>
       <c r="H119" t="n">
-        <v>359.4666666666666</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4922,36 +4563,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C120" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D120" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E120" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F120" t="n">
-        <v>298</v>
+        <v>109.21</v>
       </c>
       <c r="G120" t="n">
-        <v>359</v>
+        <v>-36669.58030815001</v>
       </c>
       <c r="H120" t="n">
-        <v>359.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4960,36 +4598,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C121" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D121" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E121" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F121" t="n">
-        <v>5195.0864</v>
+        <v>96</v>
       </c>
       <c r="G121" t="n">
-        <v>358.6666666666667</v>
+        <v>-36573.58030815001</v>
       </c>
       <c r="H121" t="n">
-        <v>359.2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,36 +4633,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C122" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D122" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E122" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F122" t="n">
-        <v>91.5359</v>
+        <v>32</v>
       </c>
       <c r="G122" t="n">
-        <v>358.3333333333333</v>
+        <v>-36573.58030815001</v>
       </c>
       <c r="H122" t="n">
-        <v>359.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5036,36 +4668,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C123" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D123" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E123" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F123" t="n">
-        <v>3939.2688</v>
+        <v>112.259</v>
       </c>
       <c r="G123" t="n">
-        <v>358</v>
+        <v>-36685.83930815</v>
       </c>
       <c r="H123" t="n">
-        <v>358.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5074,36 +4703,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C124" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D124" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E124" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F124" t="n">
-        <v>92</v>
+        <v>1082</v>
       </c>
       <c r="G124" t="n">
-        <v>357.6666666666667</v>
+        <v>-36685.83930815</v>
       </c>
       <c r="H124" t="n">
-        <v>358.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5112,36 +4738,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C125" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D125" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E125" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F125" t="n">
-        <v>139</v>
+        <v>126.2009</v>
       </c>
       <c r="G125" t="n">
-        <v>357.4666666666666</v>
+        <v>-36685.83930815</v>
       </c>
       <c r="H125" t="n">
-        <v>359.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5150,36 +4773,33 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C126" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D126" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E126" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F126" t="n">
-        <v>122</v>
+        <v>317.0422</v>
       </c>
       <c r="G126" t="n">
-        <v>357.3333333333333</v>
+        <v>-37002.88150815001</v>
       </c>
       <c r="H126" t="n">
-        <v>359.05</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5188,36 +4808,33 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C127" t="n">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="D127" t="n">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="E127" t="n">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F127" t="n">
-        <v>50</v>
+        <v>1439.0094</v>
       </c>
       <c r="G127" t="n">
-        <v>357</v>
+        <v>-35563.87210815</v>
       </c>
       <c r="H127" t="n">
-        <v>359.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5226,36 +4843,33 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C128" t="n">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="D128" t="n">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="E128" t="n">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="F128" t="n">
-        <v>930.5775</v>
+        <v>229.17</v>
       </c>
       <c r="G128" t="n">
-        <v>356.6666666666667</v>
+        <v>-35563.87210815</v>
       </c>
       <c r="H128" t="n">
-        <v>359.1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5264,36 +4878,33 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C129" t="n">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="D129" t="n">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="E129" t="n">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="F129" t="n">
-        <v>1550.0001</v>
+        <v>110.5453</v>
       </c>
       <c r="G129" t="n">
-        <v>356.2</v>
+        <v>-35563.87210815</v>
       </c>
       <c r="H129" t="n">
-        <v>358.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5302,36 +4913,33 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="C130" t="n">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="D130" t="n">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="E130" t="n">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="F130" t="n">
-        <v>50</v>
+        <v>45.502</v>
       </c>
       <c r="G130" t="n">
-        <v>355.8</v>
+        <v>-35609.37410815</v>
       </c>
       <c r="H130" t="n">
-        <v>358.7833333333334</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5340,36 +4948,33 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="C131" t="n">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="D131" t="n">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="E131" t="n">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="F131" t="n">
-        <v>238.1377</v>
+        <v>71.28879999999999</v>
       </c>
       <c r="G131" t="n">
-        <v>355.4</v>
+        <v>-35609.37410815</v>
       </c>
       <c r="H131" t="n">
-        <v>358.7</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5378,36 +4983,33 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C132" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="D132" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="E132" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="F132" t="n">
-        <v>1150</v>
+        <v>110.5472</v>
       </c>
       <c r="G132" t="n">
-        <v>354.9333333333333</v>
+        <v>-35498.82690815</v>
       </c>
       <c r="H132" t="n">
-        <v>358.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5416,40 +5018,33 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="C133" t="n">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D133" t="n">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="E133" t="n">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="F133" t="n">
-        <v>2172.1999</v>
+        <v>317.5337</v>
       </c>
       <c r="G133" t="n">
-        <v>354.4666666666666</v>
+        <v>-35816.36060815</v>
       </c>
       <c r="H133" t="n">
-        <v>358.45</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
-      <c r="K133" t="n">
-        <v>350</v>
-      </c>
-      <c r="L133" t="n">
-        <v>350</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5458,228 +5053,1232 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
+        <v>359</v>
+      </c>
+      <c r="C134" t="n">
+        <v>359</v>
+      </c>
+      <c r="D134" t="n">
+        <v>359</v>
+      </c>
+      <c r="E134" t="n">
+        <v>359</v>
+      </c>
+      <c r="F134" t="n">
+        <v>404.0422</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-35816.36060815</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>362</v>
+      </c>
+      <c r="C135" t="n">
+        <v>362</v>
+      </c>
+      <c r="D135" t="n">
+        <v>362</v>
+      </c>
+      <c r="E135" t="n">
+        <v>362</v>
+      </c>
+      <c r="F135" t="n">
+        <v>99.9999</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-35716.36070815</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>362</v>
+      </c>
+      <c r="C136" t="n">
+        <v>362</v>
+      </c>
+      <c r="D136" t="n">
+        <v>362</v>
+      </c>
+      <c r="E136" t="n">
+        <v>361</v>
+      </c>
+      <c r="F136" t="n">
+        <v>333</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-35716.36070815</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>362</v>
+      </c>
+      <c r="C137" t="n">
+        <v>362</v>
+      </c>
+      <c r="D137" t="n">
+        <v>362</v>
+      </c>
+      <c r="E137" t="n">
+        <v>362</v>
+      </c>
+      <c r="F137" t="n">
+        <v>26.8752</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-35716.36070815</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>362</v>
+      </c>
+      <c r="C138" t="n">
+        <v>362</v>
+      </c>
+      <c r="D138" t="n">
+        <v>362</v>
+      </c>
+      <c r="E138" t="n">
+        <v>362</v>
+      </c>
+      <c r="F138" t="n">
+        <v>7</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-35716.36070815</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>362</v>
+      </c>
+      <c r="C139" t="n">
+        <v>360</v>
+      </c>
+      <c r="D139" t="n">
+        <v>362</v>
+      </c>
+      <c r="E139" t="n">
+        <v>360</v>
+      </c>
+      <c r="F139" t="n">
+        <v>699.1442</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-36415.50490815</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>360</v>
+      </c>
+      <c r="C140" t="n">
+        <v>359</v>
+      </c>
+      <c r="D140" t="n">
+        <v>360</v>
+      </c>
+      <c r="E140" t="n">
+        <v>359</v>
+      </c>
+      <c r="F140" t="n">
+        <v>561.9999</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-36977.50480815001</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>359</v>
+      </c>
+      <c r="C141" t="n">
+        <v>359</v>
+      </c>
+      <c r="D141" t="n">
+        <v>359</v>
+      </c>
+      <c r="E141" t="n">
+        <v>359</v>
+      </c>
+      <c r="F141" t="n">
+        <v>148</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-36977.50480815001</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>359</v>
+      </c>
+      <c r="C142" t="n">
+        <v>359</v>
+      </c>
+      <c r="D142" t="n">
+        <v>359</v>
+      </c>
+      <c r="E142" t="n">
+        <v>359</v>
+      </c>
+      <c r="F142" t="n">
+        <v>50</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-36977.50480815001</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>359</v>
+      </c>
+      <c r="C143" t="n">
+        <v>358</v>
+      </c>
+      <c r="D143" t="n">
+        <v>359</v>
+      </c>
+      <c r="E143" t="n">
+        <v>358</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1300.3009</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-38277.80570815001</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>358</v>
+      </c>
+      <c r="C144" t="n">
+        <v>357</v>
+      </c>
+      <c r="D144" t="n">
+        <v>358</v>
+      </c>
+      <c r="E144" t="n">
+        <v>357</v>
+      </c>
+      <c r="F144" t="n">
+        <v>243.0817</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-38520.88740815001</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>357</v>
+      </c>
+      <c r="C145" t="n">
+        <v>357</v>
+      </c>
+      <c r="D145" t="n">
+        <v>357</v>
+      </c>
+      <c r="E145" t="n">
+        <v>357</v>
+      </c>
+      <c r="F145" t="n">
+        <v>559.9032</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-38520.88740815001</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>357</v>
+      </c>
+      <c r="C146" t="n">
+        <v>357</v>
+      </c>
+      <c r="D146" t="n">
+        <v>357</v>
+      </c>
+      <c r="E146" t="n">
+        <v>357</v>
+      </c>
+      <c r="F146" t="n">
+        <v>412.2419</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-38520.88740815001</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>357</v>
+      </c>
+      <c r="C147" t="n">
+        <v>357</v>
+      </c>
+      <c r="D147" t="n">
+        <v>357</v>
+      </c>
+      <c r="E147" t="n">
+        <v>357</v>
+      </c>
+      <c r="F147" t="n">
+        <v>460</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-38520.88740815001</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>357</v>
+      </c>
+      <c r="C148" t="n">
+        <v>357</v>
+      </c>
+      <c r="D148" t="n">
+        <v>357</v>
+      </c>
+      <c r="E148" t="n">
+        <v>357</v>
+      </c>
+      <c r="F148" t="n">
+        <v>342</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-38520.88740815001</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>358</v>
+      </c>
+      <c r="C149" t="n">
+        <v>357</v>
+      </c>
+      <c r="D149" t="n">
+        <v>358</v>
+      </c>
+      <c r="E149" t="n">
+        <v>357</v>
+      </c>
+      <c r="F149" t="n">
+        <v>298</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-38520.88740815001</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>357</v>
+      </c>
+      <c r="C150" t="n">
+        <v>357</v>
+      </c>
+      <c r="D150" t="n">
+        <v>357</v>
+      </c>
+      <c r="E150" t="n">
+        <v>357</v>
+      </c>
+      <c r="F150" t="n">
+        <v>5195.0864</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-38520.88740815001</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>357</v>
+      </c>
+      <c r="C151" t="n">
+        <v>357</v>
+      </c>
+      <c r="D151" t="n">
+        <v>357</v>
+      </c>
+      <c r="E151" t="n">
+        <v>357</v>
+      </c>
+      <c r="F151" t="n">
+        <v>91.5359</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-38520.88740815001</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>357</v>
+      </c>
+      <c r="C152" t="n">
+        <v>357</v>
+      </c>
+      <c r="D152" t="n">
+        <v>357</v>
+      </c>
+      <c r="E152" t="n">
+        <v>357</v>
+      </c>
+      <c r="F152" t="n">
+        <v>3939.2688</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-38520.88740815001</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>357</v>
+      </c>
+      <c r="C153" t="n">
+        <v>357</v>
+      </c>
+      <c r="D153" t="n">
+        <v>357</v>
+      </c>
+      <c r="E153" t="n">
+        <v>357</v>
+      </c>
+      <c r="F153" t="n">
+        <v>92</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-38520.88740815001</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>357</v>
+      </c>
+      <c r="C154" t="n">
+        <v>357</v>
+      </c>
+      <c r="D154" t="n">
+        <v>357</v>
+      </c>
+      <c r="E154" t="n">
+        <v>357</v>
+      </c>
+      <c r="F154" t="n">
+        <v>139</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-38520.88740815001</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>357</v>
+      </c>
+      <c r="C155" t="n">
+        <v>357</v>
+      </c>
+      <c r="D155" t="n">
+        <v>357</v>
+      </c>
+      <c r="E155" t="n">
+        <v>357</v>
+      </c>
+      <c r="F155" t="n">
+        <v>122</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-38520.88740815001</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>355</v>
+      </c>
+      <c r="C156" t="n">
+        <v>354</v>
+      </c>
+      <c r="D156" t="n">
+        <v>355</v>
+      </c>
+      <c r="E156" t="n">
+        <v>354</v>
+      </c>
+      <c r="F156" t="n">
+        <v>50</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-38570.88740815001</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>354</v>
+      </c>
+      <c r="C157" t="n">
+        <v>354</v>
+      </c>
+      <c r="D157" t="n">
+        <v>354</v>
+      </c>
+      <c r="E157" t="n">
+        <v>354</v>
+      </c>
+      <c r="F157" t="n">
+        <v>930.5775</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-38570.88740815001</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>354</v>
+      </c>
+      <c r="C158" t="n">
+        <v>351</v>
+      </c>
+      <c r="D158" t="n">
+        <v>354</v>
+      </c>
+      <c r="E158" t="n">
+        <v>351</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1550.0001</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-40120.88750815001</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>351</v>
+      </c>
+      <c r="C159" t="n">
+        <v>351</v>
+      </c>
+      <c r="D159" t="n">
+        <v>351</v>
+      </c>
+      <c r="E159" t="n">
+        <v>351</v>
+      </c>
+      <c r="F159" t="n">
+        <v>50</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-40120.88750815001</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>351</v>
+      </c>
+      <c r="C160" t="n">
+        <v>351</v>
+      </c>
+      <c r="D160" t="n">
+        <v>351</v>
+      </c>
+      <c r="E160" t="n">
+        <v>351</v>
+      </c>
+      <c r="F160" t="n">
+        <v>238.1377</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-40120.88750815001</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
         <v>350</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C161" t="n">
         <v>350</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D161" t="n">
         <v>350</v>
       </c>
-      <c r="E134" t="n">
+      <c r="E161" t="n">
         <v>350</v>
       </c>
-      <c r="F134" t="n">
+      <c r="F161" t="n">
+        <v>1150</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-41270.88750815001</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>350</v>
+      </c>
+      <c r="C162" t="n">
+        <v>350</v>
+      </c>
+      <c r="D162" t="n">
+        <v>350</v>
+      </c>
+      <c r="E162" t="n">
+        <v>350</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2172.1999</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-41270.88750815001</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>350</v>
+      </c>
+      <c r="K162" t="n">
+        <v>350</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>350</v>
+      </c>
+      <c r="C163" t="n">
+        <v>350</v>
+      </c>
+      <c r="D163" t="n">
+        <v>350</v>
+      </c>
+      <c r="E163" t="n">
+        <v>350</v>
+      </c>
+      <c r="F163" t="n">
         <v>2.0485</v>
       </c>
-      <c r="G134" t="n">
-        <v>354</v>
-      </c>
-      <c r="H134" t="n">
-        <v>358.3</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
-      <c r="K134" t="n">
+      <c r="G163" t="n">
+        <v>-41270.88750815001</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
         <v>350</v>
       </c>
-      <c r="L134" t="n">
+      <c r="K163" t="n">
         <v>350</v>
       </c>
-      <c r="M134" t="inlineStr">
+      <c r="L163" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
         <v>348</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C164" t="n">
         <v>349</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D164" t="n">
         <v>349</v>
       </c>
-      <c r="E135" t="n">
+      <c r="E164" t="n">
         <v>348</v>
       </c>
-      <c r="F135" t="n">
+      <c r="F164" t="n">
         <v>738.9132</v>
       </c>
-      <c r="G135" t="n">
-        <v>353.4666666666666</v>
-      </c>
-      <c r="H135" t="n">
-        <v>358.0333333333334</v>
-      </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
-      <c r="K135" t="n">
+      <c r="G164" t="n">
+        <v>-42009.80070815001</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
         <v>350</v>
       </c>
-      <c r="L135" t="n">
+      <c r="K164" t="n">
         <v>350</v>
       </c>
-      <c r="M135" t="inlineStr">
+      <c r="L164" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="N135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
         <v>348</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C165" t="n">
         <v>348</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D165" t="n">
         <v>348</v>
       </c>
-      <c r="E136" t="n">
+      <c r="E165" t="n">
         <v>348</v>
       </c>
-      <c r="F136" t="n">
+      <c r="F165" t="n">
         <v>29.9</v>
       </c>
-      <c r="G136" t="n">
-        <v>352.8666666666667</v>
-      </c>
-      <c r="H136" t="n">
-        <v>357.75</v>
-      </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
-      <c r="K136" t="n">
+      <c r="G165" t="n">
+        <v>-42039.70070815001</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
         <v>349</v>
       </c>
-      <c r="L136" t="n">
+      <c r="K165" t="n">
         <v>350</v>
       </c>
-      <c r="M136" t="inlineStr">
+      <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
         <v>347</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C166" t="n">
         <v>347</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D166" t="n">
         <v>347</v>
       </c>
-      <c r="E137" t="n">
+      <c r="E166" t="n">
         <v>347</v>
       </c>
-      <c r="F137" t="n">
+      <c r="F166" t="n">
         <v>408.74</v>
       </c>
-      <c r="G137" t="n">
-        <v>352.2</v>
-      </c>
-      <c r="H137" t="n">
-        <v>357.45</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K137" t="n">
+      <c r="G166" t="n">
+        <v>-42448.44070815001</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
         <v>348</v>
       </c>
-      <c r="L137" t="n">
+      <c r="K166" t="n">
         <v>350</v>
       </c>
-      <c r="M137" t="inlineStr">
+      <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
         <v>347</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C167" t="n">
         <v>347</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D167" t="n">
         <v>347</v>
       </c>
-      <c r="E138" t="n">
+      <c r="E167" t="n">
         <v>347</v>
       </c>
-      <c r="F138" t="n">
+      <c r="F167" t="n">
         <v>216.2153</v>
       </c>
-      <c r="G138" t="n">
-        <v>351.5333333333334</v>
-      </c>
-      <c r="H138" t="n">
-        <v>357.2833333333334</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
-      <c r="K138" t="n">
+      <c r="G167" t="n">
+        <v>-42448.44070815001</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
         <v>347</v>
       </c>
-      <c r="L138" t="n">
+      <c r="K167" t="n">
         <v>350</v>
       </c>
-      <c r="M138" t="inlineStr">
+      <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N138" t="n">
+      <c r="M167" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-26 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M167"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C2" t="n">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D2" t="n">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="E2" t="n">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F2" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="G2" t="n">
-        <v>-8586.025400000008</v>
+        <v>359.4</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C3" t="n">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D3" t="n">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="E3" t="n">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>426.4484</v>
       </c>
       <c r="G3" t="n">
-        <v>-8586.025400000008</v>
+        <v>359.4</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="C4" t="n">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="D4" t="n">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="E4" t="n">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="F4" t="n">
-        <v>2548.5154</v>
+        <v>225.8448</v>
       </c>
       <c r="G4" t="n">
-        <v>-8586.025400000008</v>
+        <v>360.4</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="C5" t="n">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="D5" t="n">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="E5" t="n">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="F5" t="n">
-        <v>125.7075</v>
+        <v>1000</v>
       </c>
       <c r="G5" t="n">
-        <v>-8586.025400000008</v>
+        <v>361.2</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C6" t="n">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D6" t="n">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="E6" t="n">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="F6" t="n">
-        <v>323</v>
+        <v>125</v>
       </c>
       <c r="G6" t="n">
-        <v>-8586.025400000008</v>
+        <v>361</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="C7" t="n">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="D7" t="n">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="E7" t="n">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="F7" t="n">
-        <v>3.99</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>-8582.035400000008</v>
+        <v>362.4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C8" t="n">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D8" t="n">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E8" t="n">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F8" t="n">
-        <v>311</v>
+        <v>363.8559</v>
       </c>
       <c r="G8" t="n">
-        <v>-8582.035400000008</v>
+        <v>362.6</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C9" t="n">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D9" t="n">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E9" t="n">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F9" t="n">
-        <v>1254</v>
+        <v>300.1876</v>
       </c>
       <c r="G9" t="n">
-        <v>-8582.035400000008</v>
+        <v>361.4</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C10" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D10" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E10" t="n">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="F10" t="n">
-        <v>51</v>
+        <v>27.47252747</v>
       </c>
       <c r="G10" t="n">
-        <v>-8531.035400000008</v>
+        <v>361.2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="C11" t="n">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D11" t="n">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="E11" t="n">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="F11" t="n">
-        <v>276.6802</v>
+        <v>4785.1589</v>
       </c>
       <c r="G11" t="n">
-        <v>-8807.715600000009</v>
+        <v>361.2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="C12" t="n">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="D12" t="n">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="E12" t="n">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="F12" t="n">
-        <v>4324.3025</v>
+        <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>-8807.715600000009</v>
+        <v>361.8</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="C13" t="n">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="D13" t="n">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="E13" t="n">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="F13" t="n">
-        <v>1880.695</v>
+        <v>2167.9013</v>
       </c>
       <c r="G13" t="n">
-        <v>-8807.715600000009</v>
+        <v>364</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="C14" t="n">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="D14" t="n">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="E14" t="n">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="F14" t="n">
-        <v>173</v>
+        <v>27.027</v>
       </c>
       <c r="G14" t="n">
-        <v>-8807.715600000009</v>
+        <v>366</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="C15" t="n">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="D15" t="n">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="E15" t="n">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="F15" t="n">
-        <v>28.169</v>
+        <v>2010.9765</v>
       </c>
       <c r="G15" t="n">
-        <v>-8807.715600000009</v>
+        <v>367</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="C16" t="n">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="D16" t="n">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="E16" t="n">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>7159.8508</v>
       </c>
       <c r="G16" t="n">
-        <v>-8806.715600000009</v>
+        <v>369.2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="C17" t="n">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="D17" t="n">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="E17" t="n">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="F17" t="n">
-        <v>318.3294</v>
+        <v>3816.8998</v>
       </c>
       <c r="G17" t="n">
-        <v>-8806.715600000009</v>
+        <v>369.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="C18" t="n">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="D18" t="n">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="E18" t="n">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="F18" t="n">
-        <v>601.0144</v>
+        <v>570.3265</v>
       </c>
       <c r="G18" t="n">
-        <v>-9407.730000000009</v>
+        <v>369.2</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="C19" t="n">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D19" t="n">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="E19" t="n">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F19" t="n">
-        <v>472.6975</v>
+        <v>1550.5971</v>
       </c>
       <c r="G19" t="n">
-        <v>-8935.032500000008</v>
+        <v>367.6</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C20" t="n">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="D20" t="n">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="E20" t="n">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="F20" t="n">
-        <v>229</v>
+        <v>1788</v>
       </c>
       <c r="G20" t="n">
-        <v>-9164.032500000008</v>
+        <v>366</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C21" t="n">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="D21" t="n">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="E21" t="n">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F21" t="n">
-        <v>134.4825</v>
+        <v>1382.0085</v>
       </c>
       <c r="G21" t="n">
-        <v>-9029.550000000008</v>
+        <v>364.2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C22" t="n">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="D22" t="n">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="E22" t="n">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F22" t="n">
-        <v>76.52800000000001</v>
+        <v>2264.8805</v>
       </c>
       <c r="G22" t="n">
-        <v>-9029.550000000008</v>
+        <v>362.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="C23" t="n">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="D23" t="n">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="E23" t="n">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="F23" t="n">
-        <v>82.9131</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>-9029.550000000008</v>
+        <v>362.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="C24" t="n">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="D24" t="n">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="E24" t="n">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="F24" t="n">
-        <v>1561.5074</v>
+        <v>50</v>
       </c>
       <c r="G24" t="n">
-        <v>-10591.05740000001</v>
+        <v>364</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="C25" t="n">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="D25" t="n">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="E25" t="n">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="F25" t="n">
-        <v>7540.0756</v>
+        <v>185.1105</v>
       </c>
       <c r="G25" t="n">
-        <v>-10591.05740000001</v>
+        <v>365.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C26" t="n">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="D26" t="n">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="E26" t="n">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="F26" t="n">
-        <v>365.3889</v>
+        <v>127.3</v>
       </c>
       <c r="G26" t="n">
-        <v>-10591.05740000001</v>
+        <v>367.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,34 +1331,35 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C27" t="n">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="D27" t="n">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="E27" t="n">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="F27" t="n">
-        <v>29</v>
+        <v>248</v>
       </c>
       <c r="G27" t="n">
-        <v>-10562.05740000001</v>
+        <v>369.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C28" t="n">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="D28" t="n">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="E28" t="n">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="F28" t="n">
-        <v>43.1446</v>
+        <v>1619.7204</v>
       </c>
       <c r="G28" t="n">
-        <v>-10562.05740000001</v>
+        <v>370.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,34 +1403,35 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="C29" t="n">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="D29" t="n">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="E29" t="n">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="F29" t="n">
-        <v>100</v>
+        <v>932</v>
       </c>
       <c r="G29" t="n">
-        <v>-10662.05740000001</v>
+        <v>370.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1407,34 +1439,35 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="C30" t="n">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="D30" t="n">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="E30" t="n">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="F30" t="n">
-        <v>520.0091</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>-10662.05740000001</v>
+        <v>371</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1442,34 +1475,35 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="C31" t="n">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="D31" t="n">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="E31" t="n">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="F31" t="n">
-        <v>100</v>
+        <v>9961.609700000001</v>
       </c>
       <c r="G31" t="n">
-        <v>-10762.05740000001</v>
+        <v>371.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1477,34 +1511,35 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="C32" t="n">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="D32" t="n">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="E32" t="n">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="F32" t="n">
-        <v>2049.5667</v>
+        <v>5538.7723</v>
       </c>
       <c r="G32" t="n">
-        <v>-10762.05740000001</v>
+        <v>369.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1512,34 +1547,35 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C33" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D33" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="E33" t="n">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F33" t="n">
-        <v>203.8193</v>
+        <v>4008.1105</v>
       </c>
       <c r="G33" t="n">
-        <v>-10558.23810000001</v>
+        <v>368</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C34" t="n">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="D34" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E34" t="n">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="F34" t="n">
-        <v>14355.9032</v>
+        <v>4683.446</v>
       </c>
       <c r="G34" t="n">
-        <v>-24914.14130000001</v>
+        <v>366.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="C35" t="n">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="D35" t="n">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="E35" t="n">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="F35" t="n">
-        <v>300.4691</v>
+        <v>128.5687</v>
       </c>
       <c r="G35" t="n">
-        <v>-24613.67220000001</v>
+        <v>365.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,34 +1655,35 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C36" t="n">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D36" t="n">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="E36" t="n">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="F36" t="n">
-        <v>51</v>
+        <v>321</v>
       </c>
       <c r="G36" t="n">
-        <v>-24562.67220000001</v>
+        <v>365.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C37" t="n">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="D37" t="n">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="E37" t="n">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="F37" t="n">
-        <v>136</v>
+        <v>210.6479</v>
       </c>
       <c r="G37" t="n">
-        <v>-24698.67220000001</v>
+        <v>366.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,34 +1727,35 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="C38" t="n">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="D38" t="n">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="E38" t="n">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="F38" t="n">
-        <v>3080.8939</v>
+        <v>33.3168</v>
       </c>
       <c r="G38" t="n">
-        <v>-21617.77830000001</v>
+        <v>368.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C39" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D39" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="E39" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F39" t="n">
-        <v>895.8568</v>
+        <v>5375.3086</v>
       </c>
       <c r="G39" t="n">
-        <v>-20721.92150000001</v>
+        <v>368.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C40" t="n">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="D40" t="n">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="E40" t="n">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="F40" t="n">
-        <v>418.6886</v>
+        <v>107.7778</v>
       </c>
       <c r="G40" t="n">
-        <v>-20721.92150000001</v>
+        <v>367.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C41" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D41" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E41" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F41" t="n">
-        <v>4020.0012</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>-16701.92030000001</v>
+        <v>366</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,34 +1871,35 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C42" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D42" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E42" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F42" t="n">
-        <v>223.6902</v>
+        <v>56.0282</v>
       </c>
       <c r="G42" t="n">
-        <v>-16478.23010000001</v>
+        <v>364.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C43" t="n">
         <v>360</v>
       </c>
       <c r="D43" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E43" t="n">
         <v>360</v>
       </c>
       <c r="F43" t="n">
-        <v>500</v>
+        <v>4115.1039</v>
       </c>
       <c r="G43" t="n">
-        <v>-16978.23010000001</v>
+        <v>362.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1906,19 +1953,19 @@
         <v>360</v>
       </c>
       <c r="C44" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D44" t="n">
         <v>360</v>
       </c>
       <c r="E44" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F44" t="n">
-        <v>300</v>
+        <v>8501.349099999999</v>
       </c>
       <c r="G44" t="n">
-        <v>-17278.23010000001</v>
+        <v>361.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C45" t="n">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="D45" t="n">
         <v>366</v>
       </c>
       <c r="E45" t="n">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="F45" t="n">
-        <v>426.4484</v>
+        <v>99.7921</v>
       </c>
       <c r="G45" t="n">
-        <v>-17278.23010000001</v>
+        <v>361.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1976,19 +2025,19 @@
         <v>364</v>
       </c>
       <c r="C46" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D46" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E46" t="n">
         <v>364</v>
       </c>
       <c r="F46" t="n">
-        <v>225.8448</v>
+        <v>1892.7151</v>
       </c>
       <c r="G46" t="n">
-        <v>-17052.38530000001</v>
+        <v>362.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C47" t="n">
         <v>365</v>
       </c>
       <c r="D47" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E47" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F47" t="n">
-        <v>1000</v>
+        <v>7732.6528</v>
       </c>
       <c r="G47" t="n">
-        <v>-17052.38530000001</v>
+        <v>362.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C48" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D48" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E48" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="F48" t="n">
-        <v>125</v>
+        <v>446.2022</v>
       </c>
       <c r="G48" t="n">
-        <v>-17177.38530000001</v>
+        <v>363.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2090,10 +2142,10 @@
         <v>365</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>169.1125</v>
       </c>
       <c r="G49" t="n">
-        <v>-17176.38530000001</v>
+        <v>365</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C50" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D50" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E50" t="n">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F50" t="n">
-        <v>363.8559</v>
+        <v>11947.4509</v>
       </c>
       <c r="G50" t="n">
-        <v>-17540.24120000001</v>
+        <v>364.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C51" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D51" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E51" t="n">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F51" t="n">
-        <v>300.1876</v>
+        <v>300</v>
       </c>
       <c r="G51" t="n">
-        <v>-17540.24120000001</v>
+        <v>362.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C52" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D52" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="E52" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="F52" t="n">
-        <v>27.47252747</v>
+        <v>55.3718</v>
       </c>
       <c r="G52" t="n">
-        <v>-17512.76867253001</v>
+        <v>360.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C53" t="n">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D53" t="n">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E53" t="n">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F53" t="n">
-        <v>4785.1589</v>
+        <v>16</v>
       </c>
       <c r="G53" t="n">
-        <v>-22297.92757253001</v>
+        <v>358.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C54" t="n">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="D54" t="n">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E54" t="n">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F54" t="n">
-        <v>100</v>
+        <v>1553</v>
       </c>
       <c r="G54" t="n">
-        <v>-22197.92757253001</v>
+        <v>356.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="C55" t="n">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="D55" t="n">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="E55" t="n">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="F55" t="n">
-        <v>2167.9013</v>
+        <v>31</v>
       </c>
       <c r="G55" t="n">
-        <v>-20030.02627253001</v>
+        <v>354.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C56" t="n">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D56" t="n">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E56" t="n">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="F56" t="n">
-        <v>27.027</v>
+        <v>515.0339</v>
       </c>
       <c r="G56" t="n">
-        <v>-20057.05327253001</v>
+        <v>355.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="C57" t="n">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="D57" t="n">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="E57" t="n">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="F57" t="n">
-        <v>2010.9765</v>
+        <v>157</v>
       </c>
       <c r="G57" t="n">
-        <v>-20057.05327253001</v>
+        <v>356.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="C58" t="n">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="D58" t="n">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="E58" t="n">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="F58" t="n">
-        <v>7159.8508</v>
+        <v>87.0869</v>
       </c>
       <c r="G58" t="n">
-        <v>-12897.20247253001</v>
+        <v>356.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="C59" t="n">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="D59" t="n">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="E59" t="n">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="F59" t="n">
-        <v>3816.8998</v>
+        <v>476.3323</v>
       </c>
       <c r="G59" t="n">
-        <v>-12897.20247253001</v>
+        <v>357</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="C60" t="n">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D60" t="n">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="E60" t="n">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="F60" t="n">
-        <v>570.3265</v>
+        <v>298.6</v>
       </c>
       <c r="G60" t="n">
-        <v>-13467.52897253001</v>
+        <v>358.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C61" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D61" t="n">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="E61" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F61" t="n">
-        <v>1550.5971</v>
+        <v>1389.9586</v>
       </c>
       <c r="G61" t="n">
-        <v>-15018.12607253001</v>
+        <v>357.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,6 +2591,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2536,19 +2601,19 @@
         <v>361</v>
       </c>
       <c r="C62" t="n">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D62" t="n">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E62" t="n">
         <v>361</v>
       </c>
       <c r="F62" t="n">
-        <v>1788</v>
+        <v>3007.8671</v>
       </c>
       <c r="G62" t="n">
-        <v>-15018.12607253001</v>
+        <v>359</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C63" t="n">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D63" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E63" t="n">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="F63" t="n">
-        <v>1382.0085</v>
+        <v>500</v>
       </c>
       <c r="G63" t="n">
-        <v>-15018.12607253001</v>
+        <v>360.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C64" t="n">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D64" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E64" t="n">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="F64" t="n">
-        <v>2264.8805</v>
+        <v>500</v>
       </c>
       <c r="G64" t="n">
-        <v>-15018.12607253001</v>
+        <v>362.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="C65" t="n">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="D65" t="n">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="E65" t="n">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>1476.2016</v>
       </c>
       <c r="G65" t="n">
-        <v>-15017.12607253001</v>
+        <v>362.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C66" t="n">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D66" t="n">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E66" t="n">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F66" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>-14967.12607253001</v>
+        <v>363.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,34 +2771,35 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C67" t="n">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="D67" t="n">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="E67" t="n">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="F67" t="n">
-        <v>185.1105</v>
+        <v>162.1</v>
       </c>
       <c r="G67" t="n">
-        <v>-14782.01557253</v>
+        <v>361.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2737,34 +2807,35 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C68" t="n">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D68" t="n">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E68" t="n">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F68" t="n">
-        <v>127.3</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>-14909.31557253</v>
+        <v>361.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C69" t="n">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="D69" t="n">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="E69" t="n">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="F69" t="n">
-        <v>248</v>
+        <v>485.5994</v>
       </c>
       <c r="G69" t="n">
-        <v>-14661.31557253</v>
+        <v>359.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C70" t="n">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D70" t="n">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="E70" t="n">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="F70" t="n">
-        <v>1619.7204</v>
+        <v>56.022</v>
       </c>
       <c r="G70" t="n">
-        <v>-16281.03597253</v>
+        <v>361</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,34 +2915,35 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="C71" t="n">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="D71" t="n">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="E71" t="n">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="F71" t="n">
-        <v>932</v>
+        <v>969</v>
       </c>
       <c r="G71" t="n">
-        <v>-16281.03597253</v>
+        <v>359.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="C72" t="n">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D72" t="n">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="E72" t="n">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>768.6685</v>
       </c>
       <c r="G72" t="n">
-        <v>-16280.03597253</v>
+        <v>359</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,34 +2987,35 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="C73" t="n">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D73" t="n">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E73" t="n">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="F73" t="n">
-        <v>9961.609700000001</v>
+        <v>8301.214664380001</v>
       </c>
       <c r="G73" t="n">
-        <v>-16280.03597253</v>
+        <v>359.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -2947,34 +3023,35 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="C74" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D74" t="n">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="E74" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F74" t="n">
-        <v>5538.7723</v>
+        <v>1191.1689</v>
       </c>
       <c r="G74" t="n">
-        <v>-21818.80827253</v>
+        <v>359.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -2982,34 +3059,35 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C75" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D75" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E75" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F75" t="n">
-        <v>4008.1105</v>
+        <v>1408.0745</v>
       </c>
       <c r="G75" t="n">
-        <v>-21818.80827253</v>
+        <v>359</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3017,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C76" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D76" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E76" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F76" t="n">
-        <v>4683.446</v>
+        <v>227.4504</v>
       </c>
       <c r="G76" t="n">
-        <v>-17135.36227253</v>
+        <v>359.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3131,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C77" t="n">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="D77" t="n">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="E77" t="n">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="F77" t="n">
-        <v>128.5687</v>
+        <v>100</v>
       </c>
       <c r="G77" t="n">
-        <v>-17006.79357253</v>
+        <v>360.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C78" t="n">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="D78" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="E78" t="n">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="F78" t="n">
-        <v>321</v>
+        <v>109.21</v>
       </c>
       <c r="G78" t="n">
-        <v>-16685.79357253</v>
+        <v>359</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,34 +3203,35 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C79" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="D79" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="E79" t="n">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="F79" t="n">
-        <v>210.6479</v>
+        <v>96</v>
       </c>
       <c r="G79" t="n">
-        <v>-16685.79357253</v>
+        <v>359.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3157,28 +3239,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C80" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="D80" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="E80" t="n">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F80" t="n">
-        <v>33.3168</v>
+        <v>32</v>
       </c>
       <c r="G80" t="n">
-        <v>-16685.79357253</v>
+        <v>359.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3275,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C81" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D81" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E81" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F81" t="n">
-        <v>5375.3086</v>
+        <v>112.259</v>
       </c>
       <c r="G81" t="n">
-        <v>-22061.10217253001</v>
+        <v>359.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3311,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C82" t="n">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D82" t="n">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E82" t="n">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F82" t="n">
-        <v>107.7778</v>
+        <v>1082</v>
       </c>
       <c r="G82" t="n">
-        <v>-21953.32437253001</v>
+        <v>359.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3347,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C83" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D83" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E83" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>126.2009</v>
       </c>
       <c r="G83" t="n">
-        <v>-21954.32437253001</v>
+        <v>359.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,28 +3383,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C84" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D84" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E84" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F84" t="n">
-        <v>56.0282</v>
+        <v>317.0422</v>
       </c>
       <c r="G84" t="n">
-        <v>-21954.32437253001</v>
+        <v>359</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3419,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C85" t="n">
         <v>360</v>
       </c>
       <c r="D85" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E85" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F85" t="n">
-        <v>4115.1039</v>
+        <v>1439.0094</v>
       </c>
       <c r="G85" t="n">
-        <v>-26069.42827253001</v>
+        <v>359</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,6 +3455,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3376,19 +3465,19 @@
         <v>360</v>
       </c>
       <c r="C86" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D86" t="n">
         <v>360</v>
       </c>
       <c r="E86" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F86" t="n">
-        <v>8501.349099999999</v>
+        <v>229.17</v>
       </c>
       <c r="G86" t="n">
-        <v>-34570.77737253001</v>
+        <v>359.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,28 +3491,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C87" t="n">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D87" t="n">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E87" t="n">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F87" t="n">
-        <v>99.7921</v>
+        <v>110.5453</v>
       </c>
       <c r="G87" t="n">
-        <v>-34470.98527253001</v>
+        <v>359.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,28 +3527,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C88" t="n">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D88" t="n">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E88" t="n">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F88" t="n">
-        <v>1892.7151</v>
+        <v>45.502</v>
       </c>
       <c r="G88" t="n">
-        <v>-36363.70037253001</v>
+        <v>359.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3563,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C89" t="n">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D89" t="n">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E89" t="n">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F89" t="n">
-        <v>7732.6528</v>
+        <v>71.28879999999999</v>
       </c>
       <c r="G89" t="n">
-        <v>-28631.04757253001</v>
+        <v>359.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3599,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C90" t="n">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D90" t="n">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E90" t="n">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F90" t="n">
-        <v>446.2022</v>
+        <v>110.5472</v>
       </c>
       <c r="G90" t="n">
-        <v>-28631.04757253001</v>
+        <v>359.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,28 +3635,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C91" t="n">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D91" t="n">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E91" t="n">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F91" t="n">
-        <v>169.1125</v>
+        <v>317.5337</v>
       </c>
       <c r="G91" t="n">
-        <v>-28631.04757253001</v>
+        <v>359.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,28 +3671,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C92" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D92" t="n">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E92" t="n">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F92" t="n">
-        <v>11947.4509</v>
+        <v>404.0422</v>
       </c>
       <c r="G92" t="n">
-        <v>-40578.49847253001</v>
+        <v>359.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,28 +3707,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C93" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D93" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="E93" t="n">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="F93" t="n">
-        <v>300</v>
+        <v>99.9999</v>
       </c>
       <c r="G93" t="n">
-        <v>-40878.49847253001</v>
+        <v>359.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,28 +3743,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C94" t="n">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="D94" t="n">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="E94" t="n">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F94" t="n">
-        <v>55.3718</v>
+        <v>333</v>
       </c>
       <c r="G94" t="n">
-        <v>-40933.87027253001</v>
+        <v>360.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,28 +3779,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C95" t="n">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="D95" t="n">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="E95" t="n">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="F95" t="n">
-        <v>16</v>
+        <v>26.8752</v>
       </c>
       <c r="G95" t="n">
-        <v>-40933.87027253001</v>
+        <v>360.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,28 +3815,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C96" t="n">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="D96" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E96" t="n">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="F96" t="n">
-        <v>1553</v>
+        <v>7</v>
       </c>
       <c r="G96" t="n">
-        <v>-42486.87027253001</v>
+        <v>361.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,28 +3851,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="C97" t="n">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="D97" t="n">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="E97" t="n">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="F97" t="n">
-        <v>31</v>
+        <v>699.1442</v>
       </c>
       <c r="G97" t="n">
-        <v>-42455.87027253001</v>
+        <v>361.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,28 +3887,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C98" t="n">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D98" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E98" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F98" t="n">
-        <v>515.0339</v>
+        <v>561.9999</v>
       </c>
       <c r="G98" t="n">
-        <v>-41940.83637253001</v>
+        <v>361</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3822,28 +3923,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C99" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D99" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E99" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F99" t="n">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="G99" t="n">
-        <v>-42097.83637253001</v>
+        <v>360.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3857,28 +3959,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C100" t="n">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D100" t="n">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E100" t="n">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F100" t="n">
-        <v>87.0869</v>
+        <v>50</v>
       </c>
       <c r="G100" t="n">
-        <v>-42184.92327253001</v>
+        <v>359.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,28 +3995,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C101" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D101" t="n">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E101" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F101" t="n">
-        <v>476.3323</v>
+        <v>1300.3009</v>
       </c>
       <c r="G101" t="n">
-        <v>-42661.25557253001</v>
+        <v>359</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3927,28 +4031,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C102" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D102" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E102" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F102" t="n">
-        <v>298.6</v>
+        <v>243.0817</v>
       </c>
       <c r="G102" t="n">
-        <v>-42362.65557253001</v>
+        <v>358.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3962,28 +4067,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C103" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D103" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E103" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F103" t="n">
-        <v>1389.9586</v>
+        <v>559.9032</v>
       </c>
       <c r="G103" t="n">
-        <v>-43752.61417253001</v>
+        <v>358</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,28 +4103,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C104" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D104" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E104" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F104" t="n">
-        <v>3007.8671</v>
+        <v>412.2419</v>
       </c>
       <c r="G104" t="n">
-        <v>-40744.74707253001</v>
+        <v>357.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,28 +4139,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C105" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D105" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E105" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F105" t="n">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="G105" t="n">
-        <v>-40744.74707253001</v>
+        <v>357.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,63 +4175,69 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C106" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D106" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E106" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F106" t="n">
-        <v>500</v>
+        <v>342</v>
       </c>
       <c r="G106" t="n">
-        <v>-40744.74707253001</v>
+        <v>357</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>357</v>
+      </c>
+      <c r="K106" t="n">
+        <v>357</v>
+      </c>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C107" t="n">
         <v>357</v>
       </c>
       <c r="D107" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E107" t="n">
         <v>357</v>
       </c>
       <c r="F107" t="n">
-        <v>1476.2016</v>
+        <v>298</v>
       </c>
       <c r="G107" t="n">
-        <v>-42220.94867253001</v>
+        <v>357</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4132,33 +4246,40 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>357</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C108" t="n">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D108" t="n">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E108" t="n">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>5195.0864</v>
       </c>
       <c r="G108" t="n">
-        <v>-42219.94867253001</v>
+        <v>357</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4167,33 +4288,40 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>357</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C109" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D109" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E109" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F109" t="n">
-        <v>162.1</v>
+        <v>91.5359</v>
       </c>
       <c r="G109" t="n">
-        <v>-42382.04867253001</v>
+        <v>357</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4202,33 +4330,40 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>357</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C110" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D110" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E110" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>3939.2688</v>
       </c>
       <c r="G110" t="n">
-        <v>-42381.04867253001</v>
+        <v>357</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4237,33 +4372,40 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>357</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C111" t="n">
         <v>357</v>
       </c>
       <c r="D111" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E111" t="n">
         <v>357</v>
       </c>
       <c r="F111" t="n">
-        <v>485.5994</v>
+        <v>92</v>
       </c>
       <c r="G111" t="n">
-        <v>-42866.64807253001</v>
+        <v>357</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4272,33 +4414,40 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>357</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C112" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D112" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E112" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F112" t="n">
-        <v>56.022</v>
+        <v>139</v>
       </c>
       <c r="G112" t="n">
-        <v>-42810.62607253001</v>
+        <v>357</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4307,11 +4456,18 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>357</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4321,19 +4477,19 @@
         <v>357</v>
       </c>
       <c r="C113" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D113" t="n">
         <v>357</v>
       </c>
       <c r="E113" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F113" t="n">
-        <v>969</v>
+        <v>122</v>
       </c>
       <c r="G113" t="n">
-        <v>-43779.62607253001</v>
+        <v>357</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4342,33 +4498,40 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>357</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C114" t="n">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D114" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E114" t="n">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F114" t="n">
-        <v>768.6685</v>
+        <v>50</v>
       </c>
       <c r="G114" t="n">
-        <v>-43779.62607253001</v>
+        <v>356.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4377,33 +4540,40 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>357</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C115" t="n">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="D115" t="n">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="E115" t="n">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F115" t="n">
-        <v>8301.214664380001</v>
+        <v>930.5775</v>
       </c>
       <c r="G115" t="n">
-        <v>-35478.41140815001</v>
+        <v>355.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4412,33 +4582,40 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>357</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C116" t="n">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D116" t="n">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E116" t="n">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F116" t="n">
-        <v>1191.1689</v>
+        <v>1550.0001</v>
       </c>
       <c r="G116" t="n">
-        <v>-36669.58030815001</v>
+        <v>354.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4447,1840 +4624,414 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>357</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C117" t="n">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D117" t="n">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E117" t="n">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F117" t="n">
-        <v>1408.0745</v>
+        <v>50</v>
       </c>
       <c r="G117" t="n">
-        <v>-36669.58030815001</v>
+        <v>353.4</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>351</v>
+      </c>
+      <c r="K117" t="n">
+        <v>357</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C118" t="n">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D118" t="n">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E118" t="n">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F118" t="n">
-        <v>227.4504</v>
+        <v>238.1377</v>
       </c>
       <c r="G118" t="n">
-        <v>-36669.58030815001</v>
+        <v>352.2</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>351</v>
+      </c>
+      <c r="K118" t="n">
+        <v>357</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="C119" t="n">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D119" t="n">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="E119" t="n">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F119" t="n">
-        <v>100</v>
+        <v>1150</v>
       </c>
       <c r="G119" t="n">
-        <v>-36669.58030815001</v>
+        <v>351.4</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>351</v>
+      </c>
+      <c r="K119" t="n">
+        <v>357</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C120" t="n">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D120" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="E120" t="n">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F120" t="n">
-        <v>109.21</v>
+        <v>2172.1999</v>
       </c>
       <c r="G120" t="n">
-        <v>-36669.58030815001</v>
+        <v>350.6</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>350</v>
+      </c>
+      <c r="K120" t="n">
+        <v>357</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C121" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D121" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="E121" t="n">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F121" t="n">
-        <v>96</v>
+        <v>2.0485</v>
       </c>
       <c r="G121" t="n">
-        <v>-36573.58030815001</v>
+        <v>350.4</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>350</v>
+      </c>
+      <c r="K121" t="n">
+        <v>357</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="C122" t="n">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="D122" t="n">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="E122" t="n">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="F122" t="n">
-        <v>32</v>
+        <v>738.9132</v>
       </c>
       <c r="G122" t="n">
-        <v>-36573.58030815001</v>
+        <v>350</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>350</v>
+      </c>
+      <c r="K122" t="n">
+        <v>357</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="C123" t="n">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="D123" t="n">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="E123" t="n">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="F123" t="n">
-        <v>112.259</v>
+        <v>29.9</v>
       </c>
       <c r="G123" t="n">
-        <v>-36685.83930815</v>
+        <v>349.4</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>349</v>
+      </c>
+      <c r="K123" t="n">
+        <v>357</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="C124" t="n">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="D124" t="n">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="E124" t="n">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="F124" t="n">
-        <v>1082</v>
+        <v>408.74</v>
       </c>
       <c r="G124" t="n">
-        <v>-36685.83930815</v>
+        <v>348.8</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>348</v>
+      </c>
+      <c r="K124" t="n">
+        <v>357</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C125" t="n">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="D125" t="n">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="E125" t="n">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="F125" t="n">
-        <v>126.2009</v>
+        <v>216.2153</v>
       </c>
       <c r="G125" t="n">
-        <v>-36685.83930815</v>
+        <v>348.2</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>358</v>
-      </c>
-      <c r="C126" t="n">
-        <v>358</v>
-      </c>
-      <c r="D126" t="n">
-        <v>358</v>
-      </c>
-      <c r="E126" t="n">
-        <v>358</v>
-      </c>
-      <c r="F126" t="n">
-        <v>317.0422</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-37002.88150815001</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>361</v>
-      </c>
-      <c r="C127" t="n">
-        <v>360</v>
-      </c>
-      <c r="D127" t="n">
-        <v>363</v>
-      </c>
-      <c r="E127" t="n">
-        <v>358</v>
-      </c>
-      <c r="F127" t="n">
-        <v>1439.0094</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-35563.87210815</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>360</v>
-      </c>
-      <c r="C128" t="n">
-        <v>360</v>
-      </c>
-      <c r="D128" t="n">
-        <v>360</v>
-      </c>
-      <c r="E128" t="n">
-        <v>360</v>
-      </c>
-      <c r="F128" t="n">
-        <v>229.17</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-35563.87210815</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>360</v>
-      </c>
-      <c r="C129" t="n">
-        <v>360</v>
-      </c>
-      <c r="D129" t="n">
-        <v>360</v>
-      </c>
-      <c r="E129" t="n">
-        <v>360</v>
-      </c>
-      <c r="F129" t="n">
-        <v>110.5453</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-35563.87210815</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>359</v>
-      </c>
-      <c r="C130" t="n">
-        <v>359</v>
-      </c>
-      <c r="D130" t="n">
-        <v>359</v>
-      </c>
-      <c r="E130" t="n">
-        <v>359</v>
-      </c>
-      <c r="F130" t="n">
-        <v>45.502</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-35609.37410815</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>359</v>
-      </c>
-      <c r="C131" t="n">
-        <v>359</v>
-      </c>
-      <c r="D131" t="n">
-        <v>359</v>
-      </c>
-      <c r="E131" t="n">
-        <v>359</v>
-      </c>
-      <c r="F131" t="n">
-        <v>71.28879999999999</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-35609.37410815</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>360</v>
-      </c>
-      <c r="C132" t="n">
-        <v>360</v>
-      </c>
-      <c r="D132" t="n">
-        <v>360</v>
-      </c>
-      <c r="E132" t="n">
-        <v>360</v>
-      </c>
-      <c r="F132" t="n">
-        <v>110.5472</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-35498.82690815</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>359</v>
-      </c>
-      <c r="C133" t="n">
-        <v>359</v>
-      </c>
-      <c r="D133" t="n">
-        <v>359</v>
-      </c>
-      <c r="E133" t="n">
-        <v>359</v>
-      </c>
-      <c r="F133" t="n">
-        <v>317.5337</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-35816.36060815</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>359</v>
-      </c>
-      <c r="C134" t="n">
-        <v>359</v>
-      </c>
-      <c r="D134" t="n">
-        <v>359</v>
-      </c>
-      <c r="E134" t="n">
-        <v>359</v>
-      </c>
-      <c r="F134" t="n">
-        <v>404.0422</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-35816.36060815</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>362</v>
-      </c>
-      <c r="C135" t="n">
-        <v>362</v>
-      </c>
-      <c r="D135" t="n">
-        <v>362</v>
-      </c>
-      <c r="E135" t="n">
-        <v>362</v>
-      </c>
-      <c r="F135" t="n">
-        <v>99.9999</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-35716.36070815</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>362</v>
-      </c>
-      <c r="C136" t="n">
-        <v>362</v>
-      </c>
-      <c r="D136" t="n">
-        <v>362</v>
-      </c>
-      <c r="E136" t="n">
-        <v>361</v>
-      </c>
-      <c r="F136" t="n">
-        <v>333</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-35716.36070815</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>362</v>
-      </c>
-      <c r="C137" t="n">
-        <v>362</v>
-      </c>
-      <c r="D137" t="n">
-        <v>362</v>
-      </c>
-      <c r="E137" t="n">
-        <v>362</v>
-      </c>
-      <c r="F137" t="n">
-        <v>26.8752</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-35716.36070815</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>362</v>
-      </c>
-      <c r="C138" t="n">
-        <v>362</v>
-      </c>
-      <c r="D138" t="n">
-        <v>362</v>
-      </c>
-      <c r="E138" t="n">
-        <v>362</v>
-      </c>
-      <c r="F138" t="n">
-        <v>7</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-35716.36070815</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>362</v>
-      </c>
-      <c r="C139" t="n">
-        <v>360</v>
-      </c>
-      <c r="D139" t="n">
-        <v>362</v>
-      </c>
-      <c r="E139" t="n">
-        <v>360</v>
-      </c>
-      <c r="F139" t="n">
-        <v>699.1442</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-36415.50490815</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>360</v>
-      </c>
-      <c r="C140" t="n">
-        <v>359</v>
-      </c>
-      <c r="D140" t="n">
-        <v>360</v>
-      </c>
-      <c r="E140" t="n">
-        <v>359</v>
-      </c>
-      <c r="F140" t="n">
-        <v>561.9999</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-36977.50480815001</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>359</v>
-      </c>
-      <c r="C141" t="n">
-        <v>359</v>
-      </c>
-      <c r="D141" t="n">
-        <v>359</v>
-      </c>
-      <c r="E141" t="n">
-        <v>359</v>
-      </c>
-      <c r="F141" t="n">
-        <v>148</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-36977.50480815001</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>359</v>
-      </c>
-      <c r="C142" t="n">
-        <v>359</v>
-      </c>
-      <c r="D142" t="n">
-        <v>359</v>
-      </c>
-      <c r="E142" t="n">
-        <v>359</v>
-      </c>
-      <c r="F142" t="n">
-        <v>50</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-36977.50480815001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>359</v>
-      </c>
-      <c r="C143" t="n">
-        <v>358</v>
-      </c>
-      <c r="D143" t="n">
-        <v>359</v>
-      </c>
-      <c r="E143" t="n">
-        <v>358</v>
-      </c>
-      <c r="F143" t="n">
-        <v>1300.3009</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-38277.80570815001</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>358</v>
-      </c>
-      <c r="C144" t="n">
-        <v>357</v>
-      </c>
-      <c r="D144" t="n">
-        <v>358</v>
-      </c>
-      <c r="E144" t="n">
-        <v>357</v>
-      </c>
-      <c r="F144" t="n">
-        <v>243.0817</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-38520.88740815001</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>357</v>
-      </c>
-      <c r="C145" t="n">
-        <v>357</v>
-      </c>
-      <c r="D145" t="n">
-        <v>357</v>
-      </c>
-      <c r="E145" t="n">
-        <v>357</v>
-      </c>
-      <c r="F145" t="n">
-        <v>559.9032</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-38520.88740815001</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>357</v>
-      </c>
-      <c r="C146" t="n">
-        <v>357</v>
-      </c>
-      <c r="D146" t="n">
-        <v>357</v>
-      </c>
-      <c r="E146" t="n">
-        <v>357</v>
-      </c>
-      <c r="F146" t="n">
-        <v>412.2419</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-38520.88740815001</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>357</v>
-      </c>
-      <c r="C147" t="n">
-        <v>357</v>
-      </c>
-      <c r="D147" t="n">
-        <v>357</v>
-      </c>
-      <c r="E147" t="n">
-        <v>357</v>
-      </c>
-      <c r="F147" t="n">
-        <v>460</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-38520.88740815001</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>357</v>
-      </c>
-      <c r="C148" t="n">
-        <v>357</v>
-      </c>
-      <c r="D148" t="n">
-        <v>357</v>
-      </c>
-      <c r="E148" t="n">
-        <v>357</v>
-      </c>
-      <c r="F148" t="n">
-        <v>342</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-38520.88740815001</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>358</v>
-      </c>
-      <c r="C149" t="n">
-        <v>357</v>
-      </c>
-      <c r="D149" t="n">
-        <v>358</v>
-      </c>
-      <c r="E149" t="n">
-        <v>357</v>
-      </c>
-      <c r="F149" t="n">
-        <v>298</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-38520.88740815001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>357</v>
-      </c>
-      <c r="C150" t="n">
-        <v>357</v>
-      </c>
-      <c r="D150" t="n">
-        <v>357</v>
-      </c>
-      <c r="E150" t="n">
-        <v>357</v>
-      </c>
-      <c r="F150" t="n">
-        <v>5195.0864</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-38520.88740815001</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>357</v>
-      </c>
-      <c r="C151" t="n">
-        <v>357</v>
-      </c>
-      <c r="D151" t="n">
-        <v>357</v>
-      </c>
-      <c r="E151" t="n">
-        <v>357</v>
-      </c>
-      <c r="F151" t="n">
-        <v>91.5359</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-38520.88740815001</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>357</v>
-      </c>
-      <c r="C152" t="n">
-        <v>357</v>
-      </c>
-      <c r="D152" t="n">
-        <v>357</v>
-      </c>
-      <c r="E152" t="n">
-        <v>357</v>
-      </c>
-      <c r="F152" t="n">
-        <v>3939.2688</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-38520.88740815001</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>357</v>
-      </c>
-      <c r="C153" t="n">
-        <v>357</v>
-      </c>
-      <c r="D153" t="n">
-        <v>357</v>
-      </c>
-      <c r="E153" t="n">
-        <v>357</v>
-      </c>
-      <c r="F153" t="n">
-        <v>92</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-38520.88740815001</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>357</v>
-      </c>
-      <c r="C154" t="n">
-        <v>357</v>
-      </c>
-      <c r="D154" t="n">
-        <v>357</v>
-      </c>
-      <c r="E154" t="n">
-        <v>357</v>
-      </c>
-      <c r="F154" t="n">
-        <v>139</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-38520.88740815001</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>357</v>
-      </c>
-      <c r="C155" t="n">
-        <v>357</v>
-      </c>
-      <c r="D155" t="n">
-        <v>357</v>
-      </c>
-      <c r="E155" t="n">
-        <v>357</v>
-      </c>
-      <c r="F155" t="n">
-        <v>122</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-38520.88740815001</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>355</v>
-      </c>
-      <c r="C156" t="n">
-        <v>354</v>
-      </c>
-      <c r="D156" t="n">
-        <v>355</v>
-      </c>
-      <c r="E156" t="n">
-        <v>354</v>
-      </c>
-      <c r="F156" t="n">
-        <v>50</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-38570.88740815001</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>354</v>
-      </c>
-      <c r="C157" t="n">
-        <v>354</v>
-      </c>
-      <c r="D157" t="n">
-        <v>354</v>
-      </c>
-      <c r="E157" t="n">
-        <v>354</v>
-      </c>
-      <c r="F157" t="n">
-        <v>930.5775</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-38570.88740815001</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>354</v>
-      </c>
-      <c r="C158" t="n">
-        <v>351</v>
-      </c>
-      <c r="D158" t="n">
-        <v>354</v>
-      </c>
-      <c r="E158" t="n">
-        <v>351</v>
-      </c>
-      <c r="F158" t="n">
-        <v>1550.0001</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-40120.88750815001</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>351</v>
-      </c>
-      <c r="C159" t="n">
-        <v>351</v>
-      </c>
-      <c r="D159" t="n">
-        <v>351</v>
-      </c>
-      <c r="E159" t="n">
-        <v>351</v>
-      </c>
-      <c r="F159" t="n">
-        <v>50</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-40120.88750815001</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>351</v>
-      </c>
-      <c r="C160" t="n">
-        <v>351</v>
-      </c>
-      <c r="D160" t="n">
-        <v>351</v>
-      </c>
-      <c r="E160" t="n">
-        <v>351</v>
-      </c>
-      <c r="F160" t="n">
-        <v>238.1377</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-40120.88750815001</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>350</v>
-      </c>
-      <c r="C161" t="n">
-        <v>350</v>
-      </c>
-      <c r="D161" t="n">
-        <v>350</v>
-      </c>
-      <c r="E161" t="n">
-        <v>350</v>
-      </c>
-      <c r="F161" t="n">
-        <v>1150</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-41270.88750815001</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>350</v>
-      </c>
-      <c r="C162" t="n">
-        <v>350</v>
-      </c>
-      <c r="D162" t="n">
-        <v>350</v>
-      </c>
-      <c r="E162" t="n">
-        <v>350</v>
-      </c>
-      <c r="F162" t="n">
-        <v>2172.1999</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-41270.88750815001</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="n">
-        <v>350</v>
-      </c>
-      <c r="K162" t="n">
-        <v>350</v>
-      </c>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>350</v>
-      </c>
-      <c r="C163" t="n">
-        <v>350</v>
-      </c>
-      <c r="D163" t="n">
-        <v>350</v>
-      </c>
-      <c r="E163" t="n">
-        <v>350</v>
-      </c>
-      <c r="F163" t="n">
-        <v>2.0485</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-41270.88750815001</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="n">
-        <v>350</v>
-      </c>
-      <c r="K163" t="n">
-        <v>350</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>348</v>
-      </c>
-      <c r="C164" t="n">
-        <v>349</v>
-      </c>
-      <c r="D164" t="n">
-        <v>349</v>
-      </c>
-      <c r="E164" t="n">
-        <v>348</v>
-      </c>
-      <c r="F164" t="n">
-        <v>738.9132</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-42009.80070815001</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="n">
-        <v>350</v>
-      </c>
-      <c r="K164" t="n">
-        <v>350</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>348</v>
-      </c>
-      <c r="C165" t="n">
-        <v>348</v>
-      </c>
-      <c r="D165" t="n">
-        <v>348</v>
-      </c>
-      <c r="E165" t="n">
-        <v>348</v>
-      </c>
-      <c r="F165" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-42039.70070815001</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="n">
-        <v>349</v>
-      </c>
-      <c r="K165" t="n">
-        <v>350</v>
-      </c>
-      <c r="L165" t="inlineStr">
+      <c r="J125" t="n">
+        <v>347</v>
+      </c>
+      <c r="K125" t="n">
+        <v>357</v>
+      </c>
+      <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>347</v>
-      </c>
-      <c r="C166" t="n">
-        <v>347</v>
-      </c>
-      <c r="D166" t="n">
-        <v>347</v>
-      </c>
-      <c r="E166" t="n">
-        <v>347</v>
-      </c>
-      <c r="F166" t="n">
-        <v>408.74</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-42448.44070815001</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="n">
-        <v>348</v>
-      </c>
-      <c r="K166" t="n">
-        <v>350</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>347</v>
-      </c>
-      <c r="C167" t="n">
-        <v>347</v>
-      </c>
-      <c r="D167" t="n">
-        <v>347</v>
-      </c>
-      <c r="E167" t="n">
-        <v>347</v>
-      </c>
-      <c r="F167" t="n">
-        <v>216.2153</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-42448.44070815001</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="n">
-        <v>347</v>
-      </c>
-      <c r="K167" t="n">
-        <v>350</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-26 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-26 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N125"/>
+  <dimension ref="A1:N196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C2" t="n">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D2" t="n">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="E2" t="n">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F2" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="G2" t="n">
-        <v>359.4</v>
+        <v>-13234.3158</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C3" t="n">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D3" t="n">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="E3" t="n">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F3" t="n">
-        <v>426.4484</v>
+        <v>3263.4034</v>
       </c>
       <c r="G3" t="n">
-        <v>359.4</v>
+        <v>-9970.912400000005</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="C4" t="n">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="D4" t="n">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E4" t="n">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="F4" t="n">
-        <v>225.8448</v>
+        <v>1153.2289</v>
       </c>
       <c r="G4" t="n">
-        <v>360.4</v>
+        <v>-11124.1413</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="C5" t="n">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="D5" t="n">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="E5" t="n">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="F5" t="n">
-        <v>1000</v>
+        <v>298.2184</v>
       </c>
       <c r="G5" t="n">
-        <v>361.2</v>
+        <v>-10825.92290000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C6" t="n">
         <v>359</v>
       </c>
       <c r="D6" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E6" t="n">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F6" t="n">
-        <v>125</v>
+        <v>2408.8478</v>
       </c>
       <c r="G6" t="n">
-        <v>361</v>
+        <v>-8417.075100000005</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C7" t="n">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="D7" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E7" t="n">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>403.3246</v>
       </c>
       <c r="G7" t="n">
-        <v>362.4</v>
+        <v>-8820.399700000005</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C8" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D8" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E8" t="n">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F8" t="n">
-        <v>363.8559</v>
+        <v>78.2578</v>
       </c>
       <c r="G8" t="n">
-        <v>362.6</v>
+        <v>-8742.141900000006</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C9" t="n">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D9" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E9" t="n">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F9" t="n">
-        <v>300.1876</v>
+        <v>231.0485</v>
       </c>
       <c r="G9" t="n">
-        <v>361.4</v>
+        <v>-8973.190400000007</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C10" t="n">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="D10" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E10" t="n">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F10" t="n">
-        <v>27.47252747</v>
+        <v>130.5035</v>
       </c>
       <c r="G10" t="n">
-        <v>361.2</v>
+        <v>-8973.190400000007</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -765,19 +765,19 @@
         <v>365</v>
       </c>
       <c r="C11" t="n">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D11" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E11" t="n">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F11" t="n">
-        <v>4785.1589</v>
+        <v>648.3746</v>
       </c>
       <c r="G11" t="n">
-        <v>361.2</v>
+        <v>-8324.815800000008</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C12" t="n">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="D12" t="n">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E12" t="n">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F12" t="n">
-        <v>100</v>
+        <v>290.5771</v>
       </c>
       <c r="G12" t="n">
-        <v>361.8</v>
+        <v>-8615.392900000008</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C13" t="n">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D13" t="n">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E13" t="n">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="F13" t="n">
-        <v>2167.9013</v>
+        <v>657.2737</v>
       </c>
       <c r="G13" t="n">
-        <v>364</v>
+        <v>-7958.119200000008</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C14" t="n">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="D14" t="n">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E14" t="n">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="F14" t="n">
-        <v>27.027</v>
+        <v>364.3417</v>
       </c>
       <c r="G14" t="n">
-        <v>366</v>
+        <v>-8322.460900000009</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="C15" t="n">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="D15" t="n">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="E15" t="n">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="F15" t="n">
-        <v>2010.9765</v>
+        <v>40</v>
       </c>
       <c r="G15" t="n">
-        <v>367</v>
+        <v>-8282.460900000009</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C16" t="n">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="D16" t="n">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="E16" t="n">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="F16" t="n">
-        <v>7159.8508</v>
+        <v>4.6833</v>
       </c>
       <c r="G16" t="n">
-        <v>369.2</v>
+        <v>-8277.777600000009</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C17" t="n">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="D17" t="n">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="E17" t="n">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="F17" t="n">
-        <v>3816.8998</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>369.6</v>
+        <v>-8275.777600000009</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="C18" t="n">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="D18" t="n">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="E18" t="n">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="F18" t="n">
-        <v>570.3265</v>
+        <v>70.4658</v>
       </c>
       <c r="G18" t="n">
-        <v>369.2</v>
+        <v>-8346.243400000008</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="C19" t="n">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="D19" t="n">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="E19" t="n">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F19" t="n">
-        <v>1550.5971</v>
+        <v>1844.7499</v>
       </c>
       <c r="G19" t="n">
-        <v>367.6</v>
+        <v>-8346.243400000008</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="C20" t="n">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="D20" t="n">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="E20" t="n">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="F20" t="n">
-        <v>1788</v>
+        <v>0.077</v>
       </c>
       <c r="G20" t="n">
-        <v>366</v>
+        <v>-8346.243400000008</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C21" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D21" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E21" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F21" t="n">
-        <v>1382.0085</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>364.2</v>
+        <v>-8345.243400000008</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C22" t="n">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="D22" t="n">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="E22" t="n">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="F22" t="n">
-        <v>2264.8805</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>362.4</v>
+        <v>-8346.243400000008</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C23" t="n">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D23" t="n">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E23" t="n">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>362.4</v>
+        <v>-8345.243400000008</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C24" t="n">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="D24" t="n">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="E24" t="n">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="F24" t="n">
-        <v>50</v>
+        <v>220.0514</v>
       </c>
       <c r="G24" t="n">
-        <v>364</v>
+        <v>-8565.294800000009</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="C25" t="n">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="D25" t="n">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="E25" t="n">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="F25" t="n">
-        <v>185.1105</v>
+        <v>82</v>
       </c>
       <c r="G25" t="n">
-        <v>365.8</v>
+        <v>-8565.294800000009</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="C26" t="n">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="D26" t="n">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="E26" t="n">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="F26" t="n">
-        <v>127.3</v>
+        <v>100.6239</v>
       </c>
       <c r="G26" t="n">
-        <v>367.4</v>
+        <v>-8464.670900000008</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="C27" t="n">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="D27" t="n">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="E27" t="n">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="F27" t="n">
-        <v>248</v>
+        <v>121.3545</v>
       </c>
       <c r="G27" t="n">
-        <v>369.8</v>
+        <v>-8586.025400000008</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="C28" t="n">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="D28" t="n">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="E28" t="n">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="F28" t="n">
-        <v>1619.7204</v>
+        <v>5338</v>
       </c>
       <c r="G28" t="n">
-        <v>370.2</v>
+        <v>-8586.025400000008</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,28 +1410,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="C29" t="n">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="D29" t="n">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="E29" t="n">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="F29" t="n">
-        <v>932</v>
+        <v>99.1754</v>
       </c>
       <c r="G29" t="n">
-        <v>370.4</v>
+        <v>-8586.025400000008</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1446,28 +1446,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="C30" t="n">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="D30" t="n">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="E30" t="n">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="G30" t="n">
-        <v>371</v>
+        <v>-8586.025400000008</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1482,28 +1482,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="C31" t="n">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="D31" t="n">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="E31" t="n">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="F31" t="n">
-        <v>9961.609700000001</v>
+        <v>150</v>
       </c>
       <c r="G31" t="n">
-        <v>371.8</v>
+        <v>-8586.025400000008</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1518,28 +1518,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="C32" t="n">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D32" t="n">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="E32" t="n">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F32" t="n">
-        <v>5538.7723</v>
+        <v>100</v>
       </c>
       <c r="G32" t="n">
-        <v>369.6</v>
+        <v>-8586.025400000008</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1554,28 +1554,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C33" t="n">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D33" t="n">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E33" t="n">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F33" t="n">
-        <v>4008.1105</v>
+        <v>2548.5154</v>
       </c>
       <c r="G33" t="n">
-        <v>368</v>
+        <v>-8586.025400000008</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C34" t="n">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D34" t="n">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="E34" t="n">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F34" t="n">
-        <v>4683.446</v>
+        <v>125.7075</v>
       </c>
       <c r="G34" t="n">
-        <v>366.6</v>
+        <v>-8586.025400000008</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="C35" t="n">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="D35" t="n">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="E35" t="n">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="F35" t="n">
-        <v>128.5687</v>
+        <v>323</v>
       </c>
       <c r="G35" t="n">
-        <v>365.8</v>
+        <v>-8586.025400000008</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,28 +1662,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="C36" t="n">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="D36" t="n">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="E36" t="n">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="F36" t="n">
-        <v>321</v>
+        <v>3.99</v>
       </c>
       <c r="G36" t="n">
-        <v>365.2</v>
+        <v>-8582.035400000008</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="C37" t="n">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="D37" t="n">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="E37" t="n">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="F37" t="n">
-        <v>210.6479</v>
+        <v>311</v>
       </c>
       <c r="G37" t="n">
-        <v>366.8</v>
+        <v>-8582.035400000008</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,28 +1734,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C38" t="n">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="D38" t="n">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="E38" t="n">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="F38" t="n">
-        <v>33.3168</v>
+        <v>1254</v>
       </c>
       <c r="G38" t="n">
-        <v>368.4</v>
+        <v>-8582.035400000008</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>355</v>
+      </c>
+      <c r="C39" t="n">
         <v>363</v>
-      </c>
-      <c r="C39" t="n">
-        <v>362</v>
       </c>
       <c r="D39" t="n">
         <v>363</v>
       </c>
       <c r="E39" t="n">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F39" t="n">
-        <v>5375.3086</v>
+        <v>51</v>
       </c>
       <c r="G39" t="n">
-        <v>368.2</v>
+        <v>-8531.035400000008</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C40" t="n">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="D40" t="n">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="E40" t="n">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="F40" t="n">
-        <v>107.7778</v>
+        <v>276.6802</v>
       </c>
       <c r="G40" t="n">
-        <v>367.6</v>
+        <v>-8807.715600000009</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C41" t="n">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D41" t="n">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E41" t="n">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>4324.3025</v>
       </c>
       <c r="G41" t="n">
-        <v>366</v>
+        <v>-8807.715600000009</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,28 +1878,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C42" t="n">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D42" t="n">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E42" t="n">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F42" t="n">
-        <v>56.0282</v>
+        <v>1880.695</v>
       </c>
       <c r="G42" t="n">
-        <v>364.4</v>
+        <v>-8807.715600000009</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C43" t="n">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D43" t="n">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E43" t="n">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F43" t="n">
-        <v>4115.1039</v>
+        <v>173</v>
       </c>
       <c r="G43" t="n">
-        <v>362.4</v>
+        <v>-8807.715600000009</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C44" t="n">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D44" t="n">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E44" t="n">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F44" t="n">
-        <v>8501.349099999999</v>
+        <v>28.169</v>
       </c>
       <c r="G44" t="n">
-        <v>361.8</v>
+        <v>-8807.715600000009</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C45" t="n">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="D45" t="n">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="E45" t="n">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="F45" t="n">
-        <v>99.7921</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>361.8</v>
+        <v>-8806.715600000009</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C46" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D46" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="E46" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="F46" t="n">
-        <v>1892.7151</v>
+        <v>318.3294</v>
       </c>
       <c r="G46" t="n">
-        <v>362.2</v>
+        <v>-8806.715600000009</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C47" t="n">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="D47" t="n">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="E47" t="n">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="F47" t="n">
-        <v>7732.6528</v>
+        <v>601.0144</v>
       </c>
       <c r="G47" t="n">
-        <v>362.8</v>
+        <v>-9407.730000000009</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="C48" t="n">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="D48" t="n">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="E48" t="n">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="F48" t="n">
-        <v>446.2022</v>
+        <v>472.6975</v>
       </c>
       <c r="G48" t="n">
-        <v>363.8</v>
+        <v>-8935.032500000008</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C49" t="n">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D49" t="n">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="E49" t="n">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="F49" t="n">
-        <v>169.1125</v>
+        <v>229</v>
       </c>
       <c r="G49" t="n">
-        <v>365</v>
+        <v>-9164.032500000008</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="C50" t="n">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D50" t="n">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="E50" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F50" t="n">
-        <v>11947.4509</v>
+        <v>134.4825</v>
       </c>
       <c r="G50" t="n">
-        <v>364.2</v>
+        <v>-9029.550000000008</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C51" t="n">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D51" t="n">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E51" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F51" t="n">
-        <v>300</v>
+        <v>76.52800000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>362.8</v>
+        <v>-9029.550000000008</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C52" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D52" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E52" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F52" t="n">
-        <v>55.3718</v>
+        <v>82.9131</v>
       </c>
       <c r="G52" t="n">
-        <v>360.8</v>
+        <v>-9029.550000000008</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C53" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D53" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E53" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F53" t="n">
-        <v>16</v>
+        <v>1561.5074</v>
       </c>
       <c r="G53" t="n">
-        <v>358.8</v>
+        <v>-10591.05740000001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C54" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D54" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E54" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F54" t="n">
-        <v>1553</v>
+        <v>7540.0756</v>
       </c>
       <c r="G54" t="n">
-        <v>356.2</v>
+        <v>-10591.05740000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="C55" t="n">
         <v>353</v>
       </c>
       <c r="D55" t="n">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="E55" t="n">
         <v>353</v>
       </c>
       <c r="F55" t="n">
-        <v>31</v>
+        <v>365.3889</v>
       </c>
       <c r="G55" t="n">
-        <v>354.4</v>
+        <v>-10591.05740000001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C56" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D56" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E56" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F56" t="n">
-        <v>515.0339</v>
+        <v>29</v>
       </c>
       <c r="G56" t="n">
-        <v>355.8</v>
+        <v>-10562.05740000001</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C57" t="n">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D57" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="E57" t="n">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="F57" t="n">
-        <v>157</v>
+        <v>43.1446</v>
       </c>
       <c r="G57" t="n">
-        <v>356.2</v>
+        <v>-10562.05740000001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C58" t="n">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D58" t="n">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E58" t="n">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F58" t="n">
-        <v>87.0869</v>
+        <v>100</v>
       </c>
       <c r="G58" t="n">
-        <v>356.4</v>
+        <v>-10662.05740000001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C59" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D59" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E59" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F59" t="n">
-        <v>476.3323</v>
+        <v>520.0091</v>
       </c>
       <c r="G59" t="n">
-        <v>357</v>
+        <v>-10662.05740000001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C60" t="n">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D60" t="n">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="E60" t="n">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="F60" t="n">
-        <v>298.6</v>
+        <v>100</v>
       </c>
       <c r="G60" t="n">
-        <v>358.4</v>
+        <v>-10762.05740000001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C61" t="n">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D61" t="n">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E61" t="n">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F61" t="n">
-        <v>1389.9586</v>
+        <v>2049.5667</v>
       </c>
       <c r="G61" t="n">
-        <v>357.4</v>
+        <v>-10762.05740000001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C62" t="n">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="D62" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E62" t="n">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F62" t="n">
-        <v>3007.8671</v>
+        <v>203.8193</v>
       </c>
       <c r="G62" t="n">
-        <v>359</v>
+        <v>-10558.23810000001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C63" t="n">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D63" t="n">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E63" t="n">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="F63" t="n">
-        <v>500</v>
+        <v>14355.9032</v>
       </c>
       <c r="G63" t="n">
-        <v>360.8</v>
+        <v>-24914.14130000001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C64" t="n">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="D64" t="n">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="E64" t="n">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F64" t="n">
-        <v>500</v>
+        <v>300.4691</v>
       </c>
       <c r="G64" t="n">
-        <v>362.8</v>
+        <v>-24613.67220000001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C65" t="n">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="D65" t="n">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="E65" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="F65" t="n">
-        <v>1476.2016</v>
+        <v>51</v>
       </c>
       <c r="G65" t="n">
-        <v>362.2</v>
+        <v>-24562.67220000001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C66" t="n">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D66" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E66" t="n">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="G66" t="n">
-        <v>363.2</v>
+        <v>-24698.67220000001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C67" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D67" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E67" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F67" t="n">
-        <v>162.1</v>
+        <v>3080.8939</v>
       </c>
       <c r="G67" t="n">
-        <v>361.8</v>
+        <v>-21617.77830000001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C68" t="n">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D68" t="n">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E68" t="n">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>895.8568</v>
       </c>
       <c r="G68" t="n">
-        <v>361.4</v>
+        <v>-20721.92150000001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2853,19 +2853,19 @@
         <v>358</v>
       </c>
       <c r="C69" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D69" t="n">
         <v>358</v>
       </c>
       <c r="E69" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F69" t="n">
-        <v>485.5994</v>
+        <v>418.6886</v>
       </c>
       <c r="G69" t="n">
-        <v>359.8</v>
+        <v>-20721.92150000001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C70" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D70" t="n">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E70" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F70" t="n">
-        <v>56.022</v>
+        <v>4020.0012</v>
       </c>
       <c r="G70" t="n">
-        <v>361</v>
+        <v>-16701.92030000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C71" t="n">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D71" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E71" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F71" t="n">
-        <v>969</v>
+        <v>223.6902</v>
       </c>
       <c r="G71" t="n">
-        <v>359.4</v>
+        <v>-16478.23010000001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C72" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D72" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E72" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F72" t="n">
-        <v>768.6685</v>
+        <v>500</v>
       </c>
       <c r="G72" t="n">
-        <v>359</v>
+        <v>-16978.23010000001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C73" t="n">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D73" t="n">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E73" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F73" t="n">
-        <v>8301.214664380001</v>
+        <v>300</v>
       </c>
       <c r="G73" t="n">
-        <v>359.4</v>
+        <v>-17278.23010000001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C74" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D74" t="n">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="E74" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F74" t="n">
-        <v>1191.1689</v>
+        <v>426.4484</v>
       </c>
       <c r="G74" t="n">
-        <v>359.8</v>
+        <v>-17278.23010000001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C75" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D75" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E75" t="n">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="F75" t="n">
-        <v>1408.0745</v>
+        <v>225.8448</v>
       </c>
       <c r="G75" t="n">
-        <v>359</v>
+        <v>-17052.38530000001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C76" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D76" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E76" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="F76" t="n">
-        <v>227.4504</v>
+        <v>1000</v>
       </c>
       <c r="G76" t="n">
-        <v>359.6</v>
+        <v>-17052.38530000001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C77" t="n">
         <v>359</v>
       </c>
       <c r="D77" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E77" t="n">
         <v>359</v>
       </c>
       <c r="F77" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="G77" t="n">
-        <v>360.2</v>
+        <v>-17177.38530000001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C78" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D78" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E78" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="F78" t="n">
-        <v>109.21</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>359</v>
+        <v>-17176.38530000001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C79" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D79" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E79" t="n">
         <v>359</v>
       </c>
       <c r="F79" t="n">
-        <v>96</v>
+        <v>363.8559</v>
       </c>
       <c r="G79" t="n">
-        <v>359.2</v>
+        <v>-17540.24120000001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C80" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D80" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E80" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F80" t="n">
-        <v>32</v>
+        <v>300.1876</v>
       </c>
       <c r="G80" t="n">
-        <v>359.4</v>
+        <v>-17540.24120000001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C81" t="n">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D81" t="n">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="E81" t="n">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="F81" t="n">
-        <v>112.259</v>
+        <v>27.47252747</v>
       </c>
       <c r="G81" t="n">
-        <v>359.4</v>
+        <v>-17512.76867253001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C82" t="n">
         <v>359</v>
       </c>
       <c r="D82" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E82" t="n">
         <v>359</v>
       </c>
       <c r="F82" t="n">
-        <v>1082</v>
+        <v>4785.1589</v>
       </c>
       <c r="G82" t="n">
-        <v>359.4</v>
+        <v>-22297.92757253001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C83" t="n">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="D83" t="n">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="E83" t="n">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="F83" t="n">
-        <v>126.2009</v>
+        <v>100</v>
       </c>
       <c r="G83" t="n">
-        <v>359.4</v>
+        <v>-22197.92757253001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="C84" t="n">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="D84" t="n">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="E84" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="F84" t="n">
-        <v>317.0422</v>
+        <v>2167.9013</v>
       </c>
       <c r="G84" t="n">
-        <v>359</v>
+        <v>-20030.02627253001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="C85" t="n">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="D85" t="n">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="E85" t="n">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="F85" t="n">
-        <v>1439.0094</v>
+        <v>27.027</v>
       </c>
       <c r="G85" t="n">
-        <v>359</v>
+        <v>-20057.05327253001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="C86" t="n">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="D86" t="n">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="E86" t="n">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="F86" t="n">
-        <v>229.17</v>
+        <v>2010.9765</v>
       </c>
       <c r="G86" t="n">
-        <v>359.2</v>
+        <v>-20057.05327253001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,28 +3498,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="C87" t="n">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="D87" t="n">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="E87" t="n">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="F87" t="n">
-        <v>110.5453</v>
+        <v>7159.8508</v>
       </c>
       <c r="G87" t="n">
-        <v>359.4</v>
+        <v>-12897.20247253001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3534,28 +3534,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="C88" t="n">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="D88" t="n">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="E88" t="n">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="F88" t="n">
-        <v>45.502</v>
+        <v>3816.8998</v>
       </c>
       <c r="G88" t="n">
-        <v>359.4</v>
+        <v>-12897.20247253001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3570,28 +3570,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="C89" t="n">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="D89" t="n">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="E89" t="n">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="F89" t="n">
-        <v>71.28879999999999</v>
+        <v>570.3265</v>
       </c>
       <c r="G89" t="n">
-        <v>359.6</v>
+        <v>-13467.52897253001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3606,28 +3606,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C90" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D90" t="n">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="E90" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F90" t="n">
-        <v>110.5472</v>
+        <v>1550.5971</v>
       </c>
       <c r="G90" t="n">
-        <v>359.6</v>
+        <v>-15018.12607253001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3642,28 +3642,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C91" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D91" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E91" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F91" t="n">
-        <v>317.5337</v>
+        <v>1788</v>
       </c>
       <c r="G91" t="n">
-        <v>359.4</v>
+        <v>-15018.12607253001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3678,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C92" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D92" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E92" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F92" t="n">
-        <v>404.0422</v>
+        <v>1382.0085</v>
       </c>
       <c r="G92" t="n">
-        <v>359.2</v>
+        <v>-15018.12607253001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>362</v>
       </c>
       <c r="C93" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D93" t="n">
         <v>362</v>
       </c>
       <c r="E93" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F93" t="n">
-        <v>99.9999</v>
+        <v>2264.8805</v>
       </c>
       <c r="G93" t="n">
-        <v>359.8</v>
+        <v>-15018.12607253001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3750,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C94" t="n">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D94" t="n">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E94" t="n">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="F94" t="n">
-        <v>333</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>360.4</v>
+        <v>-15017.12607253001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3786,28 +3786,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C95" t="n">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="D95" t="n">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="E95" t="n">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="F95" t="n">
-        <v>26.8752</v>
+        <v>50</v>
       </c>
       <c r="G95" t="n">
-        <v>360.8</v>
+        <v>-14967.12607253001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3822,28 +3822,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C96" t="n">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="D96" t="n">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="E96" t="n">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="F96" t="n">
-        <v>7</v>
+        <v>185.1105</v>
       </c>
       <c r="G96" t="n">
-        <v>361.4</v>
+        <v>-14782.01557253</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3858,28 +3858,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C97" t="n">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="D97" t="n">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="E97" t="n">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="F97" t="n">
-        <v>699.1442</v>
+        <v>127.3</v>
       </c>
       <c r="G97" t="n">
-        <v>361.6</v>
+        <v>-14909.31557253</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3894,28 +3894,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="C98" t="n">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="D98" t="n">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="E98" t="n">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="F98" t="n">
-        <v>561.9999</v>
+        <v>248</v>
       </c>
       <c r="G98" t="n">
-        <v>361</v>
+        <v>-14661.31557253</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3930,28 +3930,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="C99" t="n">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="D99" t="n">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="E99" t="n">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="F99" t="n">
-        <v>148</v>
+        <v>1619.7204</v>
       </c>
       <c r="G99" t="n">
-        <v>360.4</v>
+        <v>-16281.03597253</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -3966,28 +3966,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="C100" t="n">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="D100" t="n">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="E100" t="n">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="F100" t="n">
-        <v>50</v>
+        <v>932</v>
       </c>
       <c r="G100" t="n">
-        <v>359.8</v>
+        <v>-16281.03597253</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4002,28 +4002,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="C101" t="n">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="D101" t="n">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="E101" t="n">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="F101" t="n">
-        <v>1300.3009</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>359</v>
+        <v>-16280.03597253</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4038,22 +4038,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="C102" t="n">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="D102" t="n">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="E102" t="n">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="F102" t="n">
-        <v>243.0817</v>
+        <v>9961.609700000001</v>
       </c>
       <c r="G102" t="n">
-        <v>358.4</v>
+        <v>-16280.03597253</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4074,28 +4074,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="C103" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D103" t="n">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="E103" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F103" t="n">
-        <v>559.9032</v>
+        <v>5538.7723</v>
       </c>
       <c r="G103" t="n">
-        <v>358</v>
+        <v>-21818.80827253</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4110,28 +4110,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C104" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D104" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="E104" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F104" t="n">
-        <v>412.2419</v>
+        <v>4008.1105</v>
       </c>
       <c r="G104" t="n">
-        <v>357.6</v>
+        <v>-21818.80827253</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4146,22 +4146,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C105" t="n">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D105" t="n">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E105" t="n">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="F105" t="n">
-        <v>460</v>
+        <v>4683.446</v>
       </c>
       <c r="G105" t="n">
-        <v>357.2</v>
+        <v>-17135.36227253</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4182,35 +4182,31 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="C106" t="n">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="D106" t="n">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="E106" t="n">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="F106" t="n">
-        <v>342</v>
+        <v>128.5687</v>
       </c>
       <c r="G106" t="n">
-        <v>357</v>
+        <v>-17006.79357253</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>357</v>
-      </c>
-      <c r="K106" t="n">
-        <v>357</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
@@ -4222,816 +4218,3282 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
+        <v>369</v>
+      </c>
+      <c r="C107" t="n">
+        <v>370</v>
+      </c>
+      <c r="D107" t="n">
+        <v>370</v>
+      </c>
+      <c r="E107" t="n">
+        <v>369</v>
+      </c>
+      <c r="F107" t="n">
+        <v>321</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-16685.79357253</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>368</v>
+      </c>
+      <c r="C108" t="n">
+        <v>370</v>
+      </c>
+      <c r="D108" t="n">
+        <v>370</v>
+      </c>
+      <c r="E108" t="n">
+        <v>368</v>
+      </c>
+      <c r="F108" t="n">
+        <v>210.6479</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-16685.79357253</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>367</v>
+      </c>
+      <c r="C109" t="n">
+        <v>370</v>
+      </c>
+      <c r="D109" t="n">
+        <v>370</v>
+      </c>
+      <c r="E109" t="n">
+        <v>367</v>
+      </c>
+      <c r="F109" t="n">
+        <v>33.3168</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-16685.79357253</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>363</v>
+      </c>
+      <c r="C110" t="n">
+        <v>362</v>
+      </c>
+      <c r="D110" t="n">
+        <v>363</v>
+      </c>
+      <c r="E110" t="n">
+        <v>362</v>
+      </c>
+      <c r="F110" t="n">
+        <v>5375.3086</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-22061.10217253001</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>366</v>
+      </c>
+      <c r="C111" t="n">
+        <v>366</v>
+      </c>
+      <c r="D111" t="n">
+        <v>366</v>
+      </c>
+      <c r="E111" t="n">
+        <v>366</v>
+      </c>
+      <c r="F111" t="n">
+        <v>107.7778</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-21953.32437253001</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>362</v>
+      </c>
+      <c r="C112" t="n">
+        <v>362</v>
+      </c>
+      <c r="D112" t="n">
+        <v>362</v>
+      </c>
+      <c r="E112" t="n">
+        <v>362</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-21954.32437253001</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>362</v>
+      </c>
+      <c r="C113" t="n">
+        <v>362</v>
+      </c>
+      <c r="D113" t="n">
+        <v>362</v>
+      </c>
+      <c r="E113" t="n">
+        <v>362</v>
+      </c>
+      <c r="F113" t="n">
+        <v>56.0282</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-21954.32437253001</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>362</v>
+      </c>
+      <c r="C114" t="n">
+        <v>360</v>
+      </c>
+      <c r="D114" t="n">
+        <v>362</v>
+      </c>
+      <c r="E114" t="n">
+        <v>360</v>
+      </c>
+      <c r="F114" t="n">
+        <v>4115.1039</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-26069.42827253001</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>360</v>
+      </c>
+      <c r="C115" t="n">
+        <v>359</v>
+      </c>
+      <c r="D115" t="n">
+        <v>360</v>
+      </c>
+      <c r="E115" t="n">
+        <v>359</v>
+      </c>
+      <c r="F115" t="n">
+        <v>8501.349099999999</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-34570.77737253001</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>365</v>
+      </c>
+      <c r="C116" t="n">
+        <v>366</v>
+      </c>
+      <c r="D116" t="n">
+        <v>366</v>
+      </c>
+      <c r="E116" t="n">
+        <v>365</v>
+      </c>
+      <c r="F116" t="n">
+        <v>99.7921</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-34470.98527253001</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>364</v>
+      </c>
+      <c r="C117" t="n">
+        <v>364</v>
+      </c>
+      <c r="D117" t="n">
+        <v>364</v>
+      </c>
+      <c r="E117" t="n">
+        <v>364</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1892.7151</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-36363.70037253001</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>364</v>
+      </c>
+      <c r="C118" t="n">
+        <v>365</v>
+      </c>
+      <c r="D118" t="n">
+        <v>366</v>
+      </c>
+      <c r="E118" t="n">
+        <v>364</v>
+      </c>
+      <c r="F118" t="n">
+        <v>7732.6528</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-28631.04757253001</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>365</v>
+      </c>
+      <c r="C119" t="n">
+        <v>365</v>
+      </c>
+      <c r="D119" t="n">
+        <v>365</v>
+      </c>
+      <c r="E119" t="n">
+        <v>365</v>
+      </c>
+      <c r="F119" t="n">
+        <v>446.2022</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-28631.04757253001</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>365</v>
+      </c>
+      <c r="C120" t="n">
+        <v>365</v>
+      </c>
+      <c r="D120" t="n">
+        <v>365</v>
+      </c>
+      <c r="E120" t="n">
+        <v>365</v>
+      </c>
+      <c r="F120" t="n">
+        <v>169.1125</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-28631.04757253001</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>365</v>
+      </c>
+      <c r="C121" t="n">
+        <v>362</v>
+      </c>
+      <c r="D121" t="n">
+        <v>365</v>
+      </c>
+      <c r="E121" t="n">
+        <v>355</v>
+      </c>
+      <c r="F121" t="n">
+        <v>11947.4509</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-40578.49847253001</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>357</v>
+      </c>
+      <c r="C122" t="n">
+        <v>357</v>
+      </c>
+      <c r="D122" t="n">
+        <v>357</v>
+      </c>
+      <c r="E122" t="n">
+        <v>355</v>
+      </c>
+      <c r="F122" t="n">
+        <v>300</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-40878.49847253001</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>355</v>
+      </c>
+      <c r="C123" t="n">
+        <v>355</v>
+      </c>
+      <c r="D123" t="n">
+        <v>355</v>
+      </c>
+      <c r="E123" t="n">
+        <v>355</v>
+      </c>
+      <c r="F123" t="n">
+        <v>55.3718</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-40933.87027253001</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>355</v>
+      </c>
+      <c r="C124" t="n">
+        <v>355</v>
+      </c>
+      <c r="D124" t="n">
+        <v>355</v>
+      </c>
+      <c r="E124" t="n">
+        <v>355</v>
+      </c>
+      <c r="F124" t="n">
+        <v>16</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-40933.87027253001</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>360</v>
+      </c>
+      <c r="C125" t="n">
+        <v>352</v>
+      </c>
+      <c r="D125" t="n">
+        <v>360</v>
+      </c>
+      <c r="E125" t="n">
+        <v>352</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1553</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-42486.87027253001</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>353</v>
+      </c>
+      <c r="C126" t="n">
+        <v>353</v>
+      </c>
+      <c r="D126" t="n">
+        <v>353</v>
+      </c>
+      <c r="E126" t="n">
+        <v>353</v>
+      </c>
+      <c r="F126" t="n">
+        <v>31</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-42455.87027253001</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>357</v>
+      </c>
+      <c r="C127" t="n">
+        <v>364</v>
+      </c>
+      <c r="D127" t="n">
+        <v>364</v>
+      </c>
+      <c r="E127" t="n">
+        <v>357</v>
+      </c>
+      <c r="F127" t="n">
+        <v>515.0339</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-41940.83637253001</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
         <v>358</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C128" t="n">
         <v>357</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D128" t="n">
         <v>358</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E128" t="n">
         <v>357</v>
       </c>
-      <c r="F107" t="n">
+      <c r="F128" t="n">
+        <v>157</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-42097.83637253001</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>356</v>
+      </c>
+      <c r="C129" t="n">
+        <v>356</v>
+      </c>
+      <c r="D129" t="n">
+        <v>356</v>
+      </c>
+      <c r="E129" t="n">
+        <v>356</v>
+      </c>
+      <c r="F129" t="n">
+        <v>87.0869</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-42184.92327253001</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>355</v>
+      </c>
+      <c r="C130" t="n">
+        <v>355</v>
+      </c>
+      <c r="D130" t="n">
+        <v>355</v>
+      </c>
+      <c r="E130" t="n">
+        <v>355</v>
+      </c>
+      <c r="F130" t="n">
+        <v>476.3323</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-42661.25557253001</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>360</v>
+      </c>
+      <c r="C131" t="n">
+        <v>360</v>
+      </c>
+      <c r="D131" t="n">
+        <v>360</v>
+      </c>
+      <c r="E131" t="n">
+        <v>360</v>
+      </c>
+      <c r="F131" t="n">
+        <v>298.6</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-42362.65557253001</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>359</v>
+      </c>
+      <c r="C132" t="n">
+        <v>359</v>
+      </c>
+      <c r="D132" t="n">
+        <v>359</v>
+      </c>
+      <c r="E132" t="n">
+        <v>359</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1389.9586</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-43752.61417253001</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>361</v>
+      </c>
+      <c r="C133" t="n">
+        <v>365</v>
+      </c>
+      <c r="D133" t="n">
+        <v>365</v>
+      </c>
+      <c r="E133" t="n">
+        <v>361</v>
+      </c>
+      <c r="F133" t="n">
+        <v>3007.8671</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-40744.74707253001</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>365</v>
+      </c>
+      <c r="C134" t="n">
+        <v>365</v>
+      </c>
+      <c r="D134" t="n">
+        <v>365</v>
+      </c>
+      <c r="E134" t="n">
+        <v>365</v>
+      </c>
+      <c r="F134" t="n">
+        <v>500</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-40744.74707253001</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>365</v>
+      </c>
+      <c r="C135" t="n">
+        <v>365</v>
+      </c>
+      <c r="D135" t="n">
+        <v>365</v>
+      </c>
+      <c r="E135" t="n">
+        <v>365</v>
+      </c>
+      <c r="F135" t="n">
+        <v>500</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-40744.74707253001</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>357</v>
+      </c>
+      <c r="C136" t="n">
+        <v>357</v>
+      </c>
+      <c r="D136" t="n">
+        <v>357</v>
+      </c>
+      <c r="E136" t="n">
+        <v>357</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1476.2016</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-42220.94867253001</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>364</v>
+      </c>
+      <c r="C137" t="n">
+        <v>364</v>
+      </c>
+      <c r="D137" t="n">
+        <v>364</v>
+      </c>
+      <c r="E137" t="n">
+        <v>364</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-42219.94867253001</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>358</v>
+      </c>
+      <c r="C138" t="n">
+        <v>358</v>
+      </c>
+      <c r="D138" t="n">
+        <v>358</v>
+      </c>
+      <c r="E138" t="n">
+        <v>358</v>
+      </c>
+      <c r="F138" t="n">
+        <v>162.1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-42382.04867253001</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>363</v>
+      </c>
+      <c r="C139" t="n">
+        <v>363</v>
+      </c>
+      <c r="D139" t="n">
+        <v>363</v>
+      </c>
+      <c r="E139" t="n">
+        <v>363</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-42381.04867253001</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>358</v>
+      </c>
+      <c r="C140" t="n">
+        <v>357</v>
+      </c>
+      <c r="D140" t="n">
+        <v>358</v>
+      </c>
+      <c r="E140" t="n">
+        <v>357</v>
+      </c>
+      <c r="F140" t="n">
+        <v>485.5994</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-42866.64807253001</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>363</v>
+      </c>
+      <c r="C141" t="n">
+        <v>363</v>
+      </c>
+      <c r="D141" t="n">
+        <v>363</v>
+      </c>
+      <c r="E141" t="n">
+        <v>363</v>
+      </c>
+      <c r="F141" t="n">
+        <v>56.022</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-42810.62607253001</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>357</v>
+      </c>
+      <c r="C142" t="n">
+        <v>356</v>
+      </c>
+      <c r="D142" t="n">
+        <v>357</v>
+      </c>
+      <c r="E142" t="n">
+        <v>356</v>
+      </c>
+      <c r="F142" t="n">
+        <v>969</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-43779.62607253001</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>356</v>
+      </c>
+      <c r="C143" t="n">
+        <v>356</v>
+      </c>
+      <c r="D143" t="n">
+        <v>356</v>
+      </c>
+      <c r="E143" t="n">
+        <v>356</v>
+      </c>
+      <c r="F143" t="n">
+        <v>768.6685</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-43779.62607253001</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>359</v>
+      </c>
+      <c r="C144" t="n">
+        <v>365</v>
+      </c>
+      <c r="D144" t="n">
+        <v>365</v>
+      </c>
+      <c r="E144" t="n">
+        <v>359</v>
+      </c>
+      <c r="F144" t="n">
+        <v>8301.214664380001</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-35478.41140815001</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>357</v>
+      </c>
+      <c r="C145" t="n">
+        <v>359</v>
+      </c>
+      <c r="D145" t="n">
+        <v>359</v>
+      </c>
+      <c r="E145" t="n">
+        <v>357</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1191.1689</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-36669.58030815001</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>359</v>
+      </c>
+      <c r="C146" t="n">
+        <v>359</v>
+      </c>
+      <c r="D146" t="n">
+        <v>359</v>
+      </c>
+      <c r="E146" t="n">
+        <v>359</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1408.0745</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-36669.58030815001</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>359</v>
+      </c>
+      <c r="C147" t="n">
+        <v>359</v>
+      </c>
+      <c r="D147" t="n">
+        <v>359</v>
+      </c>
+      <c r="E147" t="n">
+        <v>359</v>
+      </c>
+      <c r="F147" t="n">
+        <v>227.4504</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-36669.58030815001</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>361</v>
+      </c>
+      <c r="C148" t="n">
+        <v>359</v>
+      </c>
+      <c r="D148" t="n">
+        <v>361</v>
+      </c>
+      <c r="E148" t="n">
+        <v>359</v>
+      </c>
+      <c r="F148" t="n">
+        <v>100</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-36669.58030815001</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>360</v>
+      </c>
+      <c r="C149" t="n">
+        <v>359</v>
+      </c>
+      <c r="D149" t="n">
+        <v>360</v>
+      </c>
+      <c r="E149" t="n">
+        <v>359</v>
+      </c>
+      <c r="F149" t="n">
+        <v>109.21</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-36669.58030815001</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>360</v>
+      </c>
+      <c r="C150" t="n">
+        <v>360</v>
+      </c>
+      <c r="D150" t="n">
+        <v>360</v>
+      </c>
+      <c r="E150" t="n">
+        <v>359</v>
+      </c>
+      <c r="F150" t="n">
+        <v>96</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-36573.58030815001</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>360</v>
+      </c>
+      <c r="C151" t="n">
+        <v>360</v>
+      </c>
+      <c r="D151" t="n">
+        <v>360</v>
+      </c>
+      <c r="E151" t="n">
+        <v>360</v>
+      </c>
+      <c r="F151" t="n">
+        <v>32</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-36573.58030815001</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>359</v>
+      </c>
+      <c r="C152" t="n">
+        <v>359</v>
+      </c>
+      <c r="D152" t="n">
+        <v>359</v>
+      </c>
+      <c r="E152" t="n">
+        <v>359</v>
+      </c>
+      <c r="F152" t="n">
+        <v>112.259</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-36685.83930815</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>360</v>
+      </c>
+      <c r="C153" t="n">
+        <v>359</v>
+      </c>
+      <c r="D153" t="n">
+        <v>360</v>
+      </c>
+      <c r="E153" t="n">
+        <v>359</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1082</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-36685.83930815</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>359</v>
+      </c>
+      <c r="C154" t="n">
+        <v>359</v>
+      </c>
+      <c r="D154" t="n">
+        <v>359</v>
+      </c>
+      <c r="E154" t="n">
+        <v>359</v>
+      </c>
+      <c r="F154" t="n">
+        <v>126.2009</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-36685.83930815</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>358</v>
+      </c>
+      <c r="C155" t="n">
+        <v>358</v>
+      </c>
+      <c r="D155" t="n">
+        <v>358</v>
+      </c>
+      <c r="E155" t="n">
+        <v>358</v>
+      </c>
+      <c r="F155" t="n">
+        <v>317.0422</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-37002.88150815001</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>361</v>
+      </c>
+      <c r="C156" t="n">
+        <v>360</v>
+      </c>
+      <c r="D156" t="n">
+        <v>363</v>
+      </c>
+      <c r="E156" t="n">
+        <v>358</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1439.0094</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-35563.87210815</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>360</v>
+      </c>
+      <c r="C157" t="n">
+        <v>360</v>
+      </c>
+      <c r="D157" t="n">
+        <v>360</v>
+      </c>
+      <c r="E157" t="n">
+        <v>360</v>
+      </c>
+      <c r="F157" t="n">
+        <v>229.17</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-35563.87210815</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>360</v>
+      </c>
+      <c r="C158" t="n">
+        <v>360</v>
+      </c>
+      <c r="D158" t="n">
+        <v>360</v>
+      </c>
+      <c r="E158" t="n">
+        <v>360</v>
+      </c>
+      <c r="F158" t="n">
+        <v>110.5453</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-35563.87210815</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>359</v>
+      </c>
+      <c r="C159" t="n">
+        <v>359</v>
+      </c>
+      <c r="D159" t="n">
+        <v>359</v>
+      </c>
+      <c r="E159" t="n">
+        <v>359</v>
+      </c>
+      <c r="F159" t="n">
+        <v>45.502</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-35609.37410815</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>359</v>
+      </c>
+      <c r="C160" t="n">
+        <v>359</v>
+      </c>
+      <c r="D160" t="n">
+        <v>359</v>
+      </c>
+      <c r="E160" t="n">
+        <v>359</v>
+      </c>
+      <c r="F160" t="n">
+        <v>71.28879999999999</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-35609.37410815</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>360</v>
+      </c>
+      <c r="C161" t="n">
+        <v>360</v>
+      </c>
+      <c r="D161" t="n">
+        <v>360</v>
+      </c>
+      <c r="E161" t="n">
+        <v>360</v>
+      </c>
+      <c r="F161" t="n">
+        <v>110.5472</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-35498.82690815</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>359</v>
+      </c>
+      <c r="C162" t="n">
+        <v>359</v>
+      </c>
+      <c r="D162" t="n">
+        <v>359</v>
+      </c>
+      <c r="E162" t="n">
+        <v>359</v>
+      </c>
+      <c r="F162" t="n">
+        <v>317.5337</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-35816.36060815</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>359</v>
+      </c>
+      <c r="C163" t="n">
+        <v>359</v>
+      </c>
+      <c r="D163" t="n">
+        <v>359</v>
+      </c>
+      <c r="E163" t="n">
+        <v>359</v>
+      </c>
+      <c r="F163" t="n">
+        <v>404.0422</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-35816.36060815</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>362</v>
+      </c>
+      <c r="C164" t="n">
+        <v>362</v>
+      </c>
+      <c r="D164" t="n">
+        <v>362</v>
+      </c>
+      <c r="E164" t="n">
+        <v>362</v>
+      </c>
+      <c r="F164" t="n">
+        <v>99.9999</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-35716.36070815</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>362</v>
+      </c>
+      <c r="C165" t="n">
+        <v>362</v>
+      </c>
+      <c r="D165" t="n">
+        <v>362</v>
+      </c>
+      <c r="E165" t="n">
+        <v>361</v>
+      </c>
+      <c r="F165" t="n">
+        <v>333</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-35716.36070815</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>362</v>
+      </c>
+      <c r="C166" t="n">
+        <v>362</v>
+      </c>
+      <c r="D166" t="n">
+        <v>362</v>
+      </c>
+      <c r="E166" t="n">
+        <v>362</v>
+      </c>
+      <c r="F166" t="n">
+        <v>26.8752</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-35716.36070815</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>362</v>
+      </c>
+      <c r="C167" t="n">
+        <v>362</v>
+      </c>
+      <c r="D167" t="n">
+        <v>362</v>
+      </c>
+      <c r="E167" t="n">
+        <v>362</v>
+      </c>
+      <c r="F167" t="n">
+        <v>7</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-35716.36070815</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>362</v>
+      </c>
+      <c r="C168" t="n">
+        <v>360</v>
+      </c>
+      <c r="D168" t="n">
+        <v>362</v>
+      </c>
+      <c r="E168" t="n">
+        <v>360</v>
+      </c>
+      <c r="F168" t="n">
+        <v>699.1442</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-36415.50490815</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>360</v>
+      </c>
+      <c r="C169" t="n">
+        <v>359</v>
+      </c>
+      <c r="D169" t="n">
+        <v>360</v>
+      </c>
+      <c r="E169" t="n">
+        <v>359</v>
+      </c>
+      <c r="F169" t="n">
+        <v>561.9999</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-36977.50480815001</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>359</v>
+      </c>
+      <c r="C170" t="n">
+        <v>359</v>
+      </c>
+      <c r="D170" t="n">
+        <v>359</v>
+      </c>
+      <c r="E170" t="n">
+        <v>359</v>
+      </c>
+      <c r="F170" t="n">
+        <v>148</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-36977.50480815001</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>359</v>
+      </c>
+      <c r="C171" t="n">
+        <v>359</v>
+      </c>
+      <c r="D171" t="n">
+        <v>359</v>
+      </c>
+      <c r="E171" t="n">
+        <v>359</v>
+      </c>
+      <c r="F171" t="n">
+        <v>50</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-36977.50480815001</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>359</v>
+      </c>
+      <c r="C172" t="n">
+        <v>358</v>
+      </c>
+      <c r="D172" t="n">
+        <v>359</v>
+      </c>
+      <c r="E172" t="n">
+        <v>358</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1300.3009</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-38277.80570815001</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>358</v>
+      </c>
+      <c r="C173" t="n">
+        <v>357</v>
+      </c>
+      <c r="D173" t="n">
+        <v>358</v>
+      </c>
+      <c r="E173" t="n">
+        <v>357</v>
+      </c>
+      <c r="F173" t="n">
+        <v>243.0817</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-38520.88740815001</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>357</v>
+      </c>
+      <c r="C174" t="n">
+        <v>357</v>
+      </c>
+      <c r="D174" t="n">
+        <v>357</v>
+      </c>
+      <c r="E174" t="n">
+        <v>357</v>
+      </c>
+      <c r="F174" t="n">
+        <v>559.9032</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-38520.88740815001</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>357</v>
+      </c>
+      <c r="C175" t="n">
+        <v>357</v>
+      </c>
+      <c r="D175" t="n">
+        <v>357</v>
+      </c>
+      <c r="E175" t="n">
+        <v>357</v>
+      </c>
+      <c r="F175" t="n">
+        <v>412.2419</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-38520.88740815001</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>357</v>
+      </c>
+      <c r="C176" t="n">
+        <v>357</v>
+      </c>
+      <c r="D176" t="n">
+        <v>357</v>
+      </c>
+      <c r="E176" t="n">
+        <v>357</v>
+      </c>
+      <c r="F176" t="n">
+        <v>460</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-38520.88740815001</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>357</v>
+      </c>
+      <c r="C177" t="n">
+        <v>357</v>
+      </c>
+      <c r="D177" t="n">
+        <v>357</v>
+      </c>
+      <c r="E177" t="n">
+        <v>357</v>
+      </c>
+      <c r="F177" t="n">
+        <v>342</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-38520.88740815001</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>358</v>
+      </c>
+      <c r="C178" t="n">
+        <v>357</v>
+      </c>
+      <c r="D178" t="n">
+        <v>358</v>
+      </c>
+      <c r="E178" t="n">
+        <v>357</v>
+      </c>
+      <c r="F178" t="n">
         <v>298</v>
       </c>
-      <c r="G107" t="n">
+      <c r="G178" t="n">
+        <v>-38520.88740815001</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
         <v>357</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
+      <c r="C179" t="n">
         <v>357</v>
       </c>
-      <c r="L107" t="inlineStr">
+      <c r="D179" t="n">
+        <v>357</v>
+      </c>
+      <c r="E179" t="n">
+        <v>357</v>
+      </c>
+      <c r="F179" t="n">
+        <v>5195.0864</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-38520.88740815001</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>357</v>
+      </c>
+      <c r="C180" t="n">
+        <v>357</v>
+      </c>
+      <c r="D180" t="n">
+        <v>357</v>
+      </c>
+      <c r="E180" t="n">
+        <v>357</v>
+      </c>
+      <c r="F180" t="n">
+        <v>91.5359</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-38520.88740815001</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>357</v>
+      </c>
+      <c r="C181" t="n">
+        <v>357</v>
+      </c>
+      <c r="D181" t="n">
+        <v>357</v>
+      </c>
+      <c r="E181" t="n">
+        <v>357</v>
+      </c>
+      <c r="F181" t="n">
+        <v>3939.2688</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-38520.88740815001</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>357</v>
+      </c>
+      <c r="C182" t="n">
+        <v>357</v>
+      </c>
+      <c r="D182" t="n">
+        <v>357</v>
+      </c>
+      <c r="E182" t="n">
+        <v>357</v>
+      </c>
+      <c r="F182" t="n">
+        <v>92</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-38520.88740815001</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>357</v>
+      </c>
+      <c r="C183" t="n">
+        <v>357</v>
+      </c>
+      <c r="D183" t="n">
+        <v>357</v>
+      </c>
+      <c r="E183" t="n">
+        <v>357</v>
+      </c>
+      <c r="F183" t="n">
+        <v>139</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-38520.88740815001</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>357</v>
+      </c>
+      <c r="C184" t="n">
+        <v>357</v>
+      </c>
+      <c r="D184" t="n">
+        <v>357</v>
+      </c>
+      <c r="E184" t="n">
+        <v>357</v>
+      </c>
+      <c r="F184" t="n">
+        <v>122</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-38520.88740815001</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>355</v>
+      </c>
+      <c r="C185" t="n">
+        <v>354</v>
+      </c>
+      <c r="D185" t="n">
+        <v>355</v>
+      </c>
+      <c r="E185" t="n">
+        <v>354</v>
+      </c>
+      <c r="F185" t="n">
+        <v>50</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-38570.88740815001</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>354</v>
+      </c>
+      <c r="C186" t="n">
+        <v>354</v>
+      </c>
+      <c r="D186" t="n">
+        <v>354</v>
+      </c>
+      <c r="E186" t="n">
+        <v>354</v>
+      </c>
+      <c r="F186" t="n">
+        <v>930.5775</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-38570.88740815001</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>354</v>
+      </c>
+      <c r="C187" t="n">
+        <v>351</v>
+      </c>
+      <c r="D187" t="n">
+        <v>354</v>
+      </c>
+      <c r="E187" t="n">
+        <v>351</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1550.0001</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-40120.88750815001</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>351</v>
+      </c>
+      <c r="C188" t="n">
+        <v>351</v>
+      </c>
+      <c r="D188" t="n">
+        <v>351</v>
+      </c>
+      <c r="E188" t="n">
+        <v>351</v>
+      </c>
+      <c r="F188" t="n">
+        <v>50</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-40120.88750815001</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>351</v>
+      </c>
+      <c r="C189" t="n">
+        <v>351</v>
+      </c>
+      <c r="D189" t="n">
+        <v>351</v>
+      </c>
+      <c r="E189" t="n">
+        <v>351</v>
+      </c>
+      <c r="F189" t="n">
+        <v>238.1377</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-40120.88750815001</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>350</v>
+      </c>
+      <c r="C190" t="n">
+        <v>350</v>
+      </c>
+      <c r="D190" t="n">
+        <v>350</v>
+      </c>
+      <c r="E190" t="n">
+        <v>350</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1150</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-41270.88750815001</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>350</v>
+      </c>
+      <c r="C191" t="n">
+        <v>350</v>
+      </c>
+      <c r="D191" t="n">
+        <v>350</v>
+      </c>
+      <c r="E191" t="n">
+        <v>350</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2172.1999</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-41270.88750815001</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>350</v>
+      </c>
+      <c r="K191" t="n">
+        <v>350</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>350</v>
+      </c>
+      <c r="C192" t="n">
+        <v>350</v>
+      </c>
+      <c r="D192" t="n">
+        <v>350</v>
+      </c>
+      <c r="E192" t="n">
+        <v>350</v>
+      </c>
+      <c r="F192" t="n">
+        <v>2.0485</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-41270.88750815001</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>350</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>348</v>
+      </c>
+      <c r="C193" t="n">
+        <v>349</v>
+      </c>
+      <c r="D193" t="n">
+        <v>349</v>
+      </c>
+      <c r="E193" t="n">
+        <v>348</v>
+      </c>
+      <c r="F193" t="n">
+        <v>738.9132</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-42009.80070815001</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>350</v>
+      </c>
+      <c r="K193" t="n">
+        <v>350</v>
+      </c>
+      <c r="L193" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>357</v>
-      </c>
-      <c r="C108" t="n">
-        <v>357</v>
-      </c>
-      <c r="D108" t="n">
-        <v>357</v>
-      </c>
-      <c r="E108" t="n">
-        <v>357</v>
-      </c>
-      <c r="F108" t="n">
-        <v>5195.0864</v>
-      </c>
-      <c r="G108" t="n">
-        <v>357</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>357</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>348</v>
+      </c>
+      <c r="C194" t="n">
+        <v>348</v>
+      </c>
+      <c r="D194" t="n">
+        <v>348</v>
+      </c>
+      <c r="E194" t="n">
+        <v>348</v>
+      </c>
+      <c r="F194" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-42039.70070815001</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>349</v>
+      </c>
+      <c r="K194" t="n">
+        <v>350</v>
+      </c>
+      <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>357</v>
-      </c>
-      <c r="C109" t="n">
-        <v>357</v>
-      </c>
-      <c r="D109" t="n">
-        <v>357</v>
-      </c>
-      <c r="E109" t="n">
-        <v>357</v>
-      </c>
-      <c r="F109" t="n">
-        <v>91.5359</v>
-      </c>
-      <c r="G109" t="n">
-        <v>357</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>357</v>
-      </c>
-      <c r="L109" t="inlineStr">
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>347</v>
+      </c>
+      <c r="C195" t="n">
+        <v>347</v>
+      </c>
+      <c r="D195" t="n">
+        <v>347</v>
+      </c>
+      <c r="E195" t="n">
+        <v>347</v>
+      </c>
+      <c r="F195" t="n">
+        <v>408.74</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-42448.44070815001</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>348</v>
+      </c>
+      <c r="K195" t="n">
+        <v>350</v>
+      </c>
+      <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>357</v>
-      </c>
-      <c r="C110" t="n">
-        <v>357</v>
-      </c>
-      <c r="D110" t="n">
-        <v>357</v>
-      </c>
-      <c r="E110" t="n">
-        <v>357</v>
-      </c>
-      <c r="F110" t="n">
-        <v>3939.2688</v>
-      </c>
-      <c r="G110" t="n">
-        <v>357</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>357</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>347</v>
+      </c>
+      <c r="C196" t="n">
+        <v>347</v>
+      </c>
+      <c r="D196" t="n">
+        <v>347</v>
+      </c>
+      <c r="E196" t="n">
+        <v>347</v>
+      </c>
+      <c r="F196" t="n">
+        <v>216.2153</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-42448.44070815001</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>347</v>
+      </c>
+      <c r="K196" t="n">
+        <v>350</v>
+      </c>
+      <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>357</v>
-      </c>
-      <c r="C111" t="n">
-        <v>357</v>
-      </c>
-      <c r="D111" t="n">
-        <v>357</v>
-      </c>
-      <c r="E111" t="n">
-        <v>357</v>
-      </c>
-      <c r="F111" t="n">
-        <v>92</v>
-      </c>
-      <c r="G111" t="n">
-        <v>357</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>357</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>357</v>
-      </c>
-      <c r="C112" t="n">
-        <v>357</v>
-      </c>
-      <c r="D112" t="n">
-        <v>357</v>
-      </c>
-      <c r="E112" t="n">
-        <v>357</v>
-      </c>
-      <c r="F112" t="n">
-        <v>139</v>
-      </c>
-      <c r="G112" t="n">
-        <v>357</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>357</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>357</v>
-      </c>
-      <c r="C113" t="n">
-        <v>357</v>
-      </c>
-      <c r="D113" t="n">
-        <v>357</v>
-      </c>
-      <c r="E113" t="n">
-        <v>357</v>
-      </c>
-      <c r="F113" t="n">
-        <v>122</v>
-      </c>
-      <c r="G113" t="n">
-        <v>357</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>357</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>355</v>
-      </c>
-      <c r="C114" t="n">
-        <v>354</v>
-      </c>
-      <c r="D114" t="n">
-        <v>355</v>
-      </c>
-      <c r="E114" t="n">
-        <v>354</v>
-      </c>
-      <c r="F114" t="n">
-        <v>50</v>
-      </c>
-      <c r="G114" t="n">
-        <v>356.4</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>357</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>354</v>
-      </c>
-      <c r="C115" t="n">
-        <v>354</v>
-      </c>
-      <c r="D115" t="n">
-        <v>354</v>
-      </c>
-      <c r="E115" t="n">
-        <v>354</v>
-      </c>
-      <c r="F115" t="n">
-        <v>930.5775</v>
-      </c>
-      <c r="G115" t="n">
-        <v>355.8</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>357</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>354</v>
-      </c>
-      <c r="C116" t="n">
-        <v>351</v>
-      </c>
-      <c r="D116" t="n">
-        <v>354</v>
-      </c>
-      <c r="E116" t="n">
-        <v>351</v>
-      </c>
-      <c r="F116" t="n">
-        <v>1550.0001</v>
-      </c>
-      <c r="G116" t="n">
-        <v>354.6</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>357</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>351</v>
-      </c>
-      <c r="C117" t="n">
-        <v>351</v>
-      </c>
-      <c r="D117" t="n">
-        <v>351</v>
-      </c>
-      <c r="E117" t="n">
-        <v>351</v>
-      </c>
-      <c r="F117" t="n">
-        <v>50</v>
-      </c>
-      <c r="G117" t="n">
-        <v>353.4</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>351</v>
-      </c>
-      <c r="K117" t="n">
-        <v>357</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>351</v>
-      </c>
-      <c r="C118" t="n">
-        <v>351</v>
-      </c>
-      <c r="D118" t="n">
-        <v>351</v>
-      </c>
-      <c r="E118" t="n">
-        <v>351</v>
-      </c>
-      <c r="F118" t="n">
-        <v>238.1377</v>
-      </c>
-      <c r="G118" t="n">
-        <v>352.2</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>351</v>
-      </c>
-      <c r="K118" t="n">
-        <v>357</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>350</v>
-      </c>
-      <c r="C119" t="n">
-        <v>350</v>
-      </c>
-      <c r="D119" t="n">
-        <v>350</v>
-      </c>
-      <c r="E119" t="n">
-        <v>350</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1150</v>
-      </c>
-      <c r="G119" t="n">
-        <v>351.4</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>351</v>
-      </c>
-      <c r="K119" t="n">
-        <v>357</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>350</v>
-      </c>
-      <c r="C120" t="n">
-        <v>350</v>
-      </c>
-      <c r="D120" t="n">
-        <v>350</v>
-      </c>
-      <c r="E120" t="n">
-        <v>350</v>
-      </c>
-      <c r="F120" t="n">
-        <v>2172.1999</v>
-      </c>
-      <c r="G120" t="n">
-        <v>350.6</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>350</v>
-      </c>
-      <c r="K120" t="n">
-        <v>357</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>350</v>
-      </c>
-      <c r="C121" t="n">
-        <v>350</v>
-      </c>
-      <c r="D121" t="n">
-        <v>350</v>
-      </c>
-      <c r="E121" t="n">
-        <v>350</v>
-      </c>
-      <c r="F121" t="n">
-        <v>2.0485</v>
-      </c>
-      <c r="G121" t="n">
-        <v>350.4</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>350</v>
-      </c>
-      <c r="K121" t="n">
-        <v>357</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>348</v>
-      </c>
-      <c r="C122" t="n">
-        <v>349</v>
-      </c>
-      <c r="D122" t="n">
-        <v>349</v>
-      </c>
-      <c r="E122" t="n">
-        <v>348</v>
-      </c>
-      <c r="F122" t="n">
-        <v>738.9132</v>
-      </c>
-      <c r="G122" t="n">
-        <v>350</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>350</v>
-      </c>
-      <c r="K122" t="n">
-        <v>357</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>348</v>
-      </c>
-      <c r="C123" t="n">
-        <v>348</v>
-      </c>
-      <c r="D123" t="n">
-        <v>348</v>
-      </c>
-      <c r="E123" t="n">
-        <v>348</v>
-      </c>
-      <c r="F123" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="G123" t="n">
-        <v>349.4</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>349</v>
-      </c>
-      <c r="K123" t="n">
-        <v>357</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>347</v>
-      </c>
-      <c r="C124" t="n">
-        <v>347</v>
-      </c>
-      <c r="D124" t="n">
-        <v>347</v>
-      </c>
-      <c r="E124" t="n">
-        <v>347</v>
-      </c>
-      <c r="F124" t="n">
-        <v>408.74</v>
-      </c>
-      <c r="G124" t="n">
-        <v>348.8</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
-        <v>348</v>
-      </c>
-      <c r="K124" t="n">
-        <v>357</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>347</v>
-      </c>
-      <c r="C125" t="n">
-        <v>347</v>
-      </c>
-      <c r="D125" t="n">
-        <v>347</v>
-      </c>
-      <c r="E125" t="n">
-        <v>347</v>
-      </c>
-      <c r="F125" t="n">
-        <v>216.2153</v>
-      </c>
-      <c r="G125" t="n">
-        <v>348.2</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>347</v>
-      </c>
-      <c r="K125" t="n">
-        <v>357</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-26 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-26 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N196"/>
+  <dimension ref="A1:M196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-13234.3158</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,21 @@
         <v>-8417.075100000005</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +624,17 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +661,17 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +698,17 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +735,17 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +772,17 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +809,17 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +846,17 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +883,17 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +920,17 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +957,17 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +994,17 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +1031,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1068,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1105,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1142,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1179,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1216,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1253,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1290,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1327,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1364,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1401,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1438,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1475,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1512,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1549,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1586,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1623,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1658,17 @@
         <v>-8586.025400000008</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1695,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1728,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1761,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1794,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1827,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1860,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1893,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1926,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1959,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1992,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +2023,19 @@
         <v>-8806.715600000009</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
+        <v>355</v>
+      </c>
+      <c r="J46" t="n">
+        <v>355</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +2060,23 @@
         <v>-9407.730000000009</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+        <v>355</v>
+      </c>
+      <c r="J47" t="n">
+        <v>355</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +2101,23 @@
         <v>-8935.032500000008</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>354</v>
+      </c>
+      <c r="J48" t="n">
+        <v>355</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,18 +2142,23 @@
         <v>-9164.032500000008</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>356</v>
+      </c>
+      <c r="J49" t="n">
+        <v>355</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2183,23 @@
         <v>-9029.550000000008</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J50" t="n">
+        <v>355</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2224,23 @@
         <v>-9029.550000000008</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+        <v>354</v>
+      </c>
+      <c r="J51" t="n">
+        <v>355</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2265,23 @@
         <v>-9029.550000000008</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>354</v>
+      </c>
+      <c r="J52" t="n">
+        <v>355</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2306,23 @@
         <v>-10591.05740000001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>354</v>
+      </c>
+      <c r="J53" t="n">
+        <v>355</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2347,23 @@
         <v>-10591.05740000001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J54" t="n">
+        <v>355</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2388,23 @@
         <v>-10591.05740000001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J55" t="n">
+        <v>355</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2431,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>355</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2468,21 @@
         <v>-10562.05740000001</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>355</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2507,21 @@
         <v>-10662.05740000001</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>355</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>0.9893661971830986</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2546,15 @@
         <v>-10662.05740000001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2544,18 +2579,15 @@
         <v>-10762.05740000001</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2612,15 @@
         <v>-10762.05740000001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2645,15 @@
         <v>-10558.23810000001</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2680,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2713,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2744,15 @@
         <v>-24562.67220000001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2779,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2812,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2845,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2876,19 @@
         <v>-20721.92150000001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
+        <v>358</v>
+      </c>
+      <c r="J69" t="n">
+        <v>358</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2915,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>358</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2954,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>358</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2993,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +3026,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +3059,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +3092,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +3125,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +3158,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +3191,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +3224,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3257,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3290,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3323,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3356,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3389,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3420,15 @@
         <v>-20057.05327253001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3453,15 @@
         <v>-20057.05327253001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3488,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3521,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3588,18 +3552,15 @@
         <v>-13467.52897253001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3624,18 +3585,15 @@
         <v>-15018.12607253001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3660,18 +3618,15 @@
         <v>-15018.12607253001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3653,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3686,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3719,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3752,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3785,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3818,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3851,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3884,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3917,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4020,18 +3948,15 @@
         <v>-16280.03597253</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3983,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +4016,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4128,18 +4047,15 @@
         <v>-21818.80827253</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +4082,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +4115,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +4148,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +4181,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +4214,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4344,18 +4245,15 @@
         <v>-22061.10217253001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4280,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4313,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4346,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4379,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4412,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4445,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4478,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4511,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4544,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4577,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4610,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4776,18 +4641,15 @@
         <v>-40878.49847253001</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4676,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4709,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4742,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4775,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4808,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4841,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4874,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4907,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4940,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4973,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +5006,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +5039,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +5072,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +5105,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +5138,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +5171,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +5204,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5237,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5270,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5303,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5336,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5369,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5402,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5435,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5468,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5501,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5534,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5567,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5600,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5633,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5666,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5699,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5732,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5765,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5798,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5831,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5864,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5897,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5930,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5963,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5996,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +6029,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +6062,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +6095,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +6128,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +6161,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +6194,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +6227,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6260,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6293,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6326,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6359,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6392,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6425,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6458,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6491,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6828,18 +6522,19 @@
         <v>-38520.88740815001</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
+        <v>357</v>
+      </c>
+      <c r="J179" t="n">
+        <v>357</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6561,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>357</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6600,19 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>357</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6639,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6972,18 +6670,19 @@
         <v>-38520.88740815001</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
+        <v>357</v>
+      </c>
+      <c r="J183" t="n">
+        <v>357</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7008,18 +6707,23 @@
         <v>-38520.88740815001</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+        <v>357</v>
+      </c>
+      <c r="J184" t="n">
+        <v>357</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7044,18 +6748,23 @@
         <v>-38570.88740815001</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+        <v>357</v>
+      </c>
+      <c r="J185" t="n">
+        <v>357</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6791,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>357</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7116,18 +6828,23 @@
         <v>-40120.88750815001</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+        <v>354</v>
+      </c>
+      <c r="J187" t="n">
+        <v>357</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6871,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>357</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7188,18 +6908,23 @@
         <v>-40120.88750815001</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+        <v>351</v>
+      </c>
+      <c r="J189" t="n">
+        <v>357</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7224,18 +6949,23 @@
         <v>-41270.88750815001</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+        <v>351</v>
+      </c>
+      <c r="J190" t="n">
+        <v>357</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7260,22 +6990,23 @@
         <v>-41270.88750815001</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="J191" t="n">
-        <v>350</v>
-      </c>
-      <c r="K191" t="n">
-        <v>350</v>
-      </c>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+        <v>357</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7300,24 +7031,21 @@
         <v>-41270.88750815001</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>350</v>
-      </c>
-      <c r="L192" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>357</v>
+      </c>
+      <c r="K192" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7344,24 +7072,19 @@
       <c r="H193" t="n">
         <v>1</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>350</v>
-      </c>
-      <c r="K193" t="n">
-        <v>350</v>
-      </c>
-      <c r="L193" t="inlineStr">
+        <v>357</v>
+      </c>
+      <c r="K193" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7388,24 +7111,19 @@
       <c r="H194" t="n">
         <v>1</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>349</v>
-      </c>
-      <c r="K194" t="n">
-        <v>350</v>
-      </c>
-      <c r="L194" t="inlineStr">
+        <v>357</v>
+      </c>
+      <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7432,24 +7150,19 @@
       <c r="H195" t="n">
         <v>1</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>348</v>
-      </c>
-      <c r="K195" t="n">
-        <v>350</v>
-      </c>
-      <c r="L195" t="inlineStr">
+        <v>357</v>
+      </c>
+      <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7476,26 +7189,21 @@
       <c r="H196" t="n">
         <v>1</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>347</v>
-      </c>
-      <c r="K196" t="n">
-        <v>350</v>
-      </c>
-      <c r="L196" t="inlineStr">
+        <v>357</v>
+      </c>
+      <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-26 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-13234.3158</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -583,17 +583,11 @@
         <v>-8417.075100000005</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>352</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -626,11 +620,7 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -663,11 +653,7 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -700,11 +686,7 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -737,11 +719,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -774,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -811,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -848,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -885,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -922,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -959,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -996,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1033,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1070,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1107,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1181,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1218,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1255,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1292,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1329,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1366,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1403,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1440,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1477,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1514,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1551,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1588,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1625,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1658,16 +1540,14 @@
         <v>-8586.025400000008</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
       <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -2023,14 +1903,10 @@
         <v>-8806.715600000009</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>355</v>
-      </c>
-      <c r="J46" t="n">
-        <v>355</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
@@ -2060,19 +1936,11 @@
         <v>-9407.730000000009</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>355</v>
-      </c>
-      <c r="J47" t="n">
-        <v>355</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2101,19 +1969,11 @@
         <v>-8935.032500000008</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>354</v>
-      </c>
-      <c r="J48" t="n">
-        <v>355</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2142,19 +2002,11 @@
         <v>-9164.032500000008</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>356</v>
-      </c>
-      <c r="J49" t="n">
-        <v>355</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2183,19 +2035,11 @@
         <v>-9029.550000000008</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>353</v>
-      </c>
-      <c r="J50" t="n">
-        <v>355</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2224,19 +2068,11 @@
         <v>-9029.550000000008</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>354</v>
-      </c>
-      <c r="J51" t="n">
-        <v>355</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2265,19 +2101,11 @@
         <v>-9029.550000000008</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>354</v>
-      </c>
-      <c r="J52" t="n">
-        <v>355</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2306,19 +2134,11 @@
         <v>-10591.05740000001</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>354</v>
-      </c>
-      <c r="J53" t="n">
-        <v>355</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2347,19 +2167,11 @@
         <v>-10591.05740000001</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>353</v>
-      </c>
-      <c r="J54" t="n">
-        <v>355</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2388,19 +2200,11 @@
         <v>-10591.05740000001</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>353</v>
-      </c>
-      <c r="J55" t="n">
-        <v>355</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2432,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>355</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2468,17 +2266,11 @@
         <v>-10562.05740000001</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>355</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2507,19 +2299,13 @@
         <v>-10662.05740000001</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>355</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
-        <v>0.9893661971830986</v>
+        <v>1</v>
       </c>
       <c r="M58" t="inlineStr"/>
     </row>
@@ -2546,7 +2332,7 @@
         <v>-10662.05740000001</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2579,7 +2365,7 @@
         <v>-10762.05740000001</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2612,7 +2398,7 @@
         <v>-10762.05740000001</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2645,7 +2431,7 @@
         <v>-10558.23810000001</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2744,7 +2530,7 @@
         <v>-24562.67220000001</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2876,14 +2662,10 @@
         <v>-20721.92150000001</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>358</v>
-      </c>
-      <c r="J69" t="n">
-        <v>358</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
@@ -2916,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>358</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2955,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>358</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2991,7 +2761,7 @@
         <v>-16978.23010000001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3321,7 +3091,7 @@
         <v>-22297.92757253001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3354,7 +3124,7 @@
         <v>-22197.92757253001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3387,7 +3157,7 @@
         <v>-20030.02627253001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3420,7 +3190,7 @@
         <v>-20057.05327253001</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3453,7 +3223,7 @@
         <v>-20057.05327253001</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3486,7 +3256,7 @@
         <v>-12897.20247253001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3519,7 +3289,7 @@
         <v>-12897.20247253001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3552,7 +3322,7 @@
         <v>-13467.52897253001</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3585,7 +3355,7 @@
         <v>-15018.12607253001</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3618,7 +3388,7 @@
         <v>-15018.12607253001</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3651,7 +3421,7 @@
         <v>-15018.12607253001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3684,7 +3454,7 @@
         <v>-15018.12607253001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3717,7 +3487,7 @@
         <v>-15017.12607253001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3750,7 +3520,7 @@
         <v>-14967.12607253001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3783,7 +3553,7 @@
         <v>-14782.01557253</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3816,7 +3586,7 @@
         <v>-14909.31557253</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3849,7 +3619,7 @@
         <v>-14661.31557253</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3882,7 +3652,7 @@
         <v>-16281.03597253</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3915,7 +3685,7 @@
         <v>-16281.03597253</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3948,7 +3718,7 @@
         <v>-16280.03597253</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3981,7 +3751,7 @@
         <v>-16280.03597253</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4014,7 +3784,7 @@
         <v>-21818.80827253</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4047,7 +3817,7 @@
         <v>-21818.80827253</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4080,7 +3850,7 @@
         <v>-17135.36227253</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4113,7 +3883,7 @@
         <v>-17006.79357253</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4146,7 +3916,7 @@
         <v>-16685.79357253</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4179,7 +3949,7 @@
         <v>-16685.79357253</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4212,7 +3982,7 @@
         <v>-16685.79357253</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4245,7 +4015,7 @@
         <v>-22061.10217253001</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4278,7 +4048,7 @@
         <v>-21953.32437253001</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4311,7 +4081,7 @@
         <v>-21954.32437253001</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4344,7 +4114,7 @@
         <v>-21954.32437253001</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4377,7 +4147,7 @@
         <v>-26069.42827253001</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4410,7 +4180,7 @@
         <v>-34570.77737253001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4443,7 +4213,7 @@
         <v>-34470.98527253001</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4476,7 +4246,7 @@
         <v>-36363.70037253001</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4509,7 +4279,7 @@
         <v>-28631.04757253001</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4542,7 +4312,7 @@
         <v>-28631.04757253001</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4575,7 +4345,7 @@
         <v>-28631.04757253001</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4608,7 +4378,7 @@
         <v>-40578.49847253001</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4641,7 +4411,7 @@
         <v>-40878.49847253001</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4674,7 +4444,7 @@
         <v>-40933.87027253001</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4707,7 +4477,7 @@
         <v>-40933.87027253001</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4740,7 +4510,7 @@
         <v>-42486.87027253001</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4773,7 +4543,7 @@
         <v>-42455.87027253001</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -6522,14 +6292,10 @@
         <v>-38520.88740815001</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
-      </c>
-      <c r="I179" t="n">
-        <v>357</v>
-      </c>
-      <c r="J179" t="n">
-        <v>357</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
@@ -6562,14 +6328,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>357</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6601,14 +6361,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>357</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6670,14 +6424,10 @@
         <v>-38520.88740815001</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="n">
-        <v>357</v>
-      </c>
-      <c r="J183" t="n">
-        <v>357</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
@@ -6707,380 +6457,340 @@
         <v>-38520.88740815001</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="n">
-        <v>357</v>
-      </c>
-      <c r="J184" t="n">
-        <v>357</v>
-      </c>
-      <c r="K184" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>355</v>
+      </c>
+      <c r="C185" t="n">
+        <v>354</v>
+      </c>
+      <c r="D185" t="n">
+        <v>355</v>
+      </c>
+      <c r="E185" t="n">
+        <v>354</v>
+      </c>
+      <c r="F185" t="n">
+        <v>50</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-38570.88740815001</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>354</v>
+      </c>
+      <c r="C186" t="n">
+        <v>354</v>
+      </c>
+      <c r="D186" t="n">
+        <v>354</v>
+      </c>
+      <c r="E186" t="n">
+        <v>354</v>
+      </c>
+      <c r="F186" t="n">
+        <v>930.5775</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-38570.88740815001</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>354</v>
+      </c>
+      <c r="C187" t="n">
+        <v>351</v>
+      </c>
+      <c r="D187" t="n">
+        <v>354</v>
+      </c>
+      <c r="E187" t="n">
+        <v>351</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1550.0001</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-40120.88750815001</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>351</v>
+      </c>
+      <c r="C188" t="n">
+        <v>351</v>
+      </c>
+      <c r="D188" t="n">
+        <v>351</v>
+      </c>
+      <c r="E188" t="n">
+        <v>351</v>
+      </c>
+      <c r="F188" t="n">
+        <v>50</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-40120.88750815001</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>351</v>
+      </c>
+      <c r="C189" t="n">
+        <v>351</v>
+      </c>
+      <c r="D189" t="n">
+        <v>351</v>
+      </c>
+      <c r="E189" t="n">
+        <v>351</v>
+      </c>
+      <c r="F189" t="n">
+        <v>238.1377</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-40120.88750815001</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>351</v>
+      </c>
+      <c r="J189" t="n">
+        <v>351</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>350</v>
+      </c>
+      <c r="C190" t="n">
+        <v>350</v>
+      </c>
+      <c r="D190" t="n">
+        <v>350</v>
+      </c>
+      <c r="E190" t="n">
+        <v>350</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1150</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-41270.88750815001</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>351</v>
+      </c>
+      <c r="J190" t="n">
+        <v>351</v>
+      </c>
+      <c r="K190" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>355</v>
-      </c>
-      <c r="C185" t="n">
-        <v>354</v>
-      </c>
-      <c r="D185" t="n">
-        <v>355</v>
-      </c>
-      <c r="E185" t="n">
-        <v>354</v>
-      </c>
-      <c r="F185" t="n">
-        <v>50</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-38570.88740815001</v>
-      </c>
-      <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>357</v>
-      </c>
-      <c r="J185" t="n">
-        <v>357</v>
-      </c>
-      <c r="K185" t="inlineStr">
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>350</v>
+      </c>
+      <c r="C191" t="n">
+        <v>350</v>
+      </c>
+      <c r="D191" t="n">
+        <v>350</v>
+      </c>
+      <c r="E191" t="n">
+        <v>350</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2172.1999</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-41270.88750815001</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>350</v>
+      </c>
+      <c r="J191" t="n">
+        <v>351</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>350</v>
+      </c>
+      <c r="C192" t="n">
+        <v>350</v>
+      </c>
+      <c r="D192" t="n">
+        <v>350</v>
+      </c>
+      <c r="E192" t="n">
+        <v>350</v>
+      </c>
+      <c r="F192" t="n">
+        <v>2.0485</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-41270.88750815001</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>350</v>
+      </c>
+      <c r="J192" t="n">
+        <v>350</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>348</v>
+      </c>
+      <c r="C193" t="n">
+        <v>349</v>
+      </c>
+      <c r="D193" t="n">
+        <v>349</v>
+      </c>
+      <c r="E193" t="n">
+        <v>348</v>
+      </c>
+      <c r="F193" t="n">
+        <v>738.9132</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-42009.80070815001</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>350</v>
+      </c>
+      <c r="J193" t="n">
+        <v>350</v>
+      </c>
+      <c r="K193" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>354</v>
-      </c>
-      <c r="C186" t="n">
-        <v>354</v>
-      </c>
-      <c r="D186" t="n">
-        <v>354</v>
-      </c>
-      <c r="E186" t="n">
-        <v>354</v>
-      </c>
-      <c r="F186" t="n">
-        <v>930.5775</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-38570.88740815001</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>357</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>354</v>
-      </c>
-      <c r="C187" t="n">
-        <v>351</v>
-      </c>
-      <c r="D187" t="n">
-        <v>354</v>
-      </c>
-      <c r="E187" t="n">
-        <v>351</v>
-      </c>
-      <c r="F187" t="n">
-        <v>1550.0001</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-40120.88750815001</v>
-      </c>
-      <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="n">
-        <v>354</v>
-      </c>
-      <c r="J187" t="n">
-        <v>357</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>351</v>
-      </c>
-      <c r="C188" t="n">
-        <v>351</v>
-      </c>
-      <c r="D188" t="n">
-        <v>351</v>
-      </c>
-      <c r="E188" t="n">
-        <v>351</v>
-      </c>
-      <c r="F188" t="n">
-        <v>50</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-40120.88750815001</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>357</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>351</v>
-      </c>
-      <c r="C189" t="n">
-        <v>351</v>
-      </c>
-      <c r="D189" t="n">
-        <v>351</v>
-      </c>
-      <c r="E189" t="n">
-        <v>351</v>
-      </c>
-      <c r="F189" t="n">
-        <v>238.1377</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-40120.88750815001</v>
-      </c>
-      <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>351</v>
-      </c>
-      <c r="J189" t="n">
-        <v>357</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>350</v>
-      </c>
-      <c r="C190" t="n">
-        <v>350</v>
-      </c>
-      <c r="D190" t="n">
-        <v>350</v>
-      </c>
-      <c r="E190" t="n">
-        <v>350</v>
-      </c>
-      <c r="F190" t="n">
-        <v>1150</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-41270.88750815001</v>
-      </c>
-      <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="n">
-        <v>351</v>
-      </c>
-      <c r="J190" t="n">
-        <v>357</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>350</v>
-      </c>
-      <c r="C191" t="n">
-        <v>350</v>
-      </c>
-      <c r="D191" t="n">
-        <v>350</v>
-      </c>
-      <c r="E191" t="n">
-        <v>350</v>
-      </c>
-      <c r="F191" t="n">
-        <v>2172.1999</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-41270.88750815001</v>
-      </c>
-      <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="n">
-        <v>350</v>
-      </c>
-      <c r="J191" t="n">
-        <v>357</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>350</v>
-      </c>
-      <c r="C192" t="n">
-        <v>350</v>
-      </c>
-      <c r="D192" t="n">
-        <v>350</v>
-      </c>
-      <c r="E192" t="n">
-        <v>350</v>
-      </c>
-      <c r="F192" t="n">
-        <v>2.0485</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-41270.88750815001</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>357</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>348</v>
-      </c>
-      <c r="C193" t="n">
-        <v>349</v>
-      </c>
-      <c r="D193" t="n">
-        <v>349</v>
-      </c>
-      <c r="E193" t="n">
-        <v>348</v>
-      </c>
-      <c r="F193" t="n">
-        <v>738.9132</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-42009.80070815001</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>357</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7111,9 +6821,11 @@
       <c r="H194" t="n">
         <v>1</v>
       </c>
-      <c r="I194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>349</v>
+      </c>
       <c r="J194" t="n">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7150,9 +6862,11 @@
       <c r="H195" t="n">
         <v>1</v>
       </c>
-      <c r="I195" t="inlineStr"/>
+      <c r="I195" t="n">
+        <v>348</v>
+      </c>
       <c r="J195" t="n">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7189,9 +6903,11 @@
       <c r="H196" t="n">
         <v>1</v>
       </c>
-      <c r="I196" t="inlineStr"/>
+      <c r="I196" t="n">
+        <v>347</v>
+      </c>
       <c r="J196" t="n">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7204,6 +6920,6 @@
       <c r="M196" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-26 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>-10825.92290000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-8820.399700000005</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-8742.141900000006</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-8973.190400000007</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-8973.190400000007</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-8324.815800000008</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-8615.392900000008</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-7958.119200000008</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-8282.460900000009</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-8277.777600000009</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-8275.777600000009</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-8346.243400000008</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-8806.715600000009</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-8806.715600000009</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-9407.730000000009</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-8935.032500000008</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-9164.032500000008</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-9029.550000000008</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-9029.550000000008</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-16978.23010000001</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-22297.92757253001</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-22197.92757253001</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-20030.02627253001</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-20057.05327253001</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-20057.05327253001</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-12897.20247253001</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-12897.20247253001</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-13467.52897253001</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-15018.12607253001</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-15018.12607253001</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-15018.12607253001</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-15017.12607253001</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-14967.12607253001</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-14782.01557253</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-14909.31557253</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-14661.31557253</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-16281.03597253</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-16281.03597253</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-16280.03597253</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-16280.03597253</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-21818.80827253</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-21818.80827253</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-17135.36227253</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-17006.79357253</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-16685.79357253</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-16685.79357253</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-16685.79357253</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-22061.10217253001</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-21953.32437253001</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-21954.32437253001</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-21954.32437253001</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-26069.42827253001</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-34570.77737253001</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-34470.98527253001</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-36363.70037253001</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-28631.04757253001</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-28631.04757253001</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-28631.04757253001</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-40578.49847253001</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-40878.49847253001</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-40933.87027253001</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-40933.87027253001</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-42486.87027253001</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-42455.87027253001</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -6490,11 +6490,17 @@
         <v>-38570.88740815001</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>357</v>
+      </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6523,11 +6529,17 @@
         <v>-38570.88740815001</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>354</v>
+      </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6560,7 +6572,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6589,11 +6605,17 @@
         <v>-40120.88750815001</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>351</v>
+      </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6627,10 +6649,12 @@
       <c r="I189" t="n">
         <v>351</v>
       </c>
-      <c r="J189" t="n">
-        <v>351</v>
-      </c>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6664,12 +6688,10 @@
       <c r="I190" t="n">
         <v>351</v>
       </c>
-      <c r="J190" t="n">
-        <v>351</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L190" t="n">
@@ -6705,12 +6727,10 @@
       <c r="I191" t="n">
         <v>350</v>
       </c>
-      <c r="J191" t="n">
-        <v>351</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L191" t="n">
@@ -6741,15 +6761,15 @@
         <v>-41270.88750815001</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>350</v>
-      </c>
-      <c r="J192" t="n">
-        <v>350</v>
-      </c>
-      <c r="K192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6778,17 +6798,13 @@
         <v>-42009.80070815001</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>350</v>
-      </c>
-      <c r="J193" t="n">
-        <v>350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L193" t="n">
@@ -6819,14 +6835,10 @@
         <v>-42039.70070815001</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>349</v>
-      </c>
-      <c r="J194" t="n">
-        <v>350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6860,14 +6872,10 @@
         <v>-42448.44070815001</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>348</v>
-      </c>
-      <c r="J195" t="n">
-        <v>350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6901,14 +6909,10 @@
         <v>-42448.44070815001</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>347</v>
-      </c>
-      <c r="J196" t="n">
-        <v>350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6920,6 +6924,6 @@
       <c r="M196" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-26 BackTest STRAT.xlsx
@@ -550,7 +550,7 @@
         <v>-10825.92290000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-8820.399700000005</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-8742.141900000006</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-8973.190400000007</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-8973.190400000007</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-8324.815800000008</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-8615.392900000008</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-7958.119200000008</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-8282.460900000009</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-8277.777600000009</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-8275.777600000009</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-8346.243400000008</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-8806.715600000009</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-8806.715600000009</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-9407.730000000009</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-8935.032500000008</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-9164.032500000008</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-9029.550000000008</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-9029.550000000008</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-20057.05327253001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-12897.20247253001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-13467.52897253001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-15018.12607253001</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-14782.01557253</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-14909.31557253</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-14661.31557253</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-16281.03597253</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-16281.03597253</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-16280.03597253</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-16280.03597253</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-21818.80827253</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-21818.80827253</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-16685.79357253</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-16685.79357253</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-16685.79357253</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-22061.10217253001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-21954.32437253001</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -6193,10 +6193,14 @@
         <v>-38520.88740815001</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>357</v>
+      </c>
+      <c r="J176" t="n">
+        <v>357</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
@@ -6226,11 +6230,19 @@
         <v>-38520.88740815001</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>357</v>
+      </c>
+      <c r="J177" t="n">
+        <v>357</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6262,8 +6274,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>357</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6292,11 +6310,19 @@
         <v>-38520.88740815001</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>357</v>
+      </c>
+      <c r="J179" t="n">
+        <v>357</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6328,8 +6354,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>357</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6358,11 +6390,19 @@
         <v>-38520.88740815001</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>357</v>
+      </c>
+      <c r="J181" t="n">
+        <v>357</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6394,8 +6434,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>357</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6424,11 +6470,19 @@
         <v>-38520.88740815001</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>357</v>
+      </c>
+      <c r="J183" t="n">
+        <v>357</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6460,8 +6514,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>357</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6490,15 +6550,15 @@
         <v>-38570.88740815001</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>357</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>357</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L185" t="n">
@@ -6534,7 +6594,9 @@
       <c r="I186" t="n">
         <v>354</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>357</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6568,10 +6630,14 @@
         <v>-40120.88750815001</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>354</v>
+      </c>
+      <c r="J187" t="n">
+        <v>357</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6610,7 +6676,9 @@
       <c r="I188" t="n">
         <v>351</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>357</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6649,7 +6717,9 @@
       <c r="I189" t="n">
         <v>351</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>357</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6688,7 +6758,9 @@
       <c r="I190" t="n">
         <v>351</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>357</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6727,7 +6799,9 @@
       <c r="I191" t="n">
         <v>350</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>357</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6761,10 +6835,14 @@
         <v>-41270.88750815001</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>350</v>
+      </c>
+      <c r="J192" t="n">
+        <v>357</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6798,10 +6876,14 @@
         <v>-42009.80070815001</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>350</v>
+      </c>
+      <c r="J193" t="n">
+        <v>357</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6835,10 +6917,14 @@
         <v>-42039.70070815001</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>349</v>
+      </c>
+      <c r="J194" t="n">
+        <v>357</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6872,10 +6958,14 @@
         <v>-42448.44070815001</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>348</v>
+      </c>
+      <c r="J195" t="n">
+        <v>357</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6909,10 +6999,14 @@
         <v>-42448.44070815001</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>347</v>
+      </c>
+      <c r="J196" t="n">
+        <v>357</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-10-26 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-26 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M196"/>
+  <dimension ref="A1:L196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>550</v>
       </c>
       <c r="G2" t="n">
-        <v>-13234.3158</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>3263.4034</v>
       </c>
       <c r="G3" t="n">
-        <v>-9970.912400000005</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>1153.2289</v>
       </c>
       <c r="G4" t="n">
-        <v>-11124.1413</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>298.2184</v>
       </c>
       <c r="G5" t="n">
-        <v>-10825.92290000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>2408.8478</v>
       </c>
       <c r="G6" t="n">
-        <v>-8417.075100000005</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>403.3246</v>
       </c>
       <c r="G7" t="n">
-        <v>-8820.399700000005</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>78.2578</v>
       </c>
       <c r="G8" t="n">
-        <v>-8742.141900000006</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>231.0485</v>
       </c>
       <c r="G9" t="n">
-        <v>-8973.190400000007</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>130.5035</v>
       </c>
       <c r="G10" t="n">
-        <v>-8973.190400000007</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>648.3746</v>
       </c>
       <c r="G11" t="n">
-        <v>-8324.815800000008</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>290.5771</v>
       </c>
       <c r="G12" t="n">
-        <v>-8615.392900000008</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>657.2737</v>
       </c>
       <c r="G13" t="n">
-        <v>-7958.119200000008</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>364.3417</v>
       </c>
       <c r="G14" t="n">
-        <v>-8322.460900000009</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>40</v>
       </c>
       <c r="G15" t="n">
-        <v>-8282.460900000009</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>4.6833</v>
       </c>
       <c r="G16" t="n">
-        <v>-8277.777600000009</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>-8275.777600000009</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>70.4658</v>
       </c>
       <c r="G18" t="n">
-        <v>-8346.243400000008</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>1844.7499</v>
       </c>
       <c r="G19" t="n">
-        <v>-8346.243400000008</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>0.077</v>
       </c>
       <c r="G20" t="n">
-        <v>-8346.243400000008</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>-8345.243400000008</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>-8346.243400000008</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>-8345.243400000008</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>220.0514</v>
       </c>
       <c r="G24" t="n">
-        <v>-8565.294800000009</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>82</v>
       </c>
       <c r="G25" t="n">
-        <v>-8565.294800000009</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>100.6239</v>
       </c>
       <c r="G26" t="n">
-        <v>-8464.670900000008</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>121.3545</v>
       </c>
       <c r="G27" t="n">
-        <v>-8586.025400000008</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>5338</v>
       </c>
       <c r="G28" t="n">
-        <v>-8586.025400000008</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>99.1754</v>
       </c>
       <c r="G29" t="n">
-        <v>-8586.025400000008</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>158</v>
       </c>
       <c r="G30" t="n">
-        <v>-8586.025400000008</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>150</v>
       </c>
       <c r="G31" t="n">
-        <v>-8586.025400000008</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>100</v>
       </c>
       <c r="G32" t="n">
-        <v>-8586.025400000008</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>2548.5154</v>
       </c>
       <c r="G33" t="n">
-        <v>-8586.025400000008</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>125.7075</v>
       </c>
       <c r="G34" t="n">
-        <v>-8586.025400000008</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>323</v>
       </c>
       <c r="G35" t="n">
-        <v>-8586.025400000008</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>3.99</v>
       </c>
       <c r="G36" t="n">
-        <v>-8582.035400000008</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>311</v>
       </c>
       <c r="G37" t="n">
-        <v>-8582.035400000008</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>1254</v>
       </c>
       <c r="G38" t="n">
-        <v>-8582.035400000008</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>51</v>
       </c>
       <c r="G39" t="n">
-        <v>-8531.035400000008</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>276.6802</v>
       </c>
       <c r="G40" t="n">
-        <v>-8807.715600000009</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>4324.3025</v>
       </c>
       <c r="G41" t="n">
-        <v>-8807.715600000009</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>1880.695</v>
       </c>
       <c r="G42" t="n">
-        <v>-8807.715600000009</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>173</v>
       </c>
       <c r="G43" t="n">
-        <v>-8807.715600000009</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>28.169</v>
       </c>
       <c r="G44" t="n">
-        <v>-8807.715600000009</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>-8806.715600000009</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>318.3294</v>
       </c>
       <c r="G46" t="n">
-        <v>-8806.715600000009</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>601.0144</v>
       </c>
       <c r="G47" t="n">
-        <v>-9407.730000000009</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>472.6975</v>
       </c>
       <c r="G48" t="n">
-        <v>-8935.032500000008</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>229</v>
       </c>
       <c r="G49" t="n">
-        <v>-9164.032500000008</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>134.4825</v>
       </c>
       <c r="G50" t="n">
-        <v>-9029.550000000008</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>76.52800000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>-9029.550000000008</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>82.9131</v>
       </c>
       <c r="G52" t="n">
-        <v>-9029.550000000008</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>1561.5074</v>
       </c>
       <c r="G53" t="n">
-        <v>-10591.05740000001</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>7540.0756</v>
       </c>
       <c r="G54" t="n">
-        <v>-10591.05740000001</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>365.3889</v>
       </c>
       <c r="G55" t="n">
-        <v>-10591.05740000001</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>29</v>
       </c>
       <c r="G56" t="n">
-        <v>-10562.05740000001</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>43.1446</v>
       </c>
       <c r="G57" t="n">
-        <v>-10562.05740000001</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>100</v>
       </c>
       <c r="G58" t="n">
-        <v>-10662.05740000001</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>520.0091</v>
       </c>
       <c r="G59" t="n">
-        <v>-10662.05740000001</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>100</v>
       </c>
       <c r="G60" t="n">
-        <v>-10762.05740000001</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>2049.5667</v>
       </c>
       <c r="G61" t="n">
-        <v>-10762.05740000001</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>203.8193</v>
       </c>
       <c r="G62" t="n">
-        <v>-10558.23810000001</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>14355.9032</v>
       </c>
       <c r="G63" t="n">
-        <v>-24914.14130000001</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>300.4691</v>
       </c>
       <c r="G64" t="n">
-        <v>-24613.67220000001</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>51</v>
       </c>
       <c r="G65" t="n">
-        <v>-24562.67220000001</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>136</v>
       </c>
       <c r="G66" t="n">
-        <v>-24698.67220000001</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>3080.8939</v>
       </c>
       <c r="G67" t="n">
-        <v>-21617.77830000001</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>895.8568</v>
       </c>
       <c r="G68" t="n">
-        <v>-20721.92150000001</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>418.6886</v>
       </c>
       <c r="G69" t="n">
-        <v>-20721.92150000001</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>4020.0012</v>
       </c>
       <c r="G70" t="n">
-        <v>-16701.92030000001</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>223.6902</v>
       </c>
       <c r="G71" t="n">
-        <v>-16478.23010000001</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>500</v>
       </c>
       <c r="G72" t="n">
-        <v>-16978.23010000001</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>300</v>
       </c>
       <c r="G73" t="n">
-        <v>-17278.23010000001</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>426.4484</v>
       </c>
       <c r="G74" t="n">
-        <v>-17278.23010000001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>225.8448</v>
       </c>
       <c r="G75" t="n">
-        <v>-17052.38530000001</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>1000</v>
       </c>
       <c r="G76" t="n">
-        <v>-17052.38530000001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>125</v>
       </c>
       <c r="G77" t="n">
-        <v>-17177.38530000001</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>-17176.38530000001</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>363.8559</v>
       </c>
       <c r="G79" t="n">
-        <v>-17540.24120000001</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>300.1876</v>
       </c>
       <c r="G80" t="n">
-        <v>-17540.24120000001</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>27.47252747</v>
       </c>
       <c r="G81" t="n">
-        <v>-17512.76867253001</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>4785.1589</v>
       </c>
       <c r="G82" t="n">
-        <v>-22297.92757253001</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>100</v>
       </c>
       <c r="G83" t="n">
-        <v>-22197.92757253001</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>2167.9013</v>
       </c>
       <c r="G84" t="n">
-        <v>-20030.02627253001</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>27.027</v>
       </c>
       <c r="G85" t="n">
-        <v>-20057.05327253001</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>2010.9765</v>
       </c>
       <c r="G86" t="n">
-        <v>-20057.05327253001</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>7159.8508</v>
       </c>
       <c r="G87" t="n">
-        <v>-12897.20247253001</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>3816.8998</v>
       </c>
       <c r="G88" t="n">
-        <v>-12897.20247253001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>570.3265</v>
       </c>
       <c r="G89" t="n">
-        <v>-13467.52897253001</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>1550.5971</v>
       </c>
       <c r="G90" t="n">
-        <v>-15018.12607253001</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>1788</v>
       </c>
       <c r="G91" t="n">
-        <v>-15018.12607253001</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>1382.0085</v>
       </c>
       <c r="G92" t="n">
-        <v>-15018.12607253001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>2264.8805</v>
       </c>
       <c r="G93" t="n">
-        <v>-15018.12607253001</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>-15017.12607253001</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>50</v>
       </c>
       <c r="G95" t="n">
-        <v>-14967.12607253001</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>185.1105</v>
       </c>
       <c r="G96" t="n">
-        <v>-14782.01557253</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>127.3</v>
       </c>
       <c r="G97" t="n">
-        <v>-14909.31557253</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>248</v>
       </c>
       <c r="G98" t="n">
-        <v>-14661.31557253</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>1619.7204</v>
       </c>
       <c r="G99" t="n">
-        <v>-16281.03597253</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>932</v>
       </c>
       <c r="G100" t="n">
-        <v>-16281.03597253</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>-16280.03597253</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>9961.609700000001</v>
       </c>
       <c r="G102" t="n">
-        <v>-16280.03597253</v>
-      </c>
-      <c r="H102" t="n">
         <v>2</v>
       </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>5538.7723</v>
       </c>
       <c r="G103" t="n">
-        <v>-21818.80827253</v>
-      </c>
-      <c r="H103" t="n">
         <v>2</v>
       </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>4008.1105</v>
       </c>
       <c r="G104" t="n">
-        <v>-21818.80827253</v>
-      </c>
-      <c r="H104" t="n">
         <v>2</v>
       </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>4683.446</v>
       </c>
       <c r="G105" t="n">
-        <v>-17135.36227253</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>128.5687</v>
       </c>
       <c r="G106" t="n">
-        <v>-17006.79357253</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>321</v>
       </c>
       <c r="G107" t="n">
-        <v>-16685.79357253</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>210.6479</v>
       </c>
       <c r="G108" t="n">
-        <v>-16685.79357253</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>33.3168</v>
       </c>
       <c r="G109" t="n">
-        <v>-16685.79357253</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>5375.3086</v>
       </c>
       <c r="G110" t="n">
-        <v>-22061.10217253001</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>107.7778</v>
       </c>
       <c r="G111" t="n">
-        <v>-21953.32437253001</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>-21954.32437253001</v>
-      </c>
-      <c r="H112" t="n">
         <v>2</v>
       </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>56.0282</v>
       </c>
       <c r="G113" t="n">
-        <v>-21954.32437253001</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>4115.1039</v>
       </c>
       <c r="G114" t="n">
-        <v>-26069.42827253001</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>8501.349099999999</v>
       </c>
       <c r="G115" t="n">
-        <v>-34570.77737253001</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>99.7921</v>
       </c>
       <c r="G116" t="n">
-        <v>-34470.98527253001</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>1892.7151</v>
       </c>
       <c r="G117" t="n">
-        <v>-36363.70037253001</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>7732.6528</v>
       </c>
       <c r="G118" t="n">
-        <v>-28631.04757253001</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>446.2022</v>
       </c>
       <c r="G119" t="n">
-        <v>-28631.04757253001</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>169.1125</v>
       </c>
       <c r="G120" t="n">
-        <v>-28631.04757253001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>11947.4509</v>
       </c>
       <c r="G121" t="n">
-        <v>-40578.49847253001</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>300</v>
       </c>
       <c r="G122" t="n">
-        <v>-40878.49847253001</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>55.3718</v>
       </c>
       <c r="G123" t="n">
-        <v>-40933.87027253001</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>16</v>
       </c>
       <c r="G124" t="n">
-        <v>-40933.87027253001</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>1553</v>
       </c>
       <c r="G125" t="n">
-        <v>-42486.87027253001</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>31</v>
       </c>
       <c r="G126" t="n">
-        <v>-42455.87027253001</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>515.0339</v>
       </c>
       <c r="G127" t="n">
-        <v>-41940.83637253001</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>157</v>
       </c>
       <c r="G128" t="n">
-        <v>-42097.83637253001</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>87.0869</v>
       </c>
       <c r="G129" t="n">
-        <v>-42184.92327253001</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>476.3323</v>
       </c>
       <c r="G130" t="n">
-        <v>-42661.25557253001</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>298.6</v>
       </c>
       <c r="G131" t="n">
-        <v>-42362.65557253001</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>1389.9586</v>
       </c>
       <c r="G132" t="n">
-        <v>-43752.61417253001</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>3007.8671</v>
       </c>
       <c r="G133" t="n">
-        <v>-40744.74707253001</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>500</v>
       </c>
       <c r="G134" t="n">
-        <v>-40744.74707253001</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>500</v>
       </c>
       <c r="G135" t="n">
-        <v>-40744.74707253001</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>1476.2016</v>
       </c>
       <c r="G136" t="n">
-        <v>-42220.94867253001</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>1</v>
       </c>
       <c r="G137" t="n">
-        <v>-42219.94867253001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>162.1</v>
       </c>
       <c r="G138" t="n">
-        <v>-42382.04867253001</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>1</v>
       </c>
       <c r="G139" t="n">
-        <v>-42381.04867253001</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>485.5994</v>
       </c>
       <c r="G140" t="n">
-        <v>-42866.64807253001</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>56.022</v>
       </c>
       <c r="G141" t="n">
-        <v>-42810.62607253001</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>969</v>
       </c>
       <c r="G142" t="n">
-        <v>-43779.62607253001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>768.6685</v>
       </c>
       <c r="G143" t="n">
-        <v>-43779.62607253001</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>8301.214664380001</v>
       </c>
       <c r="G144" t="n">
-        <v>-35478.41140815001</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>1191.1689</v>
       </c>
       <c r="G145" t="n">
-        <v>-36669.58030815001</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>1408.0745</v>
       </c>
       <c r="G146" t="n">
-        <v>-36669.58030815001</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>227.4504</v>
       </c>
       <c r="G147" t="n">
-        <v>-36669.58030815001</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>100</v>
       </c>
       <c r="G148" t="n">
-        <v>-36669.58030815001</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>109.21</v>
       </c>
       <c r="G149" t="n">
-        <v>-36669.58030815001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>96</v>
       </c>
       <c r="G150" t="n">
-        <v>-36573.58030815001</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>32</v>
       </c>
       <c r="G151" t="n">
-        <v>-36573.58030815001</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>112.259</v>
       </c>
       <c r="G152" t="n">
-        <v>-36685.83930815</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>1082</v>
       </c>
       <c r="G153" t="n">
-        <v>-36685.83930815</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>126.2009</v>
       </c>
       <c r="G154" t="n">
-        <v>-36685.83930815</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>317.0422</v>
       </c>
       <c r="G155" t="n">
-        <v>-37002.88150815001</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>1439.0094</v>
       </c>
       <c r="G156" t="n">
-        <v>-35563.87210815</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>229.17</v>
       </c>
       <c r="G157" t="n">
-        <v>-35563.87210815</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>110.5453</v>
       </c>
       <c r="G158" t="n">
-        <v>-35563.87210815</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>45.502</v>
       </c>
       <c r="G159" t="n">
-        <v>-35609.37410815</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>71.28879999999999</v>
       </c>
       <c r="G160" t="n">
-        <v>-35609.37410815</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>110.5472</v>
       </c>
       <c r="G161" t="n">
-        <v>-35498.82690815</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>317.5337</v>
       </c>
       <c r="G162" t="n">
-        <v>-35816.36060815</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>404.0422</v>
       </c>
       <c r="G163" t="n">
-        <v>-35816.36060815</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>99.9999</v>
       </c>
       <c r="G164" t="n">
-        <v>-35716.36070815</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>333</v>
       </c>
       <c r="G165" t="n">
-        <v>-35716.36070815</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>26.8752</v>
       </c>
       <c r="G166" t="n">
-        <v>-35716.36070815</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>7</v>
       </c>
       <c r="G167" t="n">
-        <v>-35716.36070815</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>699.1442</v>
       </c>
       <c r="G168" t="n">
-        <v>-36415.50490815</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>561.9999</v>
       </c>
       <c r="G169" t="n">
-        <v>-36977.50480815001</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>148</v>
       </c>
       <c r="G170" t="n">
-        <v>-36977.50480815001</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>50</v>
       </c>
       <c r="G171" t="n">
-        <v>-36977.50480815001</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>1300.3009</v>
       </c>
       <c r="G172" t="n">
-        <v>-38277.80570815001</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>243.0817</v>
       </c>
       <c r="G173" t="n">
-        <v>-38520.88740815001</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>559.9032</v>
       </c>
       <c r="G174" t="n">
-        <v>-38520.88740815001</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>412.2419</v>
       </c>
       <c r="G175" t="n">
-        <v>-38520.88740815001</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,22 +5663,15 @@
         <v>460</v>
       </c>
       <c r="G176" t="n">
-        <v>-38520.88740815001</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>357</v>
-      </c>
-      <c r="J176" t="n">
-        <v>357</v>
-      </c>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6227,26 +5693,15 @@
         <v>342</v>
       </c>
       <c r="G177" t="n">
-        <v>-38520.88740815001</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>357</v>
-      </c>
-      <c r="J177" t="n">
-        <v>357</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6268,754 +5723,579 @@
         <v>298</v>
       </c>
       <c r="G178" t="n">
-        <v>-38520.88740815001</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>357</v>
-      </c>
-      <c r="K178" t="inlineStr">
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>357</v>
+      </c>
+      <c r="C179" t="n">
+        <v>357</v>
+      </c>
+      <c r="D179" t="n">
+        <v>357</v>
+      </c>
+      <c r="E179" t="n">
+        <v>357</v>
+      </c>
+      <c r="F179" t="n">
+        <v>5195.0864</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>357</v>
+      </c>
+      <c r="C180" t="n">
+        <v>357</v>
+      </c>
+      <c r="D180" t="n">
+        <v>357</v>
+      </c>
+      <c r="E180" t="n">
+        <v>357</v>
+      </c>
+      <c r="F180" t="n">
+        <v>91.5359</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>357</v>
+      </c>
+      <c r="C181" t="n">
+        <v>357</v>
+      </c>
+      <c r="D181" t="n">
+        <v>357</v>
+      </c>
+      <c r="E181" t="n">
+        <v>357</v>
+      </c>
+      <c r="F181" t="n">
+        <v>3939.2688</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>357</v>
+      </c>
+      <c r="C182" t="n">
+        <v>357</v>
+      </c>
+      <c r="D182" t="n">
+        <v>357</v>
+      </c>
+      <c r="E182" t="n">
+        <v>357</v>
+      </c>
+      <c r="F182" t="n">
+        <v>92</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>357</v>
+      </c>
+      <c r="C183" t="n">
+        <v>357</v>
+      </c>
+      <c r="D183" t="n">
+        <v>357</v>
+      </c>
+      <c r="E183" t="n">
+        <v>357</v>
+      </c>
+      <c r="F183" t="n">
+        <v>139</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>357</v>
+      </c>
+      <c r="C184" t="n">
+        <v>357</v>
+      </c>
+      <c r="D184" t="n">
+        <v>357</v>
+      </c>
+      <c r="E184" t="n">
+        <v>357</v>
+      </c>
+      <c r="F184" t="n">
+        <v>122</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>355</v>
+      </c>
+      <c r="C185" t="n">
+        <v>354</v>
+      </c>
+      <c r="D185" t="n">
+        <v>355</v>
+      </c>
+      <c r="E185" t="n">
+        <v>354</v>
+      </c>
+      <c r="F185" t="n">
+        <v>50</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>354</v>
+      </c>
+      <c r="C186" t="n">
+        <v>354</v>
+      </c>
+      <c r="D186" t="n">
+        <v>354</v>
+      </c>
+      <c r="E186" t="n">
+        <v>354</v>
+      </c>
+      <c r="F186" t="n">
+        <v>930.5775</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>354</v>
+      </c>
+      <c r="C187" t="n">
+        <v>351</v>
+      </c>
+      <c r="D187" t="n">
+        <v>354</v>
+      </c>
+      <c r="E187" t="n">
+        <v>351</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1550.0001</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>351</v>
+      </c>
+      <c r="C188" t="n">
+        <v>351</v>
+      </c>
+      <c r="D188" t="n">
+        <v>351</v>
+      </c>
+      <c r="E188" t="n">
+        <v>351</v>
+      </c>
+      <c r="F188" t="n">
+        <v>50</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>351</v>
+      </c>
+      <c r="C189" t="n">
+        <v>351</v>
+      </c>
+      <c r="D189" t="n">
+        <v>351</v>
+      </c>
+      <c r="E189" t="n">
+        <v>351</v>
+      </c>
+      <c r="F189" t="n">
+        <v>238.1377</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>350</v>
+      </c>
+      <c r="C190" t="n">
+        <v>350</v>
+      </c>
+      <c r="D190" t="n">
+        <v>350</v>
+      </c>
+      <c r="E190" t="n">
+        <v>350</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1150</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>350</v>
+      </c>
+      <c r="C191" t="n">
+        <v>350</v>
+      </c>
+      <c r="D191" t="n">
+        <v>350</v>
+      </c>
+      <c r="E191" t="n">
+        <v>350</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2172.1999</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>350</v>
+      </c>
+      <c r="C192" t="n">
+        <v>350</v>
+      </c>
+      <c r="D192" t="n">
+        <v>350</v>
+      </c>
+      <c r="E192" t="n">
+        <v>350</v>
+      </c>
+      <c r="F192" t="n">
+        <v>2.0485</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>348</v>
+      </c>
+      <c r="C193" t="n">
+        <v>349</v>
+      </c>
+      <c r="D193" t="n">
+        <v>349</v>
+      </c>
+      <c r="E193" t="n">
+        <v>348</v>
+      </c>
+      <c r="F193" t="n">
+        <v>738.9132</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1</v>
+      </c>
+      <c r="H193" t="n">
+        <v>350</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>357</v>
-      </c>
-      <c r="C179" t="n">
-        <v>357</v>
-      </c>
-      <c r="D179" t="n">
-        <v>357</v>
-      </c>
-      <c r="E179" t="n">
-        <v>357</v>
-      </c>
-      <c r="F179" t="n">
-        <v>5195.0864</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-38520.88740815001</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>357</v>
-      </c>
-      <c r="J179" t="n">
-        <v>357</v>
-      </c>
-      <c r="K179" t="inlineStr">
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>348</v>
+      </c>
+      <c r="C194" t="n">
+        <v>348</v>
+      </c>
+      <c r="D194" t="n">
+        <v>348</v>
+      </c>
+      <c r="E194" t="n">
+        <v>348</v>
+      </c>
+      <c r="F194" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1</v>
+      </c>
+      <c r="H194" t="n">
+        <v>349</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>357</v>
-      </c>
-      <c r="C180" t="n">
-        <v>357</v>
-      </c>
-      <c r="D180" t="n">
-        <v>357</v>
-      </c>
-      <c r="E180" t="n">
-        <v>357</v>
-      </c>
-      <c r="F180" t="n">
-        <v>91.5359</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-38520.88740815001</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>357</v>
-      </c>
-      <c r="K180" t="inlineStr">
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>347</v>
+      </c>
+      <c r="C195" t="n">
+        <v>347</v>
+      </c>
+      <c r="D195" t="n">
+        <v>347</v>
+      </c>
+      <c r="E195" t="n">
+        <v>347</v>
+      </c>
+      <c r="F195" t="n">
+        <v>408.74</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1</v>
+      </c>
+      <c r="H195" t="n">
+        <v>348</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>357</v>
-      </c>
-      <c r="C181" t="n">
-        <v>357</v>
-      </c>
-      <c r="D181" t="n">
-        <v>357</v>
-      </c>
-      <c r="E181" t="n">
-        <v>357</v>
-      </c>
-      <c r="F181" t="n">
-        <v>3939.2688</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-38520.88740815001</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>357</v>
-      </c>
-      <c r="J181" t="n">
-        <v>357</v>
-      </c>
-      <c r="K181" t="inlineStr">
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>347</v>
+      </c>
+      <c r="C196" t="n">
+        <v>347</v>
+      </c>
+      <c r="D196" t="n">
+        <v>347</v>
+      </c>
+      <c r="E196" t="n">
+        <v>347</v>
+      </c>
+      <c r="F196" t="n">
+        <v>216.2153</v>
+      </c>
+      <c r="G196" t="n">
+        <v>1</v>
+      </c>
+      <c r="H196" t="n">
+        <v>347</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>357</v>
-      </c>
-      <c r="C182" t="n">
-        <v>357</v>
-      </c>
-      <c r="D182" t="n">
-        <v>357</v>
-      </c>
-      <c r="E182" t="n">
-        <v>357</v>
-      </c>
-      <c r="F182" t="n">
-        <v>92</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-38520.88740815001</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>357</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>357</v>
-      </c>
-      <c r="C183" t="n">
-        <v>357</v>
-      </c>
-      <c r="D183" t="n">
-        <v>357</v>
-      </c>
-      <c r="E183" t="n">
-        <v>357</v>
-      </c>
-      <c r="F183" t="n">
-        <v>139</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-38520.88740815001</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>357</v>
-      </c>
-      <c r="J183" t="n">
-        <v>357</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>357</v>
-      </c>
-      <c r="C184" t="n">
-        <v>357</v>
-      </c>
-      <c r="D184" t="n">
-        <v>357</v>
-      </c>
-      <c r="E184" t="n">
-        <v>357</v>
-      </c>
-      <c r="F184" t="n">
-        <v>122</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-38520.88740815001</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>357</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>355</v>
-      </c>
-      <c r="C185" t="n">
-        <v>354</v>
-      </c>
-      <c r="D185" t="n">
-        <v>355</v>
-      </c>
-      <c r="E185" t="n">
-        <v>354</v>
-      </c>
-      <c r="F185" t="n">
-        <v>50</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-38570.88740815001</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>357</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>354</v>
-      </c>
-      <c r="C186" t="n">
-        <v>354</v>
-      </c>
-      <c r="D186" t="n">
-        <v>354</v>
-      </c>
-      <c r="E186" t="n">
-        <v>354</v>
-      </c>
-      <c r="F186" t="n">
-        <v>930.5775</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-38570.88740815001</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>354</v>
-      </c>
-      <c r="J186" t="n">
-        <v>357</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>354</v>
-      </c>
-      <c r="C187" t="n">
-        <v>351</v>
-      </c>
-      <c r="D187" t="n">
-        <v>354</v>
-      </c>
-      <c r="E187" t="n">
-        <v>351</v>
-      </c>
-      <c r="F187" t="n">
-        <v>1550.0001</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-40120.88750815001</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>354</v>
-      </c>
-      <c r="J187" t="n">
-        <v>357</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>351</v>
-      </c>
-      <c r="C188" t="n">
-        <v>351</v>
-      </c>
-      <c r="D188" t="n">
-        <v>351</v>
-      </c>
-      <c r="E188" t="n">
-        <v>351</v>
-      </c>
-      <c r="F188" t="n">
-        <v>50</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-40120.88750815001</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>351</v>
-      </c>
-      <c r="J188" t="n">
-        <v>357</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>351</v>
-      </c>
-      <c r="C189" t="n">
-        <v>351</v>
-      </c>
-      <c r="D189" t="n">
-        <v>351</v>
-      </c>
-      <c r="E189" t="n">
-        <v>351</v>
-      </c>
-      <c r="F189" t="n">
-        <v>238.1377</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-40120.88750815001</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>351</v>
-      </c>
-      <c r="J189" t="n">
-        <v>357</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>350</v>
-      </c>
-      <c r="C190" t="n">
-        <v>350</v>
-      </c>
-      <c r="D190" t="n">
-        <v>350</v>
-      </c>
-      <c r="E190" t="n">
-        <v>350</v>
-      </c>
-      <c r="F190" t="n">
-        <v>1150</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-41270.88750815001</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>351</v>
-      </c>
-      <c r="J190" t="n">
-        <v>357</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>350</v>
-      </c>
-      <c r="C191" t="n">
-        <v>350</v>
-      </c>
-      <c r="D191" t="n">
-        <v>350</v>
-      </c>
-      <c r="E191" t="n">
-        <v>350</v>
-      </c>
-      <c r="F191" t="n">
-        <v>2172.1999</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-41270.88750815001</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>350</v>
-      </c>
-      <c r="J191" t="n">
-        <v>357</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>350</v>
-      </c>
-      <c r="C192" t="n">
-        <v>350</v>
-      </c>
-      <c r="D192" t="n">
-        <v>350</v>
-      </c>
-      <c r="E192" t="n">
-        <v>350</v>
-      </c>
-      <c r="F192" t="n">
-        <v>2.0485</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-41270.88750815001</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>350</v>
-      </c>
-      <c r="J192" t="n">
-        <v>357</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>348</v>
-      </c>
-      <c r="C193" t="n">
-        <v>349</v>
-      </c>
-      <c r="D193" t="n">
-        <v>349</v>
-      </c>
-      <c r="E193" t="n">
-        <v>348</v>
-      </c>
-      <c r="F193" t="n">
-        <v>738.9132</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-42009.80070815001</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>350</v>
-      </c>
-      <c r="J193" t="n">
-        <v>357</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>348</v>
-      </c>
-      <c r="C194" t="n">
-        <v>348</v>
-      </c>
-      <c r="D194" t="n">
-        <v>348</v>
-      </c>
-      <c r="E194" t="n">
-        <v>348</v>
-      </c>
-      <c r="F194" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-42039.70070815001</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>349</v>
-      </c>
-      <c r="J194" t="n">
-        <v>357</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>347</v>
-      </c>
-      <c r="C195" t="n">
-        <v>347</v>
-      </c>
-      <c r="D195" t="n">
-        <v>347</v>
-      </c>
-      <c r="E195" t="n">
-        <v>347</v>
-      </c>
-      <c r="F195" t="n">
-        <v>408.74</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-42448.44070815001</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>348</v>
-      </c>
-      <c r="J195" t="n">
-        <v>357</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>347</v>
-      </c>
-      <c r="C196" t="n">
-        <v>347</v>
-      </c>
-      <c r="D196" t="n">
-        <v>347</v>
-      </c>
-      <c r="E196" t="n">
-        <v>347</v>
-      </c>
-      <c r="F196" t="n">
-        <v>216.2153</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-42448.44070815001</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>347</v>
-      </c>
-      <c r="J196" t="n">
-        <v>357</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
